--- a/FarthorlPacMan/DataFiles/levelCreator.xlsx
+++ b/FarthorlPacMan/DataFiles/levelCreator.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyan.ivanov\Desktop\FarthorlPacMan\trunk\FarthorlPacMan\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GraphicMatrix" sheetId="1" r:id="rId1"/>
     <sheet name="Matrix - result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="4">
   <si>
     <t>0</t>
   </si>
@@ -35,11 +35,14 @@
   <si>
     <t>След, като сте приключили с създаването на нивото, в sheet "Matrix - result" ще ви се генерира стринговата поредица, която трябва да се изнесе в текстов файл.</t>
   </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,6 +185,12 @@
   <dxfs count="3">
     <dxf>
       <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left/>
         <right/>
         <top/>
@@ -209,12 +218,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <vertical/>
         <horizontal/>
       </border>
@@ -368,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
@@ -688,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>0</v>
@@ -706,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>0</v>
@@ -727,70 +764,70 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>0</v>
@@ -811,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>0</v>
@@ -838,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>0</v>
@@ -850,25 +887,25 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -889,40 +926,40 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>0</v>
@@ -940,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>0</v>
@@ -973,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>0</v>
@@ -988,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
@@ -1000,34 +1037,34 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="11"/>
     </row>
@@ -1039,40 +1076,40 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>0</v>
@@ -1105,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="11"/>
     </row>
@@ -1117,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
@@ -1156,34 +1193,34 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="11"/>
     </row>
@@ -1195,43 +1232,43 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>0</v>
@@ -1240,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>0</v>
@@ -1249,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z9" s="11"/>
     </row>
@@ -1285,37 +1322,37 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>0</v>
@@ -1327,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z10" s="11"/>
     </row>
@@ -1351,73 +1388,73 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="11"/>
     </row>
@@ -1435,61 +1472,61 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>0</v>
@@ -1507,70 +1544,70 @@
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>0</v>
@@ -1597,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>0</v>
@@ -1621,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>0</v>
@@ -1695,15 +1732,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="srW5Qi5SjKEK+HcMoN36gYoYp/0E6gOzEyfVGM7O0GaF8WQ+pv/2C+JGQfxbFZvSbJG6yqN4FbBaxnnK+3P2ug==" saltValue="2FhCcDzrr5Sxp3opMbWX0g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:Y14">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"1"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Y13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1717,13 +1754,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D312"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="13" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1746,210 +1783,210 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>IF(GraphicMatrix!B3="0","0,1",IF(GraphicMatrix!B3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D2" s="13" t="str">
-        <f t="shared" ref="D2:D65" si="0">A2&amp;","&amp;B2&amp;"="&amp;C2</f>
-        <v>1,0=0,1</v>
+        <f>A2&amp;","&amp;B2&amp;"="&amp;C2</f>
+        <v>0,1=0,1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>IF(GraphicMatrix!B4="0","0,1",IF(GraphicMatrix!B4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>2,0=0,1</v>
+        <f>A3&amp;","&amp;B3&amp;"="&amp;C3</f>
+        <v>0,2=0,1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>IF(GraphicMatrix!B5="0","0,1",IF(GraphicMatrix!B5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>3,0=0,1</v>
+        <f>A4&amp;","&amp;B4&amp;"="&amp;C4</f>
+        <v>0,3=0,1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>IF(GraphicMatrix!B6="0","0,1",IF(GraphicMatrix!B6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>4,0=0,1</v>
+        <f>A5&amp;","&amp;B5&amp;"="&amp;C5</f>
+        <v>0,4=0,1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>IF(GraphicMatrix!B7="0","0,1",IF(GraphicMatrix!B7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>5,0=0,1</v>
+        <f>A6&amp;","&amp;B6&amp;"="&amp;C6</f>
+        <v>0,5=0,1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
         <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>IF(GraphicMatrix!B8="0","0,1",IF(GraphicMatrix!B8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>6,0=0,1</v>
+        <f>A7&amp;","&amp;B7&amp;"="&amp;C7</f>
+        <v>0,6=0,1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>IF(GraphicMatrix!B9="0","0,1",IF(GraphicMatrix!B9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>7,0=0,1</v>
+        <f>A8&amp;","&amp;B8&amp;"="&amp;C8</f>
+        <v>0,7=0,1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
         <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(GraphicMatrix!B10="0","0,1",IF(GraphicMatrix!B10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>8,0=0,1</v>
+        <f>A9&amp;","&amp;B9&amp;"="&amp;C9</f>
+        <v>0,8=0,1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(GraphicMatrix!B11="0","0,1",IF(GraphicMatrix!B11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>9,0=0,1</v>
+        <f>A10&amp;","&amp;B10&amp;"="&amp;C10</f>
+        <v>0,9=0,1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
         <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>IF(GraphicMatrix!B12="0","0,1",IF(GraphicMatrix!B12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>10,0=0,1</v>
+        <f>A11&amp;","&amp;B11&amp;"="&amp;C11</f>
+        <v>0,10=0,1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
         <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>IF(GraphicMatrix!B13="0","0,1",IF(GraphicMatrix!B13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>11,0=0,1</v>
+        <f>A12&amp;","&amp;B12&amp;"="&amp;C12</f>
+        <v>0,11=0,1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
         <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IF(GraphicMatrix!B14="0","0,1",IF(GraphicMatrix!B14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>12,0=0,1</v>
+        <f>A13&amp;","&amp;B13&amp;"="&amp;C13</f>
+        <v>0,12=0,1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>IF(GraphicMatrix!C2="0","0,1",IF(GraphicMatrix!C2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>0,1=0,1</v>
+        <f>A14&amp;","&amp;B14&amp;"="&amp;C14</f>
+        <v>1,0=0,1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,219 +1998,219 @@
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(GraphicMatrix!C3="0","0,1",IF(GraphicMatrix!C3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>1,1=0,1</v>
+        <f>A15&amp;","&amp;B15&amp;"="&amp;C15</f>
+        <v>1,1=1,0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
         <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>IF(GraphicMatrix!C4="0","0,1",IF(GraphicMatrix!C4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>2,1=0,1</v>
+        <f>A16&amp;","&amp;B16&amp;"="&amp;C16</f>
+        <v>1,2=0,1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>IF(GraphicMatrix!C5="0","0,1",IF(GraphicMatrix!C5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>3,1=0,1</v>
+        <f>A17&amp;","&amp;B17&amp;"="&amp;C17</f>
+        <v>1,3=0,1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
         <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>IF(GraphicMatrix!C6="0","0,1",IF(GraphicMatrix!C6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>4,1=0,1</v>
+        <f>A18&amp;","&amp;B18&amp;"="&amp;C18</f>
+        <v>1,4=0,1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
         <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(GraphicMatrix!C7="0","0,1",IF(GraphicMatrix!C7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>5,1=0,1</v>
+        <f>A19&amp;","&amp;B19&amp;"="&amp;C19</f>
+        <v>1,5=1,0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
         <v>6</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>IF(GraphicMatrix!C8="0","0,1",IF(GraphicMatrix!C8="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>6,1=0,1</v>
+        <f>A20&amp;","&amp;B20&amp;"="&amp;C20</f>
+        <v>1,6=1,0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
         <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(GraphicMatrix!C9="0","0,1",IF(GraphicMatrix!C9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>7,1=0,1</v>
+        <f>A21&amp;","&amp;B21&amp;"="&amp;C21</f>
+        <v>1,7=1,0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
         <v>8</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>IF(GraphicMatrix!C10="0","0,1",IF(GraphicMatrix!C10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>8,1=0,1</v>
+        <f>A22&amp;","&amp;B22&amp;"="&amp;C22</f>
+        <v>1,8=0,1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
         <v>9</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>IF(GraphicMatrix!C11="0","0,1",IF(GraphicMatrix!C11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>9,1=0,1</v>
+        <f>A23&amp;","&amp;B23&amp;"="&amp;C23</f>
+        <v>1,9=1,0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
         <v>10</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>IF(GraphicMatrix!C12="0","0,1",IF(GraphicMatrix!C12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>10,1=0,1</v>
+        <f>A24&amp;","&amp;B24&amp;"="&amp;C24</f>
+        <v>1,10=0,1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
         <v>11</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(GraphicMatrix!C13="0","0,1",IF(GraphicMatrix!C13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>11,1=0,1</v>
+        <f>A25&amp;","&amp;B25&amp;"="&amp;C25</f>
+        <v>1,11=1,0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
         <v>12</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>IF(GraphicMatrix!C14="0","0,1",IF(GraphicMatrix!C14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>12,1=0,1</v>
+        <f>A26&amp;","&amp;B26&amp;"="&amp;C26</f>
+        <v>1,12=0,1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(GraphicMatrix!D2="0","0,1",IF(GraphicMatrix!D2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>0,2=0,1</v>
+        <f>A27&amp;","&amp;B27&amp;"="&amp;C27</f>
+        <v>2,0=0,1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
         <v>1</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(GraphicMatrix!D3="0","0,1",IF(GraphicMatrix!D3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>1,2=0,1</v>
+        <f>A28&amp;","&amp;B28&amp;"="&amp;C28</f>
+        <v>2,1=1,0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,216 +2225,216 @@
         <v>0,1</v>
       </c>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>A29&amp;","&amp;B29&amp;"="&amp;C29</f>
         <v>2,2=0,1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>IF(GraphicMatrix!D5="0","0,1",IF(GraphicMatrix!D5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>3,2=0,1</v>
+        <f>A30&amp;","&amp;B30&amp;"="&amp;C30</f>
+        <v>2,3=0,1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
         <v>4</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>IF(GraphicMatrix!D6="0","0,1",IF(GraphicMatrix!D6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>4,2=0,1</v>
+        <f>A31&amp;","&amp;B31&amp;"="&amp;C31</f>
+        <v>2,4=0,1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
         <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>IF(GraphicMatrix!D7="0","0,1",IF(GraphicMatrix!D7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>5,2=0,1</v>
+        <f>A32&amp;","&amp;B32&amp;"="&amp;C32</f>
+        <v>2,5=1,0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
         <v>6</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>IF(GraphicMatrix!D8="0","0,1",IF(GraphicMatrix!D8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D33" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>6,2=0,1</v>
+        <f>A33&amp;","&amp;B33&amp;"="&amp;C33</f>
+        <v>2,6=0,1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
         <v>7</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>IF(GraphicMatrix!D9="0","0,1",IF(GraphicMatrix!D9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>7,2=0,1</v>
+        <f>A34&amp;","&amp;B34&amp;"="&amp;C34</f>
+        <v>2,7=0,1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
         <v>8</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>IF(GraphicMatrix!D10="0","0,1",IF(GraphicMatrix!D10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>8,2=0,1</v>
+        <f>A35&amp;","&amp;B35&amp;"="&amp;C35</f>
+        <v>2,8=0,1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
         <v>9</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
       </c>
       <c r="C36" s="1" t="str">
         <f>IF(GraphicMatrix!D11="0","0,1",IF(GraphicMatrix!D11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>9,2=0,1</v>
+        <f>A36&amp;","&amp;B36&amp;"="&amp;C36</f>
+        <v>2,9=1,0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
         <v>10</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2</v>
       </c>
       <c r="C37" s="1" t="str">
         <f>IF(GraphicMatrix!D12="0","0,1",IF(GraphicMatrix!D12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D37" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>10,2=0,1</v>
+        <f>A37&amp;","&amp;B37&amp;"="&amp;C37</f>
+        <v>2,10=0,1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
         <v>11</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
       </c>
       <c r="C38" s="1" t="str">
         <f>IF(GraphicMatrix!D13="0","0,1",IF(GraphicMatrix!D13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>11,2=0,1</v>
+        <f>A38&amp;","&amp;B38&amp;"="&amp;C38</f>
+        <v>2,11=0,1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
         <v>12</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2</v>
       </c>
       <c r="C39" s="1" t="str">
         <f>IF(GraphicMatrix!D14="0","0,1",IF(GraphicMatrix!D14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>12,2=0,1</v>
+        <f>A39&amp;","&amp;B39&amp;"="&amp;C39</f>
+        <v>2,12=0,1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1" t="str">
         <f>IF(GraphicMatrix!E2="0","0,1",IF(GraphicMatrix!E2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>0,3=0,1</v>
+        <f>A40&amp;","&amp;B40&amp;"="&amp;C40</f>
+        <v>3,0=0,1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
         <v>1</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3</v>
       </c>
       <c r="C41" s="1" t="str">
         <f>IF(GraphicMatrix!E3="0","0,1",IF(GraphicMatrix!E3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D41" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>1,3=0,1</v>
+        <f>A41&amp;","&amp;B41&amp;"="&amp;C41</f>
+        <v>3,1=1,0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
         <v>2</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>IF(GraphicMatrix!E4="0","0,1",IF(GraphicMatrix!E4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D42" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>2,3=0,1</v>
+        <f>A42&amp;","&amp;B42&amp;"="&amp;C42</f>
+        <v>3,2=1,0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,219 +2446,219 @@
       </c>
       <c r="C43" s="1" t="str">
         <f>IF(GraphicMatrix!E5="0","0,1",IF(GraphicMatrix!E5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D43" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>3,3=0,1</v>
+        <f>A43&amp;","&amp;B43&amp;"="&amp;C43</f>
+        <v>3,3=1,0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
         <v>4</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>IF(GraphicMatrix!E6="0","0,1",IF(GraphicMatrix!E6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D44" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>4,3=0,1</v>
+        <f>A44&amp;","&amp;B44&amp;"="&amp;C44</f>
+        <v>3,4=0,1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
         <v>5</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3</v>
       </c>
       <c r="C45" s="1" t="str">
         <f>IF(GraphicMatrix!E7="0","0,1",IF(GraphicMatrix!E7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D45" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>5,3=0,1</v>
+        <f>A45&amp;","&amp;B45&amp;"="&amp;C45</f>
+        <v>3,5=1,0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
         <v>6</v>
-      </c>
-      <c r="B46" s="1">
-        <v>3</v>
       </c>
       <c r="C46" s="1" t="str">
         <f>IF(GraphicMatrix!E8="0","0,1",IF(GraphicMatrix!E8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D46" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>6,3=0,1</v>
+        <f>A46&amp;","&amp;B46&amp;"="&amp;C46</f>
+        <v>3,6=0,1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
         <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3</v>
       </c>
       <c r="C47" s="1" t="str">
         <f>IF(GraphicMatrix!E9="0","0,1",IF(GraphicMatrix!E9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D47" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>7,3=0,1</v>
+        <f>A47&amp;","&amp;B47&amp;"="&amp;C47</f>
+        <v>3,7=1,0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
         <v>8</v>
-      </c>
-      <c r="B48" s="1">
-        <v>3</v>
       </c>
       <c r="C48" s="1" t="str">
         <f>IF(GraphicMatrix!E10="0","0,1",IF(GraphicMatrix!E10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D48" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>8,3=0,1</v>
+        <f>A48&amp;","&amp;B48&amp;"="&amp;C48</f>
+        <v>3,8=0,1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
         <v>9</v>
-      </c>
-      <c r="B49" s="1">
-        <v>3</v>
       </c>
       <c r="C49" s="1" t="str">
         <f>IF(GraphicMatrix!E11="0","0,1",IF(GraphicMatrix!E11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D49" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>9,3=0,1</v>
+        <f>A49&amp;","&amp;B49&amp;"="&amp;C49</f>
+        <v>3,9=1,0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
         <v>10</v>
-      </c>
-      <c r="B50" s="1">
-        <v>3</v>
       </c>
       <c r="C50" s="1" t="str">
         <f>IF(GraphicMatrix!E12="0","0,1",IF(GraphicMatrix!E12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D50" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>10,3=0,1</v>
+        <f>A50&amp;","&amp;B50&amp;"="&amp;C50</f>
+        <v>3,10=1,0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>11</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3</v>
       </c>
       <c r="C51" s="1" t="str">
         <f>IF(GraphicMatrix!E13="0","0,1",IF(GraphicMatrix!E13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D51" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>11,3=0,1</v>
+        <f>A51&amp;","&amp;B51&amp;"="&amp;C51</f>
+        <v>3,11=1,0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
         <v>12</v>
-      </c>
-      <c r="B52" s="1">
-        <v>3</v>
       </c>
       <c r="C52" s="1" t="str">
         <f>IF(GraphicMatrix!E14="0","0,1",IF(GraphicMatrix!E14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D52" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>12,3=0,1</v>
+        <f>A52&amp;","&amp;B52&amp;"="&amp;C52</f>
+        <v>3,12=0,1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1" t="str">
         <f>IF(GraphicMatrix!F2="0","0,1",IF(GraphicMatrix!F2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D53" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>0,4=0,1</v>
+        <f>A53&amp;","&amp;B53&amp;"="&amp;C53</f>
+        <v>4,0=0,1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
         <v>1</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4</v>
       </c>
       <c r="C54" s="1" t="str">
         <f>IF(GraphicMatrix!F3="0","0,1",IF(GraphicMatrix!F3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D54" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>1,4=0,1</v>
+        <f>A54&amp;","&amp;B54&amp;"="&amp;C54</f>
+        <v>4,1=0,1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
         <v>2</v>
-      </c>
-      <c r="B55" s="1">
-        <v>4</v>
       </c>
       <c r="C55" s="1" t="str">
         <f>IF(GraphicMatrix!F4="0","0,1",IF(GraphicMatrix!F4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D55" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>2,4=0,1</v>
+        <f>A55&amp;","&amp;B55&amp;"="&amp;C55</f>
+        <v>4,2=0,1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="str">
         <f>IF(GraphicMatrix!F5="0","0,1",IF(GraphicMatrix!F5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D56" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>3,4=0,1</v>
+        <f>A56&amp;","&amp;B56&amp;"="&amp;C56</f>
+        <v>4,3=0,1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,216 +2673,216 @@
         <v>0,1</v>
       </c>
       <c r="D57" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f>A57&amp;","&amp;B57&amp;"="&amp;C57</f>
         <v>4,4=0,1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1">
         <v>5</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4</v>
       </c>
       <c r="C58" s="1" t="str">
         <f>IF(GraphicMatrix!F7="0","0,1",IF(GraphicMatrix!F7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D58" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>5,4=0,1</v>
+        <f>A58&amp;","&amp;B58&amp;"="&amp;C58</f>
+        <v>4,5=0,1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
         <v>6</v>
-      </c>
-      <c r="B59" s="1">
-        <v>4</v>
       </c>
       <c r="C59" s="1" t="str">
         <f>IF(GraphicMatrix!F8="0","0,1",IF(GraphicMatrix!F8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D59" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>6,4=0,1</v>
+        <f>A59&amp;","&amp;B59&amp;"="&amp;C59</f>
+        <v>4,6=0,1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
         <v>7</v>
-      </c>
-      <c r="B60" s="1">
-        <v>4</v>
       </c>
       <c r="C60" s="1" t="str">
         <f>IF(GraphicMatrix!F9="0","0,1",IF(GraphicMatrix!F9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D60" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>7,4=0,1</v>
+        <f>A60&amp;","&amp;B60&amp;"="&amp;C60</f>
+        <v>4,7=1,0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
         <v>8</v>
-      </c>
-      <c r="B61" s="1">
-        <v>4</v>
       </c>
       <c r="C61" s="1" t="str">
         <f>IF(GraphicMatrix!F10="0","0,1",IF(GraphicMatrix!F10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D61" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>8,4=0,1</v>
+        <f>A61&amp;","&amp;B61&amp;"="&amp;C61</f>
+        <v>4,8=0,1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
         <v>9</v>
-      </c>
-      <c r="B62" s="1">
-        <v>4</v>
       </c>
       <c r="C62" s="1" t="str">
         <f>IF(GraphicMatrix!F11="0","0,1",IF(GraphicMatrix!F11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D62" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>9,4=0,1</v>
+        <f>A62&amp;","&amp;B62&amp;"="&amp;C62</f>
+        <v>4,9=0,1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
         <v>10</v>
-      </c>
-      <c r="B63" s="1">
-        <v>4</v>
       </c>
       <c r="C63" s="1" t="str">
         <f>IF(GraphicMatrix!F12="0","0,1",IF(GraphicMatrix!F12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D63" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>10,4=0,1</v>
+        <f>A63&amp;","&amp;B63&amp;"="&amp;C63</f>
+        <v>4,10=0,1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
         <v>11</v>
-      </c>
-      <c r="B64" s="1">
-        <v>4</v>
       </c>
       <c r="C64" s="1" t="str">
         <f>IF(GraphicMatrix!F13="0","0,1",IF(GraphicMatrix!F13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D64" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>11,4=0,1</v>
+        <f>A64&amp;","&amp;B64&amp;"="&amp;C64</f>
+        <v>4,11=0,1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
         <v>12</v>
-      </c>
-      <c r="B65" s="1">
-        <v>4</v>
       </c>
       <c r="C65" s="1" t="str">
         <f>IF(GraphicMatrix!F14="0","0,1",IF(GraphicMatrix!F14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D65" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>12,4=0,1</v>
+        <f>A65&amp;","&amp;B65&amp;"="&amp;C65</f>
+        <v>4,12=0,1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1" t="str">
         <f>IF(GraphicMatrix!G2="0","0,1",IF(GraphicMatrix!G2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D66" s="13" t="str">
-        <f t="shared" ref="D66:D129" si="1">A66&amp;","&amp;B66&amp;"="&amp;C66</f>
-        <v>0,5=0,1</v>
+        <f>A66&amp;","&amp;B66&amp;"="&amp;C66</f>
+        <v>5,0=0,1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
         <v>1</v>
-      </c>
-      <c r="B67" s="1">
-        <v>5</v>
       </c>
       <c r="C67" s="1" t="str">
         <f>IF(GraphicMatrix!G3="0","0,1",IF(GraphicMatrix!G3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D67" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>1,5=0,1</v>
+        <f>A67&amp;","&amp;B67&amp;"="&amp;C67</f>
+        <v>5,1=1,0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
         <v>2</v>
-      </c>
-      <c r="B68" s="1">
-        <v>5</v>
       </c>
       <c r="C68" s="1" t="str">
         <f>IF(GraphicMatrix!G4="0","0,1",IF(GraphicMatrix!G4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D68" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>2,5=0,1</v>
+        <f>A68&amp;","&amp;B68&amp;"="&amp;C68</f>
+        <v>5,2=1,0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="str">
         <f>IF(GraphicMatrix!G5="0","0,1",IF(GraphicMatrix!G5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D69" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>3,5=0,1</v>
+        <f>A69&amp;","&amp;B69&amp;"="&amp;C69</f>
+        <v>5,3=1,0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1">
         <v>4</v>
-      </c>
-      <c r="B70" s="1">
-        <v>5</v>
       </c>
       <c r="C70" s="1" t="str">
         <f>IF(GraphicMatrix!G6="0","0,1",IF(GraphicMatrix!G6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D70" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>4,5=0,1</v>
+        <f>A70&amp;","&amp;B70&amp;"="&amp;C70</f>
+        <v>5,4=1,0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,219 +2894,219 @@
       </c>
       <c r="C71" s="1" t="str">
         <f>IF(GraphicMatrix!G7="0","0,1",IF(GraphicMatrix!G7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D71" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>5,5=0,1</v>
+        <f>A71&amp;","&amp;B71&amp;"="&amp;C71</f>
+        <v>5,5=1,0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
         <v>6</v>
-      </c>
-      <c r="B72" s="1">
-        <v>5</v>
       </c>
       <c r="C72" s="1" t="str">
         <f>IF(GraphicMatrix!G8="0","0,1",IF(GraphicMatrix!G8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D72" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>6,5=0,1</v>
+        <f>A72&amp;","&amp;B72&amp;"="&amp;C72</f>
+        <v>5,6=0,1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
         <v>7</v>
-      </c>
-      <c r="B73" s="1">
-        <v>5</v>
       </c>
       <c r="C73" s="1" t="str">
         <f>IF(GraphicMatrix!G9="0","0,1",IF(GraphicMatrix!G9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D73" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>7,5=0,1</v>
+        <f>A73&amp;","&amp;B73&amp;"="&amp;C73</f>
+        <v>5,7=1,0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
         <v>8</v>
-      </c>
-      <c r="B74" s="1">
-        <v>5</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>IF(GraphicMatrix!G10="0","0,1",IF(GraphicMatrix!G10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D74" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>8,5=0,1</v>
+        <f>A74&amp;","&amp;B74&amp;"="&amp;C74</f>
+        <v>5,8=1,0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
         <v>9</v>
-      </c>
-      <c r="B75" s="1">
-        <v>5</v>
       </c>
       <c r="C75" s="1" t="str">
         <f>IF(GraphicMatrix!G11="0","0,1",IF(GraphicMatrix!G11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D75" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>9,5=0,1</v>
+        <f>A75&amp;","&amp;B75&amp;"="&amp;C75</f>
+        <v>5,9=1,0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
         <v>10</v>
-      </c>
-      <c r="B76" s="1">
-        <v>5</v>
       </c>
       <c r="C76" s="1" t="str">
         <f>IF(GraphicMatrix!G12="0","0,1",IF(GraphicMatrix!G12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D76" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>10,5=0,1</v>
+        <f>A76&amp;","&amp;B76&amp;"="&amp;C76</f>
+        <v>5,10=1,0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
         <v>11</v>
-      </c>
-      <c r="B77" s="1">
-        <v>5</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>IF(GraphicMatrix!G13="0","0,1",IF(GraphicMatrix!G13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D77" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>11,5=0,1</v>
+        <f>A77&amp;","&amp;B77&amp;"="&amp;C77</f>
+        <v>5,11=1,0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
         <v>12</v>
-      </c>
-      <c r="B78" s="1">
-        <v>5</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>IF(GraphicMatrix!G14="0","0,1",IF(GraphicMatrix!G14="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D78" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>12,5=0,1</v>
+        <f>A78&amp;","&amp;B78&amp;"="&amp;C78</f>
+        <v>5,12=1,0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>IF(GraphicMatrix!H2="0","0,1",IF(GraphicMatrix!H2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D79" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0,6=0,1</v>
+        <f>A79&amp;","&amp;B79&amp;"="&amp;C79</f>
+        <v>6,0=0,1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1">
         <v>1</v>
-      </c>
-      <c r="B80" s="1">
-        <v>6</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>IF(GraphicMatrix!H3="0","0,1",IF(GraphicMatrix!H3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D80" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>1,6=0,1</v>
+        <f>A80&amp;","&amp;B80&amp;"="&amp;C80</f>
+        <v>6,1=0,1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1">
         <v>2</v>
-      </c>
-      <c r="B81" s="1">
-        <v>6</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>IF(GraphicMatrix!H4="0","0,1",IF(GraphicMatrix!H4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D81" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>2,6=0,1</v>
+        <f>A81&amp;","&amp;B81&amp;"="&amp;C81</f>
+        <v>6,2=0,1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="str">
         <f>IF(GraphicMatrix!H5="0","0,1",IF(GraphicMatrix!H5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D82" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>3,6=0,1</v>
+        <f>A82&amp;","&amp;B82&amp;"="&amp;C82</f>
+        <v>6,3=0,1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1">
         <v>4</v>
-      </c>
-      <c r="B83" s="1">
-        <v>6</v>
       </c>
       <c r="C83" s="1" t="str">
         <f>IF(GraphicMatrix!H6="0","0,1",IF(GraphicMatrix!H6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D83" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>4,6=0,1</v>
+        <f>A83&amp;","&amp;B83&amp;"="&amp;C83</f>
+        <v>6,4=0,1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1">
         <v>5</v>
-      </c>
-      <c r="B84" s="1">
-        <v>6</v>
       </c>
       <c r="C84" s="1" t="str">
         <f>IF(GraphicMatrix!H7="0","0,1",IF(GraphicMatrix!H7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D84" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>5,6=0,1</v>
+        <f>A84&amp;","&amp;B84&amp;"="&amp;C84</f>
+        <v>6,5=0,1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,216 +3121,216 @@
         <v>0,1</v>
       </c>
       <c r="D85" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>A85&amp;","&amp;B85&amp;"="&amp;C85</f>
         <v>6,6=0,1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1">
         <v>7</v>
-      </c>
-      <c r="B86" s="1">
-        <v>6</v>
       </c>
       <c r="C86" s="1" t="str">
         <f>IF(GraphicMatrix!H9="0","0,1",IF(GraphicMatrix!H9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D86" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>7,6=0,1</v>
+        <f>A86&amp;","&amp;B86&amp;"="&amp;C86</f>
+        <v>6,7=0,1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1">
         <v>8</v>
-      </c>
-      <c r="B87" s="1">
-        <v>6</v>
       </c>
       <c r="C87" s="1" t="str">
         <f>IF(GraphicMatrix!H10="0","0,1",IF(GraphicMatrix!H10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D87" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>8,6=0,1</v>
+        <f>A87&amp;","&amp;B87&amp;"="&amp;C87</f>
+        <v>6,8=0,1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1">
         <v>9</v>
-      </c>
-      <c r="B88" s="1">
-        <v>6</v>
       </c>
       <c r="C88" s="1" t="str">
         <f>IF(GraphicMatrix!H11="0","0,1",IF(GraphicMatrix!H11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D88" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>9,6=0,1</v>
+        <f>A88&amp;","&amp;B88&amp;"="&amp;C88</f>
+        <v>6,9=0,1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
+        <v>6</v>
+      </c>
+      <c r="B89" s="1">
         <v>10</v>
-      </c>
-      <c r="B89" s="1">
-        <v>6</v>
       </c>
       <c r="C89" s="1" t="str">
         <f>IF(GraphicMatrix!H12="0","0,1",IF(GraphicMatrix!H12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D89" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>10,6=0,1</v>
+        <f>A89&amp;","&amp;B89&amp;"="&amp;C89</f>
+        <v>6,10=0,1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1">
         <v>11</v>
-      </c>
-      <c r="B90" s="1">
-        <v>6</v>
       </c>
       <c r="C90" s="1" t="str">
         <f>IF(GraphicMatrix!H13="0","0,1",IF(GraphicMatrix!H13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D90" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>11,6=0,1</v>
+        <f>A90&amp;","&amp;B90&amp;"="&amp;C90</f>
+        <v>6,11=0,1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
         <v>12</v>
-      </c>
-      <c r="B91" s="1">
-        <v>6</v>
       </c>
       <c r="C91" s="1" t="str">
         <f>IF(GraphicMatrix!H14="0","0,1",IF(GraphicMatrix!H14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D91" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>12,6=0,1</v>
+        <f>A91&amp;","&amp;B91&amp;"="&amp;C91</f>
+        <v>6,12=0,1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="str">
         <f>IF(GraphicMatrix!I2="0","0,1",IF(GraphicMatrix!I2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D92" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0,7=0,1</v>
+        <f>A92&amp;","&amp;B92&amp;"="&amp;C92</f>
+        <v>7,0=1,0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1">
         <v>1</v>
-      </c>
-      <c r="B93" s="1">
-        <v>7</v>
       </c>
       <c r="C93" s="1" t="str">
         <f>IF(GraphicMatrix!I3="0","0,1",IF(GraphicMatrix!I3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D93" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>1,7=0,1</v>
+        <f>A93&amp;","&amp;B93&amp;"="&amp;C93</f>
+        <v>7,1=1,0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1">
         <v>2</v>
-      </c>
-      <c r="B94" s="1">
-        <v>7</v>
       </c>
       <c r="C94" s="1" t="str">
         <f>IF(GraphicMatrix!I4="0","0,1",IF(GraphicMatrix!I4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D94" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>2,7=0,1</v>
+        <f>A94&amp;","&amp;B94&amp;"="&amp;C94</f>
+        <v>7,2=1,0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="str">
         <f>IF(GraphicMatrix!I5="0","0,1",IF(GraphicMatrix!I5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D95" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>3,7=0,1</v>
+        <f>A95&amp;","&amp;B95&amp;"="&amp;C95</f>
+        <v>7,3=1,0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1">
         <v>4</v>
-      </c>
-      <c r="B96" s="1">
-        <v>7</v>
       </c>
       <c r="C96" s="1" t="str">
         <f>IF(GraphicMatrix!I6="0","0,1",IF(GraphicMatrix!I6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D96" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>4,7=0,1</v>
+        <f>A96&amp;","&amp;B96&amp;"="&amp;C96</f>
+        <v>7,4=0,1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1">
         <v>5</v>
-      </c>
-      <c r="B97" s="1">
-        <v>7</v>
       </c>
       <c r="C97" s="1" t="str">
         <f>IF(GraphicMatrix!I7="0","0,1",IF(GraphicMatrix!I7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D97" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>5,7=0,1</v>
+        <f>A97&amp;","&amp;B97&amp;"="&amp;C97</f>
+        <v>7,5=1,0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
+        <v>7</v>
+      </c>
+      <c r="B98" s="1">
         <v>6</v>
-      </c>
-      <c r="B98" s="1">
-        <v>7</v>
       </c>
       <c r="C98" s="1" t="str">
         <f>IF(GraphicMatrix!I8="0","0,1",IF(GraphicMatrix!I8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D98" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>6,7=0,1</v>
+        <f>A98&amp;","&amp;B98&amp;"="&amp;C98</f>
+        <v>7,6=0,1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,219 +3342,219 @@
       </c>
       <c r="C99" s="1" t="str">
         <f>IF(GraphicMatrix!I9="0","0,1",IF(GraphicMatrix!I9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D99" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>7,7=0,1</v>
+        <f>A99&amp;","&amp;B99&amp;"="&amp;C99</f>
+        <v>7,7=1,0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
+        <v>7</v>
+      </c>
+      <c r="B100" s="1">
         <v>8</v>
-      </c>
-      <c r="B100" s="1">
-        <v>7</v>
       </c>
       <c r="C100" s="1" t="str">
         <f>IF(GraphicMatrix!I10="0","0,1",IF(GraphicMatrix!I10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D100" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>8,7=0,1</v>
+        <f>A100&amp;","&amp;B100&amp;"="&amp;C100</f>
+        <v>7,8=1,0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
+        <v>7</v>
+      </c>
+      <c r="B101" s="1">
         <v>9</v>
-      </c>
-      <c r="B101" s="1">
-        <v>7</v>
       </c>
       <c r="C101" s="1" t="str">
         <f>IF(GraphicMatrix!I11="0","0,1",IF(GraphicMatrix!I11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D101" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>9,7=0,1</v>
+        <f>A101&amp;","&amp;B101&amp;"="&amp;C101</f>
+        <v>7,9=1,0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
+        <v>7</v>
+      </c>
+      <c r="B102" s="1">
         <v>10</v>
-      </c>
-      <c r="B102" s="1">
-        <v>7</v>
       </c>
       <c r="C102" s="1" t="str">
         <f>IF(GraphicMatrix!I12="0","0,1",IF(GraphicMatrix!I12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D102" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>10,7=0,1</v>
+        <f>A102&amp;","&amp;B102&amp;"="&amp;C102</f>
+        <v>7,10=1,0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
+        <v>7</v>
+      </c>
+      <c r="B103" s="1">
         <v>11</v>
-      </c>
-      <c r="B103" s="1">
-        <v>7</v>
       </c>
       <c r="C103" s="1" t="str">
         <f>IF(GraphicMatrix!I13="0","0,1",IF(GraphicMatrix!I13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D103" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>11,7=0,1</v>
+        <f>A103&amp;","&amp;B103&amp;"="&amp;C103</f>
+        <v>7,11=1,0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
+        <v>7</v>
+      </c>
+      <c r="B104" s="1">
         <v>12</v>
-      </c>
-      <c r="B104" s="1">
-        <v>7</v>
       </c>
       <c r="C104" s="1" t="str">
         <f>IF(GraphicMatrix!I14="0","0,1",IF(GraphicMatrix!I14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D104" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>12,7=0,1</v>
+        <f>A104&amp;","&amp;B104&amp;"="&amp;C104</f>
+        <v>7,12=0,1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B105" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1" t="str">
         <f>IF(GraphicMatrix!J2="0","0,1",IF(GraphicMatrix!J2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D105" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0,8=0,1</v>
+        <f>A105&amp;","&amp;B105&amp;"="&amp;C105</f>
+        <v>8,0=0,1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
         <v>1</v>
-      </c>
-      <c r="B106" s="1">
-        <v>8</v>
       </c>
       <c r="C106" s="1" t="str">
         <f>IF(GraphicMatrix!J3="0","0,1",IF(GraphicMatrix!J3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D106" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>1,8=0,1</v>
+        <f>A106&amp;","&amp;B106&amp;"="&amp;C106</f>
+        <v>8,1=0,1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
         <v>2</v>
-      </c>
-      <c r="B107" s="1">
-        <v>8</v>
       </c>
       <c r="C107" s="1" t="str">
         <f>IF(GraphicMatrix!J4="0","0,1",IF(GraphicMatrix!J4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D107" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>2,8=0,1</v>
+        <f>A107&amp;","&amp;B107&amp;"="&amp;C107</f>
+        <v>8,2=0,1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B108" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1" t="str">
         <f>IF(GraphicMatrix!J5="0","0,1",IF(GraphicMatrix!J5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D108" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>3,8=0,1</v>
+        <f>A108&amp;","&amp;B108&amp;"="&amp;C108</f>
+        <v>8,3=1,0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
         <v>4</v>
-      </c>
-      <c r="B109" s="1">
-        <v>8</v>
       </c>
       <c r="C109" s="1" t="str">
         <f>IF(GraphicMatrix!J6="0","0,1",IF(GraphicMatrix!J6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D109" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>4,8=0,1</v>
+        <f>A109&amp;","&amp;B109&amp;"="&amp;C109</f>
+        <v>8,4=0,1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
         <v>5</v>
-      </c>
-      <c r="B110" s="1">
-        <v>8</v>
       </c>
       <c r="C110" s="1" t="str">
         <f>IF(GraphicMatrix!J7="0","0,1",IF(GraphicMatrix!J7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D110" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>5,8=0,1</v>
+        <f>A110&amp;","&amp;B110&amp;"="&amp;C110</f>
+        <v>8,5=1,0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
         <v>6</v>
-      </c>
-      <c r="B111" s="1">
-        <v>8</v>
       </c>
       <c r="C111" s="1" t="str">
         <f>IF(GraphicMatrix!J8="0","0,1",IF(GraphicMatrix!J8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D111" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>6,8=0,1</v>
+        <f>A111&amp;","&amp;B111&amp;"="&amp;C111</f>
+        <v>8,6=0,1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
         <v>7</v>
-      </c>
-      <c r="B112" s="1">
-        <v>8</v>
       </c>
       <c r="C112" s="1" t="str">
         <f>IF(GraphicMatrix!J9="0","0,1",IF(GraphicMatrix!J9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D112" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>7,8=0,1</v>
+        <f>A112&amp;","&amp;B112&amp;"="&amp;C112</f>
+        <v>8,7=0,1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,216 +3569,216 @@
         <v>0,1</v>
       </c>
       <c r="D113" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f>A113&amp;","&amp;B113&amp;"="&amp;C113</f>
         <v>8,8=0,1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
         <v>9</v>
-      </c>
-      <c r="B114" s="1">
-        <v>8</v>
       </c>
       <c r="C114" s="1" t="str">
         <f>IF(GraphicMatrix!J11="0","0,1",IF(GraphicMatrix!J11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D114" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>9,8=0,1</v>
+        <f>A114&amp;","&amp;B114&amp;"="&amp;C114</f>
+        <v>8,9=0,1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
         <v>10</v>
-      </c>
-      <c r="B115" s="1">
-        <v>8</v>
       </c>
       <c r="C115" s="1" t="str">
         <f>IF(GraphicMatrix!J12="0","0,1",IF(GraphicMatrix!J12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D115" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>10,8=0,1</v>
+        <f>A115&amp;","&amp;B115&amp;"="&amp;C115</f>
+        <v>8,10=0,1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
         <v>11</v>
-      </c>
-      <c r="B116" s="1">
-        <v>8</v>
       </c>
       <c r="C116" s="1" t="str">
         <f>IF(GraphicMatrix!J13="0","0,1",IF(GraphicMatrix!J13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D116" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>11,8=0,1</v>
+        <f>A116&amp;","&amp;B116&amp;"="&amp;C116</f>
+        <v>8,11=0,1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
         <v>12</v>
-      </c>
-      <c r="B117" s="1">
-        <v>8</v>
       </c>
       <c r="C117" s="1" t="str">
         <f>IF(GraphicMatrix!J14="0","0,1",IF(GraphicMatrix!J14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D117" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>12,8=0,1</v>
+        <f>A117&amp;","&amp;B117&amp;"="&amp;C117</f>
+        <v>8,12=0,1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1" t="str">
         <f>IF(GraphicMatrix!K2="0","0,1",IF(GraphicMatrix!K2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D118" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>0,9=0,1</v>
+        <f>A118&amp;","&amp;B118&amp;"="&amp;C118</f>
+        <v>9,0=1,0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1">
         <v>1</v>
-      </c>
-      <c r="B119" s="1">
-        <v>9</v>
       </c>
       <c r="C119" s="1" t="str">
         <f>IF(GraphicMatrix!K3="0","0,1",IF(GraphicMatrix!K3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D119" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>1,9=0,1</v>
+        <f>A119&amp;","&amp;B119&amp;"="&amp;C119</f>
+        <v>9,1=1,0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
+        <v>9</v>
+      </c>
+      <c r="B120" s="1">
         <v>2</v>
-      </c>
-      <c r="B120" s="1">
-        <v>9</v>
       </c>
       <c r="C120" s="1" t="str">
         <f>IF(GraphicMatrix!K4="0","0,1",IF(GraphicMatrix!K4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D120" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>2,9=0,1</v>
+        <f>A120&amp;","&amp;B120&amp;"="&amp;C120</f>
+        <v>9,2=0,1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1" t="str">
         <f>IF(GraphicMatrix!K5="0","0,1",IF(GraphicMatrix!K5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D121" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>3,9=0,1</v>
+        <f>A121&amp;","&amp;B121&amp;"="&amp;C121</f>
+        <v>9,3=0,1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1">
         <v>4</v>
-      </c>
-      <c r="B122" s="1">
-        <v>9</v>
       </c>
       <c r="C122" s="1" t="str">
         <f>IF(GraphicMatrix!K6="0","0,1",IF(GraphicMatrix!K6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D122" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>4,9=0,1</v>
+        <f>A122&amp;","&amp;B122&amp;"="&amp;C122</f>
+        <v>9,4=0,1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1">
         <v>5</v>
-      </c>
-      <c r="B123" s="1">
-        <v>9</v>
       </c>
       <c r="C123" s="1" t="str">
         <f>IF(GraphicMatrix!K7="0","0,1",IF(GraphicMatrix!K7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D123" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>5,9=0,1</v>
+        <f>A123&amp;","&amp;B123&amp;"="&amp;C123</f>
+        <v>9,5=1,0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1">
         <v>6</v>
-      </c>
-      <c r="B124" s="1">
-        <v>9</v>
       </c>
       <c r="C124" s="1" t="str">
         <f>IF(GraphicMatrix!K8="0","0,1",IF(GraphicMatrix!K8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D124" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>6,9=0,1</v>
+        <f>A124&amp;","&amp;B124&amp;"="&amp;C124</f>
+        <v>9,6=0,1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
+        <v>9</v>
+      </c>
+      <c r="B125" s="1">
         <v>7</v>
-      </c>
-      <c r="B125" s="1">
-        <v>9</v>
       </c>
       <c r="C125" s="1" t="str">
         <f>IF(GraphicMatrix!K9="0","0,1",IF(GraphicMatrix!K9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D125" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>7,9=0,1</v>
+        <f>A125&amp;","&amp;B125&amp;"="&amp;C125</f>
+        <v>9,7=1,0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1">
         <v>8</v>
-      </c>
-      <c r="B126" s="1">
-        <v>9</v>
       </c>
       <c r="C126" s="1" t="str">
         <f>IF(GraphicMatrix!K10="0","0,1",IF(GraphicMatrix!K10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D126" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>8,9=0,1</v>
+        <f>A126&amp;","&amp;B126&amp;"="&amp;C126</f>
+        <v>9,8=1,0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3753,219 +3790,219 @@
       </c>
       <c r="C127" s="1" t="str">
         <f>IF(GraphicMatrix!K11="0","0,1",IF(GraphicMatrix!K11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D127" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>9,9=0,1</v>
+        <f>A127&amp;","&amp;B127&amp;"="&amp;C127</f>
+        <v>9,9=1,0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1">
         <v>10</v>
-      </c>
-      <c r="B128" s="1">
-        <v>9</v>
       </c>
       <c r="C128" s="1" t="str">
         <f>IF(GraphicMatrix!K12="0","0,1",IF(GraphicMatrix!K12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D128" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>10,9=0,1</v>
+        <f>A128&amp;","&amp;B128&amp;"="&amp;C128</f>
+        <v>9,10=1,0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1">
         <v>11</v>
-      </c>
-      <c r="B129" s="1">
-        <v>9</v>
       </c>
       <c r="C129" s="1" t="str">
         <f>IF(GraphicMatrix!K13="0","0,1",IF(GraphicMatrix!K13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D129" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>11,9=0,1</v>
+        <f>A129&amp;","&amp;B129&amp;"="&amp;C129</f>
+        <v>9,11=1,0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1">
         <v>12</v>
-      </c>
-      <c r="B130" s="1">
-        <v>9</v>
       </c>
       <c r="C130" s="1" t="str">
         <f>IF(GraphicMatrix!K14="0","0,1",IF(GraphicMatrix!K14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D130" s="13" t="str">
-        <f t="shared" ref="D130:D193" si="2">A130&amp;","&amp;B130&amp;"="&amp;C130</f>
-        <v>12,9=0,1</v>
+        <f>A130&amp;","&amp;B130&amp;"="&amp;C130</f>
+        <v>9,12=0,1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C131" s="1" t="str">
         <f>IF(GraphicMatrix!L2="0","0,1",IF(GraphicMatrix!L2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D131" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>0,10=0,1</v>
+        <f>A131&amp;","&amp;B131&amp;"="&amp;C131</f>
+        <v>10,0=0,1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
+        <v>10</v>
+      </c>
+      <c r="B132" s="1">
         <v>1</v>
-      </c>
-      <c r="B132" s="1">
-        <v>10</v>
       </c>
       <c r="C132" s="1" t="str">
         <f>IF(GraphicMatrix!L3="0","0,1",IF(GraphicMatrix!L3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D132" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>1,10=0,1</v>
+        <f>A132&amp;","&amp;B132&amp;"="&amp;C132</f>
+        <v>10,1=1,0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
         <v>2</v>
-      </c>
-      <c r="B133" s="1">
-        <v>10</v>
       </c>
       <c r="C133" s="1" t="str">
         <f>IF(GraphicMatrix!L4="0","0,1",IF(GraphicMatrix!L4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D133" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>2,10=0,1</v>
+        <f>A133&amp;","&amp;B133&amp;"="&amp;C133</f>
+        <v>10,2=0,1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B134" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C134" s="1" t="str">
         <f>IF(GraphicMatrix!L5="0","0,1",IF(GraphicMatrix!L5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D134" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>3,10=0,1</v>
+        <f>A134&amp;","&amp;B134&amp;"="&amp;C134</f>
+        <v>10,3=1,0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1">
         <v>4</v>
-      </c>
-      <c r="B135" s="1">
-        <v>10</v>
       </c>
       <c r="C135" s="1" t="str">
         <f>IF(GraphicMatrix!L6="0","0,1",IF(GraphicMatrix!L6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D135" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>4,10=0,1</v>
+        <f>A135&amp;","&amp;B135&amp;"="&amp;C135</f>
+        <v>10,4=1,0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
         <v>5</v>
-      </c>
-      <c r="B136" s="1">
-        <v>10</v>
       </c>
       <c r="C136" s="1" t="str">
         <f>IF(GraphicMatrix!L7="0","0,1",IF(GraphicMatrix!L7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D136" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>5,10=0,1</v>
+        <f>A136&amp;","&amp;B136&amp;"="&amp;C136</f>
+        <v>10,5=1,0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1">
         <v>6</v>
-      </c>
-      <c r="B137" s="1">
-        <v>10</v>
       </c>
       <c r="C137" s="1" t="str">
         <f>IF(GraphicMatrix!L8="0","0,1",IF(GraphicMatrix!L8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D137" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>6,10=0,1</v>
+        <f>A137&amp;","&amp;B137&amp;"="&amp;C137</f>
+        <v>10,6=0,1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1">
         <v>7</v>
-      </c>
-      <c r="B138" s="1">
-        <v>10</v>
       </c>
       <c r="C138" s="1" t="str">
         <f>IF(GraphicMatrix!L9="0","0,1",IF(GraphicMatrix!L9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D138" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>7,10=0,1</v>
+        <f>A138&amp;","&amp;B138&amp;"="&amp;C138</f>
+        <v>10,7=0,1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1">
         <v>8</v>
-      </c>
-      <c r="B139" s="1">
-        <v>10</v>
       </c>
       <c r="C139" s="1" t="str">
         <f>IF(GraphicMatrix!L10="0","0,1",IF(GraphicMatrix!L10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D139" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>8,10=0,1</v>
+        <f>A139&amp;","&amp;B139&amp;"="&amp;C139</f>
+        <v>10,8=0,1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1">
         <v>9</v>
-      </c>
-      <c r="B140" s="1">
-        <v>10</v>
       </c>
       <c r="C140" s="1" t="str">
         <f>IF(GraphicMatrix!L11="0","0,1",IF(GraphicMatrix!L11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D140" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>9,10=0,1</v>
+        <f>A140&amp;","&amp;B140&amp;"="&amp;C140</f>
+        <v>10,9=0,1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,216 +4017,216 @@
         <v>0,1</v>
       </c>
       <c r="D141" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>A141&amp;","&amp;B141&amp;"="&amp;C141</f>
         <v>10,10=0,1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1">
         <v>11</v>
-      </c>
-      <c r="B142" s="1">
-        <v>10</v>
       </c>
       <c r="C142" s="1" t="str">
         <f>IF(GraphicMatrix!L13="0","0,1",IF(GraphicMatrix!L13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D142" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>11,10=0,1</v>
+        <f>A142&amp;","&amp;B142&amp;"="&amp;C142</f>
+        <v>10,11=0,1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1">
         <v>12</v>
-      </c>
-      <c r="B143" s="1">
-        <v>10</v>
       </c>
       <c r="C143" s="1" t="str">
         <f>IF(GraphicMatrix!L14="0","0,1",IF(GraphicMatrix!L14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D143" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>12,10=0,1</v>
+        <f>A143&amp;","&amp;B143&amp;"="&amp;C143</f>
+        <v>10,12=0,1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B144" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C144" s="1" t="str">
         <f>IF(GraphicMatrix!M2="0","0,1",IF(GraphicMatrix!M2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D144" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>0,11=0,1</v>
+        <f>A144&amp;","&amp;B144&amp;"="&amp;C144</f>
+        <v>11,0=0,1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1">
         <v>1</v>
-      </c>
-      <c r="B145" s="1">
-        <v>11</v>
       </c>
       <c r="C145" s="1" t="str">
         <f>IF(GraphicMatrix!M3="0","0,1",IF(GraphicMatrix!M3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D145" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>1,11=0,1</v>
+        <f>A145&amp;","&amp;B145&amp;"="&amp;C145</f>
+        <v>11,1=1,0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
+        <v>11</v>
+      </c>
+      <c r="B146" s="1">
         <v>2</v>
-      </c>
-      <c r="B146" s="1">
-        <v>11</v>
       </c>
       <c r="C146" s="1" t="str">
         <f>IF(GraphicMatrix!M4="0","0,1",IF(GraphicMatrix!M4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D146" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>2,11=0,1</v>
+        <f>A146&amp;","&amp;B146&amp;"="&amp;C146</f>
+        <v>11,2=0,1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B147" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C147" s="1" t="str">
         <f>IF(GraphicMatrix!M5="0","0,1",IF(GraphicMatrix!M5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D147" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>3,11=0,1</v>
+        <f>A147&amp;","&amp;B147&amp;"="&amp;C147</f>
+        <v>11,3=0,1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
+        <v>11</v>
+      </c>
+      <c r="B148" s="1">
         <v>4</v>
-      </c>
-      <c r="B148" s="1">
-        <v>11</v>
       </c>
       <c r="C148" s="1" t="str">
         <f>IF(GraphicMatrix!M6="0","0,1",IF(GraphicMatrix!M6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D148" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>4,11=0,1</v>
+        <f>A148&amp;","&amp;B148&amp;"="&amp;C148</f>
+        <v>11,4=0,1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
+        <v>11</v>
+      </c>
+      <c r="B149" s="1">
         <v>5</v>
-      </c>
-      <c r="B149" s="1">
-        <v>11</v>
       </c>
       <c r="C149" s="1" t="str">
         <f>IF(GraphicMatrix!M7="0","0,1",IF(GraphicMatrix!M7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D149" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>5,11=0,1</v>
+        <f>A149&amp;","&amp;B149&amp;"="&amp;C149</f>
+        <v>11,5=0,1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
+        <v>11</v>
+      </c>
+      <c r="B150" s="1">
         <v>6</v>
-      </c>
-      <c r="B150" s="1">
-        <v>11</v>
       </c>
       <c r="C150" s="1" t="str">
         <f>IF(GraphicMatrix!M8="0","0,1",IF(GraphicMatrix!M8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D150" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>6,11=0,1</v>
+        <f>A150&amp;","&amp;B150&amp;"="&amp;C150</f>
+        <v>11,6=0,1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
+        <v>11</v>
+      </c>
+      <c r="B151" s="1">
         <v>7</v>
-      </c>
-      <c r="B151" s="1">
-        <v>11</v>
       </c>
       <c r="C151" s="1" t="str">
         <f>IF(GraphicMatrix!M9="0","0,1",IF(GraphicMatrix!M9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D151" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>7,11=0,1</v>
+        <f>A151&amp;","&amp;B151&amp;"="&amp;C151</f>
+        <v>11,7=1,0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
+        <v>11</v>
+      </c>
+      <c r="B152" s="1">
         <v>8</v>
-      </c>
-      <c r="B152" s="1">
-        <v>11</v>
       </c>
       <c r="C152" s="1" t="str">
         <f>IF(GraphicMatrix!M10="0","0,1",IF(GraphicMatrix!M10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D152" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>8,11=0,1</v>
+        <f>A152&amp;","&amp;B152&amp;"="&amp;C152</f>
+        <v>11,8=1,0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
+        <v>11</v>
+      </c>
+      <c r="B153" s="1">
         <v>9</v>
-      </c>
-      <c r="B153" s="1">
-        <v>11</v>
       </c>
       <c r="C153" s="1" t="str">
         <f>IF(GraphicMatrix!M11="0","0,1",IF(GraphicMatrix!M11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D153" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>9,11=0,1</v>
+        <f>A153&amp;","&amp;B153&amp;"="&amp;C153</f>
+        <v>11,9=1,0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
+        <v>11</v>
+      </c>
+      <c r="B154" s="1">
         <v>10</v>
-      </c>
-      <c r="B154" s="1">
-        <v>11</v>
       </c>
       <c r="C154" s="1" t="str">
         <f>IF(GraphicMatrix!M12="0","0,1",IF(GraphicMatrix!M12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D154" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>10,11=0,1</v>
+        <f>A154&amp;","&amp;B154&amp;"="&amp;C154</f>
+        <v>11,10=1,0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,219 +4238,219 @@
       </c>
       <c r="C155" s="1" t="str">
         <f>IF(GraphicMatrix!M13="0","0,1",IF(GraphicMatrix!M13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D155" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>11,11=0,1</v>
+        <f>A155&amp;","&amp;B155&amp;"="&amp;C155</f>
+        <v>11,11=1,0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
+        <v>11</v>
+      </c>
+      <c r="B156" s="1">
         <v>12</v>
-      </c>
-      <c r="B156" s="1">
-        <v>11</v>
       </c>
       <c r="C156" s="1" t="str">
         <f>IF(GraphicMatrix!M14="0","0,1",IF(GraphicMatrix!M14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D156" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>12,11=0,1</v>
+        <f>A156&amp;","&amp;B156&amp;"="&amp;C156</f>
+        <v>11,12=0,1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B157" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C157" s="1" t="str">
         <f>IF(GraphicMatrix!N2="0","0,1",IF(GraphicMatrix!N2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D157" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>0,12=0,1</v>
+        <f>A157&amp;","&amp;B157&amp;"="&amp;C157</f>
+        <v>12,0=0,1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
+        <v>12</v>
+      </c>
+      <c r="B158" s="1">
         <v>1</v>
-      </c>
-      <c r="B158" s="1">
-        <v>12</v>
       </c>
       <c r="C158" s="1" t="str">
         <f>IF(GraphicMatrix!N3="0","0,1",IF(GraphicMatrix!N3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D158" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>1,12=0,1</v>
+        <f>A158&amp;","&amp;B158&amp;"="&amp;C158</f>
+        <v>12,1=1,0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
+        <v>12</v>
+      </c>
+      <c r="B159" s="1">
         <v>2</v>
-      </c>
-      <c r="B159" s="1">
-        <v>12</v>
       </c>
       <c r="C159" s="1" t="str">
         <f>IF(GraphicMatrix!N4="0","0,1",IF(GraphicMatrix!N4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D159" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>2,12=0,1</v>
+        <f>A159&amp;","&amp;B159&amp;"="&amp;C159</f>
+        <v>12,2=1,0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B160" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C160" s="1" t="str">
         <f>IF(GraphicMatrix!N5="0","0,1",IF(GraphicMatrix!N5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D160" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>3,12=0,1</v>
+        <f>A160&amp;","&amp;B160&amp;"="&amp;C160</f>
+        <v>12,3=1,0</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
+        <v>12</v>
+      </c>
+      <c r="B161" s="1">
         <v>4</v>
-      </c>
-      <c r="B161" s="1">
-        <v>12</v>
       </c>
       <c r="C161" s="1" t="str">
         <f>IF(GraphicMatrix!N6="0","0,1",IF(GraphicMatrix!N6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D161" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>4,12=0,1</v>
+        <f>A161&amp;","&amp;B161&amp;"="&amp;C161</f>
+        <v>12,4=0,1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1">
         <v>5</v>
-      </c>
-      <c r="B162" s="1">
-        <v>12</v>
       </c>
       <c r="C162" s="1" t="str">
         <f>IF(GraphicMatrix!N7="0","0,1",IF(GraphicMatrix!N7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D162" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>5,12=0,1</v>
+        <f>A162&amp;","&amp;B162&amp;"="&amp;C162</f>
+        <v>12,5=1,0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
+        <v>12</v>
+      </c>
+      <c r="B163" s="1">
         <v>6</v>
-      </c>
-      <c r="B163" s="1">
-        <v>12</v>
       </c>
       <c r="C163" s="1" t="str">
         <f>IF(GraphicMatrix!N8="0","0,1",IF(GraphicMatrix!N8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D163" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>6,12=0,1</v>
+        <f>A163&amp;","&amp;B163&amp;"="&amp;C163</f>
+        <v>12,6=0,1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1">
         <v>7</v>
-      </c>
-      <c r="B164" s="1">
-        <v>12</v>
       </c>
       <c r="C164" s="1" t="str">
         <f>IF(GraphicMatrix!N9="0","0,1",IF(GraphicMatrix!N9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D164" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>7,12=0,1</v>
+        <f>A164&amp;","&amp;B164&amp;"="&amp;C164</f>
+        <v>12,7=0,1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
+        <v>12</v>
+      </c>
+      <c r="B165" s="1">
         <v>8</v>
-      </c>
-      <c r="B165" s="1">
-        <v>12</v>
       </c>
       <c r="C165" s="1" t="str">
         <f>IF(GraphicMatrix!N10="0","0,1",IF(GraphicMatrix!N10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D165" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>8,12=0,1</v>
+        <f>A165&amp;","&amp;B165&amp;"="&amp;C165</f>
+        <v>12,8=0,1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
+        <v>12</v>
+      </c>
+      <c r="B166" s="1">
         <v>9</v>
-      </c>
-      <c r="B166" s="1">
-        <v>12</v>
       </c>
       <c r="C166" s="1" t="str">
         <f>IF(GraphicMatrix!N11="0","0,1",IF(GraphicMatrix!N11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D166" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>9,12=0,1</v>
+        <f>A166&amp;","&amp;B166&amp;"="&amp;C166</f>
+        <v>12,9=0,1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
+        <v>12</v>
+      </c>
+      <c r="B167" s="1">
         <v>10</v>
-      </c>
-      <c r="B167" s="1">
-        <v>12</v>
       </c>
       <c r="C167" s="1" t="str">
         <f>IF(GraphicMatrix!N12="0","0,1",IF(GraphicMatrix!N12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D167" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>10,12=0,1</v>
+        <f>A167&amp;","&amp;B167&amp;"="&amp;C167</f>
+        <v>12,10=0,1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
+        <v>12</v>
+      </c>
+      <c r="B168" s="1">
         <v>11</v>
-      </c>
-      <c r="B168" s="1">
-        <v>12</v>
       </c>
       <c r="C168" s="1" t="str">
         <f>IF(GraphicMatrix!N13="0","0,1",IF(GraphicMatrix!N13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D168" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>11,12=0,1</v>
+        <f>A168&amp;","&amp;B168&amp;"="&amp;C168</f>
+        <v>12,11=0,1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4428,2300 +4465,2301 @@
         <v>0,1</v>
       </c>
       <c r="D169" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>A169&amp;","&amp;B169&amp;"="&amp;C169</f>
         <v>12,12=0,1</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B170" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C170" s="1" t="str">
         <f>IF(GraphicMatrix!O2="0","0,1",IF(GraphicMatrix!O2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D170" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>0,13=0,1</v>
+        <f>A170&amp;","&amp;B170&amp;"="&amp;C170</f>
+        <v>13,0=0,1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1">
         <v>1</v>
-      </c>
-      <c r="B171" s="1">
-        <v>13</v>
       </c>
       <c r="C171" s="1" t="str">
         <f>IF(GraphicMatrix!O3="0","0,1",IF(GraphicMatrix!O3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D171" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>1,13=0,1</v>
+        <f>A171&amp;","&amp;B171&amp;"="&amp;C171</f>
+        <v>13,1=0,1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
         <v>2</v>
-      </c>
-      <c r="B172" s="1">
-        <v>13</v>
       </c>
       <c r="C172" s="1" t="str">
         <f>IF(GraphicMatrix!O4="0","0,1",IF(GraphicMatrix!O4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D172" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>2,13=0,1</v>
+        <f>A172&amp;","&amp;B172&amp;"="&amp;C172</f>
+        <v>13,2=0,1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B173" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1" t="str">
         <f>IF(GraphicMatrix!O5="0","0,1",IF(GraphicMatrix!O5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D173" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>3,13=0,1</v>
+        <f>A173&amp;","&amp;B173&amp;"="&amp;C173</f>
+        <v>13,3=0,1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1">
         <v>4</v>
-      </c>
-      <c r="B174" s="1">
-        <v>13</v>
       </c>
       <c r="C174" s="1" t="str">
         <f>IF(GraphicMatrix!O6="0","0,1",IF(GraphicMatrix!O6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D174" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>4,13=0,1</v>
+        <f>A174&amp;","&amp;B174&amp;"="&amp;C174</f>
+        <v>13,4=0,1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1">
         <v>5</v>
-      </c>
-      <c r="B175" s="1">
-        <v>13</v>
       </c>
       <c r="C175" s="1" t="str">
         <f>IF(GraphicMatrix!O7="0","0,1",IF(GraphicMatrix!O7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D175" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>5,13=0,1</v>
+        <f>A175&amp;","&amp;B175&amp;"="&amp;C175</f>
+        <v>13,5=0,1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1">
         <v>6</v>
-      </c>
-      <c r="B176" s="1">
-        <v>13</v>
       </c>
       <c r="C176" s="1" t="str">
         <f>IF(GraphicMatrix!O8="0","0,1",IF(GraphicMatrix!O8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D176" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>6,13=0,1</v>
+        <f>A176&amp;","&amp;B176&amp;"="&amp;C176</f>
+        <v>13,6=0,1</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1">
         <v>7</v>
-      </c>
-      <c r="B177" s="1">
-        <v>13</v>
       </c>
       <c r="C177" s="1" t="str">
         <f>IF(GraphicMatrix!O9="0","0,1",IF(GraphicMatrix!O9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D177" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>7,13=0,1</v>
+        <f>A177&amp;","&amp;B177&amp;"="&amp;C177</f>
+        <v>13,7=1,0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1">
         <v>8</v>
-      </c>
-      <c r="B178" s="1">
-        <v>13</v>
       </c>
       <c r="C178" s="1" t="str">
         <f>IF(GraphicMatrix!O10="0","0,1",IF(GraphicMatrix!O10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D178" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>8,13=0,1</v>
+        <f>A178&amp;","&amp;B178&amp;"="&amp;C178</f>
+        <v>13,8=1,0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1">
         <v>9</v>
-      </c>
-      <c r="B179" s="1">
-        <v>13</v>
       </c>
       <c r="C179" s="1" t="str">
         <f>IF(GraphicMatrix!O11="0","0,1",IF(GraphicMatrix!O11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D179" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>9,13=0,1</v>
+        <f>A179&amp;","&amp;B179&amp;"="&amp;C179</f>
+        <v>13,9=1,0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1">
         <v>10</v>
-      </c>
-      <c r="B180" s="1">
-        <v>13</v>
       </c>
       <c r="C180" s="1" t="str">
         <f>IF(GraphicMatrix!O12="0","0,1",IF(GraphicMatrix!O12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D180" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>10,13=0,1</v>
+        <f>A180&amp;","&amp;B180&amp;"="&amp;C180</f>
+        <v>13,10=1,0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
+        <v>13</v>
+      </c>
+      <c r="B181" s="1">
         <v>11</v>
-      </c>
-      <c r="B181" s="1">
-        <v>13</v>
       </c>
       <c r="C181" s="1" t="str">
         <f>IF(GraphicMatrix!O13="0","0,1",IF(GraphicMatrix!O13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D181" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>11,13=0,1</v>
+        <f>A181&amp;","&amp;B181&amp;"="&amp;C181</f>
+        <v>13,11=1,0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1">
         <v>12</v>
-      </c>
-      <c r="B182" s="1">
-        <v>13</v>
       </c>
       <c r="C182" s="1" t="str">
         <f>IF(GraphicMatrix!O14="0","0,1",IF(GraphicMatrix!O14="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D182" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13=0,1</v>
+        <f>A182&amp;","&amp;B182&amp;"="&amp;C182</f>
+        <v>13,12=1,0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B183" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C183" s="1" t="str">
         <f>IF(GraphicMatrix!P2="0","0,1",IF(GraphicMatrix!P2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D183" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>0,14=0,1</v>
+        <f>A183&amp;","&amp;B183&amp;"="&amp;C183</f>
+        <v>14,0=1,0</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
+        <v>14</v>
+      </c>
+      <c r="B184" s="1">
         <v>1</v>
-      </c>
-      <c r="B184" s="1">
-        <v>14</v>
       </c>
       <c r="C184" s="1" t="str">
         <f>IF(GraphicMatrix!P3="0","0,1",IF(GraphicMatrix!P3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D184" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>1,14=0,1</v>
+        <f>A184&amp;","&amp;B184&amp;"="&amp;C184</f>
+        <v>14,1=1,0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
+        <v>14</v>
+      </c>
+      <c r="B185" s="1">
         <v>2</v>
-      </c>
-      <c r="B185" s="1">
-        <v>14</v>
       </c>
       <c r="C185" s="1" t="str">
         <f>IF(GraphicMatrix!P4="0","0,1",IF(GraphicMatrix!P4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D185" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>2,14=0,1</v>
+        <f>A185&amp;","&amp;B185&amp;"="&amp;C185</f>
+        <v>14,2=0,1</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B186" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C186" s="1" t="str">
         <f>IF(GraphicMatrix!P5="0","0,1",IF(GraphicMatrix!P5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D186" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>3,14=0,1</v>
+        <f>A186&amp;","&amp;B186&amp;"="&amp;C186</f>
+        <v>14,3=1,0</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
+        <v>14</v>
+      </c>
+      <c r="B187" s="1">
         <v>4</v>
-      </c>
-      <c r="B187" s="1">
-        <v>14</v>
       </c>
       <c r="C187" s="1" t="str">
         <f>IF(GraphicMatrix!P6="0","0,1",IF(GraphicMatrix!P6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D187" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>4,14=0,1</v>
+        <f>A187&amp;","&amp;B187&amp;"="&amp;C187</f>
+        <v>14,4=1,0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
+        <v>14</v>
+      </c>
+      <c r="B188" s="1">
         <v>5</v>
-      </c>
-      <c r="B188" s="1">
-        <v>14</v>
       </c>
       <c r="C188" s="1" t="str">
         <f>IF(GraphicMatrix!P7="0","0,1",IF(GraphicMatrix!P7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D188" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>5,14=0,1</v>
+        <f>A188&amp;","&amp;B188&amp;"="&amp;C188</f>
+        <v>14,5=0,1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
+        <v>14</v>
+      </c>
+      <c r="B189" s="1">
         <v>6</v>
-      </c>
-      <c r="B189" s="1">
-        <v>14</v>
       </c>
       <c r="C189" s="1" t="str">
         <f>IF(GraphicMatrix!P8="0","0,1",IF(GraphicMatrix!P8="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D189" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>6,14=0,1</v>
+        <f>A189&amp;","&amp;B189&amp;"="&amp;C189</f>
+        <v>14,6=1,0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
+        <v>14</v>
+      </c>
+      <c r="B190" s="1">
         <v>7</v>
-      </c>
-      <c r="B190" s="1">
-        <v>14</v>
       </c>
       <c r="C190" s="1" t="str">
         <f>IF(GraphicMatrix!P9="0","0,1",IF(GraphicMatrix!P9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D190" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>7,14=0,1</v>
+        <f>A190&amp;","&amp;B190&amp;"="&amp;C190</f>
+        <v>14,7=0,1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
+        <v>14</v>
+      </c>
+      <c r="B191" s="1">
         <v>8</v>
-      </c>
-      <c r="B191" s="1">
-        <v>14</v>
       </c>
       <c r="C191" s="1" t="str">
         <f>IF(GraphicMatrix!P10="0","0,1",IF(GraphicMatrix!P10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D191" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>8,14=0,1</v>
+        <f>A191&amp;","&amp;B191&amp;"="&amp;C191</f>
+        <v>14,8=0,1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
+        <v>14</v>
+      </c>
+      <c r="B192" s="1">
         <v>9</v>
-      </c>
-      <c r="B192" s="1">
-        <v>14</v>
       </c>
       <c r="C192" s="1" t="str">
         <f>IF(GraphicMatrix!P11="0","0,1",IF(GraphicMatrix!P11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D192" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>9,14=0,1</v>
+        <f>A192&amp;","&amp;B192&amp;"="&amp;C192</f>
+        <v>14,9=0,1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
+        <v>14</v>
+      </c>
+      <c r="B193" s="1">
         <v>10</v>
-      </c>
-      <c r="B193" s="1">
-        <v>14</v>
       </c>
       <c r="C193" s="1" t="str">
         <f>IF(GraphicMatrix!P12="0","0,1",IF(GraphicMatrix!P12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D193" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>10,14=0,1</v>
+        <f>A193&amp;","&amp;B193&amp;"="&amp;C193</f>
+        <v>14,10=0,1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
+        <v>14</v>
+      </c>
+      <c r="B194" s="1">
         <v>11</v>
-      </c>
-      <c r="B194" s="1">
-        <v>14</v>
       </c>
       <c r="C194" s="1" t="str">
         <f>IF(GraphicMatrix!P13="0","0,1",IF(GraphicMatrix!P13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D194" s="13" t="str">
-        <f t="shared" ref="D194:D257" si="3">A194&amp;","&amp;B194&amp;"="&amp;C194</f>
-        <v>11,14=0,1</v>
+        <f>A194&amp;","&amp;B194&amp;"="&amp;C194</f>
+        <v>14,11=0,1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
+        <v>14</v>
+      </c>
+      <c r="B195" s="1">
         <v>12</v>
-      </c>
-      <c r="B195" s="1">
-        <v>14</v>
       </c>
       <c r="C195" s="1" t="str">
         <f>IF(GraphicMatrix!P14="0","0,1",IF(GraphicMatrix!P14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D195" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>12,14=0,1</v>
+        <f>A195&amp;","&amp;B195&amp;"="&amp;C195</f>
+        <v>14,12=0,1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B196" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C196" s="1" t="str">
         <f>IF(GraphicMatrix!Q2="0","0,1",IF(GraphicMatrix!Q2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D196" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0,15=0,1</v>
+        <f>A196&amp;","&amp;B196&amp;"="&amp;C196</f>
+        <v>15,0=0,1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
+        <v>15</v>
+      </c>
+      <c r="B197" s="1">
         <v>1</v>
-      </c>
-      <c r="B197" s="1">
-        <v>15</v>
       </c>
       <c r="C197" s="1" t="str">
         <f>IF(GraphicMatrix!Q3="0","0,1",IF(GraphicMatrix!Q3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D197" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>1,15=0,1</v>
+        <f>A197&amp;","&amp;B197&amp;"="&amp;C197</f>
+        <v>15,1=0,1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
+        <v>15</v>
+      </c>
+      <c r="B198" s="1">
         <v>2</v>
-      </c>
-      <c r="B198" s="1">
-        <v>15</v>
       </c>
       <c r="C198" s="1" t="str">
         <f>IF(GraphicMatrix!Q4="0","0,1",IF(GraphicMatrix!Q4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D198" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>2,15=0,1</v>
+        <f>A198&amp;","&amp;B198&amp;"="&amp;C198</f>
+        <v>15,2=0,1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B199" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C199" s="1" t="str">
         <f>IF(GraphicMatrix!Q5="0","0,1",IF(GraphicMatrix!Q5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D199" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>3,15=0,1</v>
+        <f>A199&amp;","&amp;B199&amp;"="&amp;C199</f>
+        <v>15,3=0,1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
+        <v>15</v>
+      </c>
+      <c r="B200" s="1">
         <v>4</v>
-      </c>
-      <c r="B200" s="1">
-        <v>15</v>
       </c>
       <c r="C200" s="1" t="str">
         <f>IF(GraphicMatrix!Q6="0","0,1",IF(GraphicMatrix!Q6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D200" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>4,15=0,1</v>
+        <f>A200&amp;","&amp;B200&amp;"="&amp;C200</f>
+        <v>15,4=1,0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
+        <v>15</v>
+      </c>
+      <c r="B201" s="1">
         <v>5</v>
-      </c>
-      <c r="B201" s="1">
-        <v>15</v>
       </c>
       <c r="C201" s="1" t="str">
         <f>IF(GraphicMatrix!Q7="0","0,1",IF(GraphicMatrix!Q7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D201" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>5,15=0,1</v>
+        <f>A201&amp;","&amp;B201&amp;"="&amp;C201</f>
+        <v>15,5=0,1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
+        <v>15</v>
+      </c>
+      <c r="B202" s="1">
         <v>6</v>
-      </c>
-      <c r="B202" s="1">
-        <v>15</v>
       </c>
       <c r="C202" s="1" t="str">
         <f>IF(GraphicMatrix!Q8="0","0,1",IF(GraphicMatrix!Q8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D202" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>6,15=0,1</v>
+        <f>A202&amp;","&amp;B202&amp;"="&amp;C202</f>
+        <v>15,6=0,1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
+        <v>15</v>
+      </c>
+      <c r="B203" s="1">
         <v>7</v>
-      </c>
-      <c r="B203" s="1">
-        <v>15</v>
       </c>
       <c r="C203" s="1" t="str">
         <f>IF(GraphicMatrix!Q9="0","0,1",IF(GraphicMatrix!Q9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D203" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>7,15=0,1</v>
+        <f>A203&amp;","&amp;B203&amp;"="&amp;C203</f>
+        <v>15,7=0,1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
+        <v>15</v>
+      </c>
+      <c r="B204" s="1">
         <v>8</v>
-      </c>
-      <c r="B204" s="1">
-        <v>15</v>
       </c>
       <c r="C204" s="1" t="str">
         <f>IF(GraphicMatrix!Q10="0","0,1",IF(GraphicMatrix!Q10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D204" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>8,15=0,1</v>
+        <f>A204&amp;","&amp;B204&amp;"="&amp;C204</f>
+        <v>15,8=1,0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
+        <v>15</v>
+      </c>
+      <c r="B205" s="1">
         <v>9</v>
-      </c>
-      <c r="B205" s="1">
-        <v>15</v>
       </c>
       <c r="C205" s="1" t="str">
         <f>IF(GraphicMatrix!Q11="0","0,1",IF(GraphicMatrix!Q11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D205" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>9,15=0,1</v>
+        <f>A205&amp;","&amp;B205&amp;"="&amp;C205</f>
+        <v>15,9=1,0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
+        <v>15</v>
+      </c>
+      <c r="B206" s="1">
         <v>10</v>
-      </c>
-      <c r="B206" s="1">
-        <v>15</v>
       </c>
       <c r="C206" s="1" t="str">
         <f>IF(GraphicMatrix!Q12="0","0,1",IF(GraphicMatrix!Q12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D206" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>10,15=0,1</v>
+        <f>A206&amp;","&amp;B206&amp;"="&amp;C206</f>
+        <v>15,10=1,0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
+        <v>15</v>
+      </c>
+      <c r="B207" s="1">
         <v>11</v>
-      </c>
-      <c r="B207" s="1">
-        <v>15</v>
       </c>
       <c r="C207" s="1" t="str">
         <f>IF(GraphicMatrix!Q13="0","0,1",IF(GraphicMatrix!Q13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D207" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>11,15=0,1</v>
+        <f>A207&amp;","&amp;B207&amp;"="&amp;C207</f>
+        <v>15,11=1,0</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
+        <v>15</v>
+      </c>
+      <c r="B208" s="1">
         <v>12</v>
-      </c>
-      <c r="B208" s="1">
-        <v>15</v>
       </c>
       <c r="C208" s="1" t="str">
         <f>IF(GraphicMatrix!Q14="0","0,1",IF(GraphicMatrix!Q14="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D208" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>12,15=0,1</v>
+        <f>A208&amp;","&amp;B208&amp;"="&amp;C208</f>
+        <v>15,12=1,0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B209" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C209" s="1" t="str">
         <f>IF(GraphicMatrix!R2="0","0,1",IF(GraphicMatrix!R2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D209" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0,16=0,1</v>
+        <f>A209&amp;","&amp;B209&amp;"="&amp;C209</f>
+        <v>16,0=1,0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
+        <v>16</v>
+      </c>
+      <c r="B210" s="1">
         <v>1</v>
-      </c>
-      <c r="B210" s="1">
-        <v>16</v>
       </c>
       <c r="C210" s="1" t="str">
         <f>IF(GraphicMatrix!R3="0","0,1",IF(GraphicMatrix!R3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D210" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>1,16=0,1</v>
+        <f>A210&amp;","&amp;B210&amp;"="&amp;C210</f>
+        <v>16,1=1,0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
+        <v>16</v>
+      </c>
+      <c r="B211" s="1">
         <v>2</v>
-      </c>
-      <c r="B211" s="1">
-        <v>16</v>
       </c>
       <c r="C211" s="1" t="str">
         <f>IF(GraphicMatrix!R4="0","0,1",IF(GraphicMatrix!R4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D211" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>2,16=0,1</v>
+        <f>A211&amp;","&amp;B211&amp;"="&amp;C211</f>
+        <v>16,2=1,0</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B212" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C212" s="1" t="str">
         <f>IF(GraphicMatrix!R5="0","0,1",IF(GraphicMatrix!R5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D212" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>3,16=0,1</v>
+        <f>A212&amp;","&amp;B212&amp;"="&amp;C212</f>
+        <v>16,3=0,1</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
+        <v>16</v>
+      </c>
+      <c r="B213" s="1">
         <v>4</v>
-      </c>
-      <c r="B213" s="1">
-        <v>16</v>
       </c>
       <c r="C213" s="1" t="str">
         <f>IF(GraphicMatrix!R6="0","0,1",IF(GraphicMatrix!R6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D213" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>4,16=0,1</v>
+        <f>A213&amp;","&amp;B213&amp;"="&amp;C213</f>
+        <v>16,4=1,0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
+        <v>16</v>
+      </c>
+      <c r="B214" s="1">
         <v>5</v>
-      </c>
-      <c r="B214" s="1">
-        <v>16</v>
       </c>
       <c r="C214" s="1" t="str">
         <f>IF(GraphicMatrix!R7="0","0,1",IF(GraphicMatrix!R7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D214" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>5,16=0,1</v>
+        <f>A214&amp;","&amp;B214&amp;"="&amp;C214</f>
+        <v>16,5=0,1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
+        <v>16</v>
+      </c>
+      <c r="B215" s="1">
         <v>6</v>
-      </c>
-      <c r="B215" s="1">
-        <v>16</v>
       </c>
       <c r="C215" s="1" t="str">
         <f>IF(GraphicMatrix!R8="0","0,1",IF(GraphicMatrix!R8="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D215" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>6,16=0,1</v>
+        <f>A215&amp;","&amp;B215&amp;"="&amp;C215</f>
+        <v>16,6=1,0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
+        <v>16</v>
+      </c>
+      <c r="B216" s="1">
         <v>7</v>
-      </c>
-      <c r="B216" s="1">
-        <v>16</v>
       </c>
       <c r="C216" s="1" t="str">
         <f>IF(GraphicMatrix!R9="0","0,1",IF(GraphicMatrix!R9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D216" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>7,16=0,1</v>
+        <f>A216&amp;","&amp;B216&amp;"="&amp;C216</f>
+        <v>16,7=1,0</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
+        <v>16</v>
+      </c>
+      <c r="B217" s="1">
         <v>8</v>
-      </c>
-      <c r="B217" s="1">
-        <v>16</v>
       </c>
       <c r="C217" s="1" t="str">
         <f>IF(GraphicMatrix!R10="0","0,1",IF(GraphicMatrix!R10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D217" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>8,16=0,1</v>
+        <f>A217&amp;","&amp;B217&amp;"="&amp;C217</f>
+        <v>16,8=0,1</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
+        <v>16</v>
+      </c>
+      <c r="B218" s="1">
         <v>9</v>
-      </c>
-      <c r="B218" s="1">
-        <v>16</v>
       </c>
       <c r="C218" s="1" t="str">
         <f>IF(GraphicMatrix!R11="0","0,1",IF(GraphicMatrix!R11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D218" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>9,16=0,1</v>
+        <f>A218&amp;","&amp;B218&amp;"="&amp;C218</f>
+        <v>16,9=0,1</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
+        <v>16</v>
+      </c>
+      <c r="B219" s="1">
         <v>10</v>
-      </c>
-      <c r="B219" s="1">
-        <v>16</v>
       </c>
       <c r="C219" s="1" t="str">
         <f>IF(GraphicMatrix!R12="0","0,1",IF(GraphicMatrix!R12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D219" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>10,16=0,1</v>
+        <f>A219&amp;","&amp;B219&amp;"="&amp;C219</f>
+        <v>16,10=0,1</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
+        <v>16</v>
+      </c>
+      <c r="B220" s="1">
         <v>11</v>
-      </c>
-      <c r="B220" s="1">
-        <v>16</v>
       </c>
       <c r="C220" s="1" t="str">
         <f>IF(GraphicMatrix!R13="0","0,1",IF(GraphicMatrix!R13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D220" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>11,16=0,1</v>
+        <f>A220&amp;","&amp;B220&amp;"="&amp;C220</f>
+        <v>16,11=0,1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
+        <v>16</v>
+      </c>
+      <c r="B221" s="1">
         <v>12</v>
-      </c>
-      <c r="B221" s="1">
-        <v>16</v>
       </c>
       <c r="C221" s="1" t="str">
         <f>IF(GraphicMatrix!R14="0","0,1",IF(GraphicMatrix!R14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D221" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>12,16=0,1</v>
+        <f>A221&amp;","&amp;B221&amp;"="&amp;C221</f>
+        <v>16,12=0,1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B222" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C222" s="1" t="str">
         <f>IF(GraphicMatrix!S2="0","0,1",IF(GraphicMatrix!S2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D222" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0,17=0,1</v>
+        <f>A222&amp;","&amp;B222&amp;"="&amp;C222</f>
+        <v>17,0=0,1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
+        <v>17</v>
+      </c>
+      <c r="B223" s="1">
         <v>1</v>
-      </c>
-      <c r="B223" s="1">
-        <v>17</v>
       </c>
       <c r="C223" s="1" t="str">
         <f>IF(GraphicMatrix!S3="0","0,1",IF(GraphicMatrix!S3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D223" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>1,17=0,1</v>
+        <f>A223&amp;","&amp;B223&amp;"="&amp;C223</f>
+        <v>17,1=0,1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
+        <v>17</v>
+      </c>
+      <c r="B224" s="1">
         <v>2</v>
-      </c>
-      <c r="B224" s="1">
-        <v>17</v>
       </c>
       <c r="C224" s="1" t="str">
         <f>IF(GraphicMatrix!S4="0","0,1",IF(GraphicMatrix!S4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D224" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>2,17=0,1</v>
+        <f>A224&amp;","&amp;B224&amp;"="&amp;C224</f>
+        <v>17,2=0,1</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B225" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C225" s="1" t="str">
         <f>IF(GraphicMatrix!S5="0","0,1",IF(GraphicMatrix!S5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D225" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>3,17=0,1</v>
+        <f>A225&amp;","&amp;B225&amp;"="&amp;C225</f>
+        <v>17,3=0,1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
+        <v>17</v>
+      </c>
+      <c r="B226" s="1">
         <v>4</v>
-      </c>
-      <c r="B226" s="1">
-        <v>17</v>
       </c>
       <c r="C226" s="1" t="str">
         <f>IF(GraphicMatrix!S6="0","0,1",IF(GraphicMatrix!S6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D226" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>4,17=0,1</v>
+        <f>A226&amp;","&amp;B226&amp;"="&amp;C226</f>
+        <v>17,4=0,1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
+        <v>17</v>
+      </c>
+      <c r="B227" s="1">
         <v>5</v>
-      </c>
-      <c r="B227" s="1">
-        <v>17</v>
       </c>
       <c r="C227" s="1" t="str">
         <f>IF(GraphicMatrix!S7="0","0,1",IF(GraphicMatrix!S7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D227" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>5,17=0,1</v>
+        <f>A227&amp;","&amp;B227&amp;"="&amp;C227</f>
+        <v>17,5=0,1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
+        <v>17</v>
+      </c>
+      <c r="B228" s="1">
         <v>6</v>
-      </c>
-      <c r="B228" s="1">
-        <v>17</v>
       </c>
       <c r="C228" s="1" t="str">
         <f>IF(GraphicMatrix!S8="0","0,1",IF(GraphicMatrix!S8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D228" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>6,17=0,1</v>
+        <f>A228&amp;","&amp;B228&amp;"="&amp;C228</f>
+        <v>17,6=0,1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
+        <v>17</v>
+      </c>
+      <c r="B229" s="1">
         <v>7</v>
-      </c>
-      <c r="B229" s="1">
-        <v>17</v>
       </c>
       <c r="C229" s="1" t="str">
         <f>IF(GraphicMatrix!S9="0","0,1",IF(GraphicMatrix!S9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D229" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>7,17=0,1</v>
+        <f>A229&amp;","&amp;B229&amp;"="&amp;C229</f>
+        <v>17,7=0,1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
+        <v>17</v>
+      </c>
+      <c r="B230" s="1">
         <v>8</v>
-      </c>
-      <c r="B230" s="1">
-        <v>17</v>
       </c>
       <c r="C230" s="1" t="str">
         <f>IF(GraphicMatrix!S10="0","0,1",IF(GraphicMatrix!S10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D230" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>8,17=0,1</v>
+        <f>A230&amp;","&amp;B230&amp;"="&amp;C230</f>
+        <v>17,8=0,1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
+        <v>17</v>
+      </c>
+      <c r="B231" s="1">
         <v>9</v>
-      </c>
-      <c r="B231" s="1">
-        <v>17</v>
       </c>
       <c r="C231" s="1" t="str">
         <f>IF(GraphicMatrix!S11="0","0,1",IF(GraphicMatrix!S11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D231" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>9,17=0,1</v>
+        <f>A231&amp;","&amp;B231&amp;"="&amp;C231</f>
+        <v>17,9=1,0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
+        <v>17</v>
+      </c>
+      <c r="B232" s="1">
         <v>10</v>
-      </c>
-      <c r="B232" s="1">
-        <v>17</v>
       </c>
       <c r="C232" s="1" t="str">
         <f>IF(GraphicMatrix!S12="0","0,1",IF(GraphicMatrix!S12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D232" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>10,17=0,1</v>
+        <f>A232&amp;","&amp;B232&amp;"="&amp;C232</f>
+        <v>17,10=1,0</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
+        <v>17</v>
+      </c>
+      <c r="B233" s="1">
         <v>11</v>
-      </c>
-      <c r="B233" s="1">
-        <v>17</v>
       </c>
       <c r="C233" s="1" t="str">
         <f>IF(GraphicMatrix!S13="0","0,1",IF(GraphicMatrix!S13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D233" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>11,17=0,1</v>
+        <f>A233&amp;","&amp;B233&amp;"="&amp;C233</f>
+        <v>17,11=1,0</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
+        <v>17</v>
+      </c>
+      <c r="B234" s="1">
         <v>12</v>
-      </c>
-      <c r="B234" s="1">
-        <v>17</v>
       </c>
       <c r="C234" s="1" t="str">
         <f>IF(GraphicMatrix!S14="0","0,1",IF(GraphicMatrix!S14="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D234" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>12,17=0,1</v>
+        <f>A234&amp;","&amp;B234&amp;"="&amp;C234</f>
+        <v>17,12=1,0</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B235" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C235" s="1" t="str">
         <f>IF(GraphicMatrix!T2="0","0,1",IF(GraphicMatrix!T2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D235" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0,18=0,1</v>
+        <f>A235&amp;","&amp;B235&amp;"="&amp;C235</f>
+        <v>18,0=0,1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
+        <v>18</v>
+      </c>
+      <c r="B236" s="1">
         <v>1</v>
-      </c>
-      <c r="B236" s="1">
-        <v>18</v>
       </c>
       <c r="C236" s="1" t="str">
         <f>IF(GraphicMatrix!T3="0","0,1",IF(GraphicMatrix!T3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D236" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>1,18=0,1</v>
+        <f>A236&amp;","&amp;B236&amp;"="&amp;C236</f>
+        <v>18,1=1,0</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
+        <v>18</v>
+      </c>
+      <c r="B237" s="1">
         <v>2</v>
-      </c>
-      <c r="B237" s="1">
-        <v>18</v>
       </c>
       <c r="C237" s="1" t="str">
         <f>IF(GraphicMatrix!T4="0","0,1",IF(GraphicMatrix!T4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D237" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>2,18=0,1</v>
+        <f>A237&amp;","&amp;B237&amp;"="&amp;C237</f>
+        <v>18,2=1,0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B238" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C238" s="1" t="str">
         <f>IF(GraphicMatrix!T5="0","0,1",IF(GraphicMatrix!T5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D238" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>3,18=0,1</v>
+        <f>A238&amp;","&amp;B238&amp;"="&amp;C238</f>
+        <v>18,3=0,1</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
+        <v>18</v>
+      </c>
+      <c r="B239" s="1">
         <v>4</v>
-      </c>
-      <c r="B239" s="1">
-        <v>18</v>
       </c>
       <c r="C239" s="1" t="str">
         <f>IF(GraphicMatrix!T6="0","0,1",IF(GraphicMatrix!T6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D239" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>4,18=0,1</v>
+        <f>A239&amp;","&amp;B239&amp;"="&amp;C239</f>
+        <v>18,4=1,0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
+        <v>18</v>
+      </c>
+      <c r="B240" s="1">
         <v>5</v>
-      </c>
-      <c r="B240" s="1">
-        <v>18</v>
       </c>
       <c r="C240" s="1" t="str">
         <f>IF(GraphicMatrix!T7="0","0,1",IF(GraphicMatrix!T7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D240" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>5,18=0,1</v>
+        <f>A240&amp;","&amp;B240&amp;"="&amp;C240</f>
+        <v>18,5=0,1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
+        <v>18</v>
+      </c>
+      <c r="B241" s="1">
         <v>6</v>
-      </c>
-      <c r="B241" s="1">
-        <v>18</v>
       </c>
       <c r="C241" s="1" t="str">
         <f>IF(GraphicMatrix!T8="0","0,1",IF(GraphicMatrix!T8="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D241" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>6,18=0,1</v>
+        <f>A241&amp;","&amp;B241&amp;"="&amp;C241</f>
+        <v>18,6=1,0</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
+        <v>18</v>
+      </c>
+      <c r="B242" s="1">
         <v>7</v>
-      </c>
-      <c r="B242" s="1">
-        <v>18</v>
       </c>
       <c r="C242" s="1" t="str">
         <f>IF(GraphicMatrix!T9="0","0,1",IF(GraphicMatrix!T9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D242" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>7,18=0,1</v>
+        <f>A242&amp;","&amp;B242&amp;"="&amp;C242</f>
+        <v>18,7=0,1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
+        <v>18</v>
+      </c>
+      <c r="B243" s="1">
         <v>8</v>
-      </c>
-      <c r="B243" s="1">
-        <v>18</v>
       </c>
       <c r="C243" s="1" t="str">
         <f>IF(GraphicMatrix!T10="0","0,1",IF(GraphicMatrix!T10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D243" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>8,18=0,1</v>
+        <f>A243&amp;","&amp;B243&amp;"="&amp;C243</f>
+        <v>18,8=0,1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
+        <v>18</v>
+      </c>
+      <c r="B244" s="1">
         <v>9</v>
-      </c>
-      <c r="B244" s="1">
-        <v>18</v>
       </c>
       <c r="C244" s="1" t="str">
         <f>IF(GraphicMatrix!T11="0","0,1",IF(GraphicMatrix!T11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D244" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>9,18=0,1</v>
+        <f>A244&amp;","&amp;B244&amp;"="&amp;C244</f>
+        <v>18,9=0,1</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
+        <v>18</v>
+      </c>
+      <c r="B245" s="1">
         <v>10</v>
-      </c>
-      <c r="B245" s="1">
-        <v>18</v>
       </c>
       <c r="C245" s="1" t="str">
         <f>IF(GraphicMatrix!T12="0","0,1",IF(GraphicMatrix!T12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D245" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>10,18=0,1</v>
+        <f>A245&amp;","&amp;B245&amp;"="&amp;C245</f>
+        <v>18,10=0,1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
+        <v>18</v>
+      </c>
+      <c r="B246" s="1">
         <v>11</v>
-      </c>
-      <c r="B246" s="1">
-        <v>18</v>
       </c>
       <c r="C246" s="1" t="str">
         <f>IF(GraphicMatrix!T13="0","0,1",IF(GraphicMatrix!T13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D246" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>11,18=0,1</v>
+        <f>A246&amp;","&amp;B246&amp;"="&amp;C246</f>
+        <v>18,11=0,1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
+        <v>18</v>
+      </c>
+      <c r="B247" s="1">
         <v>12</v>
-      </c>
-      <c r="B247" s="1">
-        <v>18</v>
       </c>
       <c r="C247" s="1" t="str">
         <f>IF(GraphicMatrix!T14="0","0,1",IF(GraphicMatrix!T14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D247" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>12,18=0,1</v>
+        <f>A247&amp;","&amp;B247&amp;"="&amp;C247</f>
+        <v>18,12=0,1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B248" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C248" s="1" t="str">
         <f>IF(GraphicMatrix!U2="0","0,1",IF(GraphicMatrix!U2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D248" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>0,19=0,1</v>
+        <f>A248&amp;","&amp;B248&amp;"="&amp;C248</f>
+        <v>19,0=0,1</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
+        <v>19</v>
+      </c>
+      <c r="B249" s="1">
         <v>1</v>
-      </c>
-      <c r="B249" s="1">
-        <v>19</v>
       </c>
       <c r="C249" s="1" t="str">
         <f>IF(GraphicMatrix!U3="0","0,1",IF(GraphicMatrix!U3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D249" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>1,19=0,1</v>
+        <f>A249&amp;","&amp;B249&amp;"="&amp;C249</f>
+        <v>19,1=0,1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
+        <v>19</v>
+      </c>
+      <c r="B250" s="1">
         <v>2</v>
-      </c>
-      <c r="B250" s="1">
-        <v>19</v>
       </c>
       <c r="C250" s="1" t="str">
         <f>IF(GraphicMatrix!U4="0","0,1",IF(GraphicMatrix!U4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D250" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>2,19=0,1</v>
+        <f>A250&amp;","&amp;B250&amp;"="&amp;C250</f>
+        <v>19,2=0,1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B251" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C251" s="1" t="str">
         <f>IF(GraphicMatrix!U5="0","0,1",IF(GraphicMatrix!U5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D251" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>3,19=0,1</v>
+        <f>A251&amp;","&amp;B251&amp;"="&amp;C251</f>
+        <v>19,3=0,1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
+        <v>19</v>
+      </c>
+      <c r="B252" s="1">
         <v>4</v>
-      </c>
-      <c r="B252" s="1">
-        <v>19</v>
       </c>
       <c r="C252" s="1" t="str">
         <f>IF(GraphicMatrix!U6="0","0,1",IF(GraphicMatrix!U6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D252" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>4,19=0,1</v>
+        <f>A252&amp;","&amp;B252&amp;"="&amp;C252</f>
+        <v>19,4=1,0</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
+        <v>19</v>
+      </c>
+      <c r="B253" s="1">
         <v>5</v>
-      </c>
-      <c r="B253" s="1">
-        <v>19</v>
       </c>
       <c r="C253" s="1" t="str">
         <f>IF(GraphicMatrix!U7="0","0,1",IF(GraphicMatrix!U7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D253" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>5,19=0,1</v>
+        <f>A253&amp;","&amp;B253&amp;"="&amp;C253</f>
+        <v>19,5=0,1</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
+        <v>19</v>
+      </c>
+      <c r="B254" s="1">
         <v>6</v>
-      </c>
-      <c r="B254" s="1">
-        <v>19</v>
       </c>
       <c r="C254" s="1" t="str">
         <f>IF(GraphicMatrix!U8="0","0,1",IF(GraphicMatrix!U8="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D254" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>6,19=0,1</v>
+        <f>A254&amp;","&amp;B254&amp;"="&amp;C254</f>
+        <v>19,6=1,0</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
+        <v>19</v>
+      </c>
+      <c r="B255" s="1">
         <v>7</v>
-      </c>
-      <c r="B255" s="1">
-        <v>19</v>
       </c>
       <c r="C255" s="1" t="str">
         <f>IF(GraphicMatrix!U9="0","0,1",IF(GraphicMatrix!U9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D255" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>7,19=0,1</v>
+        <f>A255&amp;","&amp;B255&amp;"="&amp;C255</f>
+        <v>19,7=1,0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
+        <v>19</v>
+      </c>
+      <c r="B256" s="1">
         <v>8</v>
-      </c>
-      <c r="B256" s="1">
-        <v>19</v>
       </c>
       <c r="C256" s="1" t="str">
         <f>IF(GraphicMatrix!U10="0","0,1",IF(GraphicMatrix!U10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D256" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>8,19=0,1</v>
+        <f>A256&amp;","&amp;B256&amp;"="&amp;C256</f>
+        <v>19,8=1,0</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
+        <v>19</v>
+      </c>
+      <c r="B257" s="1">
         <v>9</v>
-      </c>
-      <c r="B257" s="1">
-        <v>19</v>
       </c>
       <c r="C257" s="1" t="str">
         <f>IF(GraphicMatrix!U11="0","0,1",IF(GraphicMatrix!U11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D257" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>9,19=0,1</v>
+        <f>A257&amp;","&amp;B257&amp;"="&amp;C257</f>
+        <v>19,9=1,0</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
+        <v>19</v>
+      </c>
+      <c r="B258" s="1">
         <v>10</v>
-      </c>
-      <c r="B258" s="1">
-        <v>19</v>
       </c>
       <c r="C258" s="1" t="str">
         <f>IF(GraphicMatrix!U12="0","0,1",IF(GraphicMatrix!U12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D258" s="13" t="str">
-        <f t="shared" ref="D258:D312" si="4">A258&amp;","&amp;B258&amp;"="&amp;C258</f>
-        <v>10,19=0,1</v>
+        <f>A258&amp;","&amp;B258&amp;"="&amp;C258</f>
+        <v>19,10=1,0</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
+        <v>19</v>
+      </c>
+      <c r="B259" s="1">
         <v>11</v>
-      </c>
-      <c r="B259" s="1">
-        <v>19</v>
       </c>
       <c r="C259" s="1" t="str">
         <f>IF(GraphicMatrix!U13="0","0,1",IF(GraphicMatrix!U13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D259" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>11,19=0,1</v>
+        <f>A259&amp;","&amp;B259&amp;"="&amp;C259</f>
+        <v>19,11=1,0</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
+        <v>19</v>
+      </c>
+      <c r="B260" s="1">
         <v>12</v>
-      </c>
-      <c r="B260" s="1">
-        <v>19</v>
       </c>
       <c r="C260" s="1" t="str">
         <f>IF(GraphicMatrix!U14="0","0,1",IF(GraphicMatrix!U14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D260" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>12,19=0,1</v>
+        <f>A260&amp;","&amp;B260&amp;"="&amp;C260</f>
+        <v>19,12=0,1</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B261" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C261" s="1" t="str">
         <f>IF(GraphicMatrix!V2="0","0,1",IF(GraphicMatrix!V2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D261" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>0,20=0,1</v>
+        <f>A261&amp;","&amp;B261&amp;"="&amp;C261</f>
+        <v>20,0=1,0</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
+        <v>20</v>
+      </c>
+      <c r="B262" s="1">
         <v>1</v>
-      </c>
-      <c r="B262" s="1">
-        <v>20</v>
       </c>
       <c r="C262" s="1" t="str">
         <f>IF(GraphicMatrix!V3="0","0,1",IF(GraphicMatrix!V3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D262" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>1,20=0,1</v>
+        <f>A262&amp;","&amp;B262&amp;"="&amp;C262</f>
+        <v>20,1=1,0</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
+        <v>20</v>
+      </c>
+      <c r="B263" s="1">
         <v>2</v>
-      </c>
-      <c r="B263" s="1">
-        <v>20</v>
       </c>
       <c r="C263" s="1" t="str">
         <f>IF(GraphicMatrix!V4="0","0,1",IF(GraphicMatrix!V4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D263" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>2,20=0,1</v>
+        <f>A263&amp;","&amp;B263&amp;"="&amp;C263</f>
+        <v>20,2=1,0</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B264" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C264" s="1" t="str">
         <f>IF(GraphicMatrix!V5="0","0,1",IF(GraphicMatrix!V5="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D264" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>3,20=0,1</v>
+        <f>A264&amp;","&amp;B264&amp;"="&amp;C264</f>
+        <v>20,3=1,0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
+        <v>20</v>
+      </c>
+      <c r="B265" s="1">
         <v>4</v>
-      </c>
-      <c r="B265" s="1">
-        <v>20</v>
       </c>
       <c r="C265" s="1" t="str">
         <f>IF(GraphicMatrix!V6="0","0,1",IF(GraphicMatrix!V6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D265" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>4,20=0,1</v>
+        <f>A265&amp;","&amp;B265&amp;"="&amp;C265</f>
+        <v>20,4=1,0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
+        <v>20</v>
+      </c>
+      <c r="B266" s="1">
         <v>5</v>
-      </c>
-      <c r="B266" s="1">
-        <v>20</v>
       </c>
       <c r="C266" s="1" t="str">
         <f>IF(GraphicMatrix!V7="0","0,1",IF(GraphicMatrix!V7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D266" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>5,20=0,1</v>
+        <f>A266&amp;","&amp;B266&amp;"="&amp;C266</f>
+        <v>20,5=0,1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
+        <v>20</v>
+      </c>
+      <c r="B267" s="1">
         <v>6</v>
-      </c>
-      <c r="B267" s="1">
-        <v>20</v>
       </c>
       <c r="C267" s="1" t="str">
         <f>IF(GraphicMatrix!V8="0","0,1",IF(GraphicMatrix!V8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D267" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>6,20=0,1</v>
+        <f>A267&amp;","&amp;B267&amp;"="&amp;C267</f>
+        <v>20,6=0,1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
+        <v>20</v>
+      </c>
+      <c r="B268" s="1">
         <v>7</v>
-      </c>
-      <c r="B268" s="1">
-        <v>20</v>
       </c>
       <c r="C268" s="1" t="str">
         <f>IF(GraphicMatrix!V9="0","0,1",IF(GraphicMatrix!V9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D268" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>7,20=0,1</v>
+        <f>A268&amp;","&amp;B268&amp;"="&amp;C268</f>
+        <v>20,7=0,1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
+        <v>20</v>
+      </c>
+      <c r="B269" s="1">
         <v>8</v>
-      </c>
-      <c r="B269" s="1">
-        <v>20</v>
       </c>
       <c r="C269" s="1" t="str">
         <f>IF(GraphicMatrix!V10="0","0,1",IF(GraphicMatrix!V10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D269" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>8,20=0,1</v>
+        <f>A269&amp;","&amp;B269&amp;"="&amp;C269</f>
+        <v>20,8=0,1</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
+        <v>20</v>
+      </c>
+      <c r="B270" s="1">
         <v>9</v>
-      </c>
-      <c r="B270" s="1">
-        <v>20</v>
       </c>
       <c r="C270" s="1" t="str">
         <f>IF(GraphicMatrix!V11="0","0,1",IF(GraphicMatrix!V11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D270" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>9,20=0,1</v>
+        <f>A270&amp;","&amp;B270&amp;"="&amp;C270</f>
+        <v>20,9=0,1</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
+        <v>20</v>
+      </c>
+      <c r="B271" s="1">
         <v>10</v>
-      </c>
-      <c r="B271" s="1">
-        <v>20</v>
       </c>
       <c r="C271" s="1" t="str">
         <f>IF(GraphicMatrix!V12="0","0,1",IF(GraphicMatrix!V12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D271" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>10,20=0,1</v>
+        <f>A271&amp;","&amp;B271&amp;"="&amp;C271</f>
+        <v>20,10=0,1</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
+        <v>20</v>
+      </c>
+      <c r="B272" s="1">
         <v>11</v>
-      </c>
-      <c r="B272" s="1">
-        <v>20</v>
       </c>
       <c r="C272" s="1" t="str">
         <f>IF(GraphicMatrix!V13="0","0,1",IF(GraphicMatrix!V13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D272" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>11,20=0,1</v>
+        <f>A272&amp;","&amp;B272&amp;"="&amp;C272</f>
+        <v>20,11=0,1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
+        <v>20</v>
+      </c>
+      <c r="B273" s="1">
         <v>12</v>
-      </c>
-      <c r="B273" s="1">
-        <v>20</v>
       </c>
       <c r="C273" s="1" t="str">
         <f>IF(GraphicMatrix!V14="0","0,1",IF(GraphicMatrix!V14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D273" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>12,20=0,1</v>
+        <f>A273&amp;","&amp;B273&amp;"="&amp;C273</f>
+        <v>20,12=0,1</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B274" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C274" s="1" t="str">
         <f>IF(GraphicMatrix!W2="0","0,1",IF(GraphicMatrix!W2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D274" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>0,21=0,1</v>
+        <f>A274&amp;","&amp;B274&amp;"="&amp;C274</f>
+        <v>21,0=0,1</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
+        <v>21</v>
+      </c>
+      <c r="B275" s="1">
         <v>1</v>
-      </c>
-      <c r="B275" s="1">
-        <v>21</v>
       </c>
       <c r="C275" s="1" t="str">
         <f>IF(GraphicMatrix!W3="0","0,1",IF(GraphicMatrix!W3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D275" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>1,21=0,1</v>
+        <f>A275&amp;","&amp;B275&amp;"="&amp;C275</f>
+        <v>21,1=0,1</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
+        <v>21</v>
+      </c>
+      <c r="B276" s="1">
         <v>2</v>
-      </c>
-      <c r="B276" s="1">
-        <v>21</v>
       </c>
       <c r="C276" s="1" t="str">
         <f>IF(GraphicMatrix!W4="0","0,1",IF(GraphicMatrix!W4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D276" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>2,21=0,1</v>
+        <f>A276&amp;","&amp;B276&amp;"="&amp;C276</f>
+        <v>21,2=0,1</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B277" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C277" s="1" t="str">
         <f>IF(GraphicMatrix!W5="0","0,1",IF(GraphicMatrix!W5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D277" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>3,21=0,1</v>
+        <f>A277&amp;","&amp;B277&amp;"="&amp;C277</f>
+        <v>21,3=0,1</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
+        <v>21</v>
+      </c>
+      <c r="B278" s="1">
         <v>4</v>
-      </c>
-      <c r="B278" s="1">
-        <v>21</v>
       </c>
       <c r="C278" s="1" t="str">
         <f>IF(GraphicMatrix!W6="0","0,1",IF(GraphicMatrix!W6="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D278" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>4,21=0,1</v>
+        <f>A278&amp;","&amp;B278&amp;"="&amp;C278</f>
+        <v>21,4=0,1</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
+        <v>21</v>
+      </c>
+      <c r="B279" s="1">
         <v>5</v>
-      </c>
-      <c r="B279" s="1">
-        <v>21</v>
       </c>
       <c r="C279" s="1" t="str">
         <f>IF(GraphicMatrix!W7="0","0,1",IF(GraphicMatrix!W7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D279" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>5,21=0,1</v>
+        <f>A279&amp;","&amp;B279&amp;"="&amp;C279</f>
+        <v>21,5=0,1</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
+        <v>21</v>
+      </c>
+      <c r="B280" s="1">
         <v>6</v>
-      </c>
-      <c r="B280" s="1">
-        <v>21</v>
       </c>
       <c r="C280" s="1" t="str">
         <f>IF(GraphicMatrix!W8="0","0,1",IF(GraphicMatrix!W8="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D280" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>6,21=0,1</v>
+        <f>A280&amp;","&amp;B280&amp;"="&amp;C280</f>
+        <v>21,6=1,0</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
+        <v>21</v>
+      </c>
+      <c r="B281" s="1">
         <v>7</v>
-      </c>
-      <c r="B281" s="1">
-        <v>21</v>
       </c>
       <c r="C281" s="1" t="str">
         <f>IF(GraphicMatrix!W9="0","0,1",IF(GraphicMatrix!W9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D281" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>7,21=0,1</v>
+        <f>A281&amp;","&amp;B281&amp;"="&amp;C281</f>
+        <v>21,7=1,0</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
+        <v>21</v>
+      </c>
+      <c r="B282" s="1">
         <v>8</v>
-      </c>
-      <c r="B282" s="1">
-        <v>21</v>
       </c>
       <c r="C282" s="1" t="str">
         <f>IF(GraphicMatrix!W10="0","0,1",IF(GraphicMatrix!W10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D282" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>8,21=0,1</v>
+        <f>A282&amp;","&amp;B282&amp;"="&amp;C282</f>
+        <v>21,8=1,0</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
+        <v>21</v>
+      </c>
+      <c r="B283" s="1">
         <v>9</v>
-      </c>
-      <c r="B283" s="1">
-        <v>21</v>
       </c>
       <c r="C283" s="1" t="str">
         <f>IF(GraphicMatrix!W11="0","0,1",IF(GraphicMatrix!W11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D283" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>9,21=0,1</v>
+        <f>A283&amp;","&amp;B283&amp;"="&amp;C283</f>
+        <v>21,9=1,0</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
+        <v>21</v>
+      </c>
+      <c r="B284" s="1">
         <v>10</v>
-      </c>
-      <c r="B284" s="1">
-        <v>21</v>
       </c>
       <c r="C284" s="1" t="str">
         <f>IF(GraphicMatrix!W12="0","0,1",IF(GraphicMatrix!W12="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D284" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>10,21=0,1</v>
+        <f>A284&amp;","&amp;B284&amp;"="&amp;C284</f>
+        <v>21,10=1,0</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
+        <v>21</v>
+      </c>
+      <c r="B285" s="1">
         <v>11</v>
-      </c>
-      <c r="B285" s="1">
-        <v>21</v>
       </c>
       <c r="C285" s="1" t="str">
         <f>IF(GraphicMatrix!W13="0","0,1",IF(GraphicMatrix!W13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D285" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>11,21=0,1</v>
+        <f>A285&amp;","&amp;B285&amp;"="&amp;C285</f>
+        <v>21,11=1,0</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
+        <v>21</v>
+      </c>
+      <c r="B286" s="1">
         <v>12</v>
-      </c>
-      <c r="B286" s="1">
-        <v>21</v>
       </c>
       <c r="C286" s="1" t="str">
         <f>IF(GraphicMatrix!W14="0","0,1",IF(GraphicMatrix!W14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D286" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>12,21=0,1</v>
+        <f>A286&amp;","&amp;B286&amp;"="&amp;C286</f>
+        <v>21,12=0,1</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B287" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C287" s="1" t="str">
         <f>IF(GraphicMatrix!X2="0","0,1",IF(GraphicMatrix!X2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D287" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>0,22=0,1</v>
+        <f>A287&amp;","&amp;B287&amp;"="&amp;C287</f>
+        <v>22,0=1,0</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
+        <v>22</v>
+      </c>
+      <c r="B288" s="1">
         <v>1</v>
-      </c>
-      <c r="B288" s="1">
-        <v>22</v>
       </c>
       <c r="C288" s="1" t="str">
         <f>IF(GraphicMatrix!X3="0","0,1",IF(GraphicMatrix!X3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D288" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>1,22=0,1</v>
+        <f>A288&amp;","&amp;B288&amp;"="&amp;C288</f>
+        <v>22,1=1,0</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
+        <v>22</v>
+      </c>
+      <c r="B289" s="1">
         <v>2</v>
-      </c>
-      <c r="B289" s="1">
-        <v>22</v>
       </c>
       <c r="C289" s="1" t="str">
         <f>IF(GraphicMatrix!X4="0","0,1",IF(GraphicMatrix!X4="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D289" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>2,22=0,1</v>
+        <f>A289&amp;","&amp;B289&amp;"="&amp;C289</f>
+        <v>22,2=1,0</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B290" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C290" s="1" t="str">
         <f>IF(GraphicMatrix!X5="0","0,1",IF(GraphicMatrix!X5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D290" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>3,22=0,1</v>
+        <f>A290&amp;","&amp;B290&amp;"="&amp;C290</f>
+        <v>22,3=0,1</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
+        <v>22</v>
+      </c>
+      <c r="B291" s="1">
         <v>4</v>
-      </c>
-      <c r="B291" s="1">
-        <v>22</v>
       </c>
       <c r="C291" s="1" t="str">
         <f>IF(GraphicMatrix!X6="0","0,1",IF(GraphicMatrix!X6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D291" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>4,22=0,1</v>
+        <f>A291&amp;","&amp;B291&amp;"="&amp;C291</f>
+        <v>22,4=1,0</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
+        <v>22</v>
+      </c>
+      <c r="B292" s="1">
         <v>5</v>
-      </c>
-      <c r="B292" s="1">
-        <v>22</v>
       </c>
       <c r="C292" s="1" t="str">
         <f>IF(GraphicMatrix!X7="0","0,1",IF(GraphicMatrix!X7="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D292" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>5,22=0,1</v>
+        <f>A292&amp;","&amp;B292&amp;"="&amp;C292</f>
+        <v>22,5=0,1</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
+        <v>22</v>
+      </c>
+      <c r="B293" s="1">
         <v>6</v>
-      </c>
-      <c r="B293" s="1">
-        <v>22</v>
       </c>
       <c r="C293" s="1" t="str">
         <f>IF(GraphicMatrix!X8="0","0,1",IF(GraphicMatrix!X8="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D293" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>6,22=0,1</v>
+        <f>A293&amp;","&amp;B293&amp;"="&amp;C293</f>
+        <v>22,6=0,1</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
+        <v>22</v>
+      </c>
+      <c r="B294" s="1">
         <v>7</v>
-      </c>
-      <c r="B294" s="1">
-        <v>22</v>
       </c>
       <c r="C294" s="1" t="str">
         <f>IF(GraphicMatrix!X9="0","0,1",IF(GraphicMatrix!X9="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D294" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>7,22=0,1</v>
+        <f>A294&amp;","&amp;B294&amp;"="&amp;C294</f>
+        <v>22,7=0,1</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
+        <v>22</v>
+      </c>
+      <c r="B295" s="1">
         <v>8</v>
-      </c>
-      <c r="B295" s="1">
-        <v>22</v>
       </c>
       <c r="C295" s="1" t="str">
         <f>IF(GraphicMatrix!X10="0","0,1",IF(GraphicMatrix!X10="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D295" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>8,22=0,1</v>
+        <f>A295&amp;","&amp;B295&amp;"="&amp;C295</f>
+        <v>22,8=0,1</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
+        <v>22</v>
+      </c>
+      <c r="B296" s="1">
         <v>9</v>
-      </c>
-      <c r="B296" s="1">
-        <v>22</v>
       </c>
       <c r="C296" s="1" t="str">
         <f>IF(GraphicMatrix!X11="0","0,1",IF(GraphicMatrix!X11="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D296" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>9,22=0,1</v>
+        <f>A296&amp;","&amp;B296&amp;"="&amp;C296</f>
+        <v>22,9=0,1</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
+        <v>22</v>
+      </c>
+      <c r="B297" s="1">
         <v>10</v>
-      </c>
-      <c r="B297" s="1">
-        <v>22</v>
       </c>
       <c r="C297" s="1" t="str">
         <f>IF(GraphicMatrix!X12="0","0,1",IF(GraphicMatrix!X12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D297" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>10,22=0,1</v>
+        <f>A297&amp;","&amp;B297&amp;"="&amp;C297</f>
+        <v>22,10=0,1</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
+        <v>22</v>
+      </c>
+      <c r="B298" s="1">
         <v>11</v>
-      </c>
-      <c r="B298" s="1">
-        <v>22</v>
       </c>
       <c r="C298" s="1" t="str">
         <f>IF(GraphicMatrix!X13="0","0,1",IF(GraphicMatrix!X13="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D298" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>11,22=0,1</v>
+        <f>A298&amp;","&amp;B298&amp;"="&amp;C298</f>
+        <v>22,11=1,0</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
+        <v>22</v>
+      </c>
+      <c r="B299" s="1">
         <v>12</v>
-      </c>
-      <c r="B299" s="1">
-        <v>22</v>
       </c>
       <c r="C299" s="1" t="str">
         <f>IF(GraphicMatrix!X14="0","0,1",IF(GraphicMatrix!X14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D299" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>12,22=0,1</v>
+        <f>A299&amp;","&amp;B299&amp;"="&amp;C299</f>
+        <v>22,12=0,1</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B300" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C300" s="1" t="str">
         <f>IF(GraphicMatrix!Y2="0","0,1",IF(GraphicMatrix!Y2="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D300" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>0,23=0,1</v>
+        <f>A300&amp;","&amp;B300&amp;"="&amp;C300</f>
+        <v>23,0=0,1</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
+        <v>23</v>
+      </c>
+      <c r="B301" s="1">
         <v>1</v>
-      </c>
-      <c r="B301" s="1">
-        <v>23</v>
       </c>
       <c r="C301" s="1" t="str">
         <f>IF(GraphicMatrix!Y3="0","0,1",IF(GraphicMatrix!Y3="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D301" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>1,23=0,1</v>
+        <f>A301&amp;","&amp;B301&amp;"="&amp;C301</f>
+        <v>23,1=0,1</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
+        <v>23</v>
+      </c>
+      <c r="B302" s="1">
         <v>2</v>
-      </c>
-      <c r="B302" s="1">
-        <v>23</v>
       </c>
       <c r="C302" s="1" t="str">
         <f>IF(GraphicMatrix!Y4="0","0,1",IF(GraphicMatrix!Y4="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D302" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>2,23=0,1</v>
+        <f>A302&amp;","&amp;B302&amp;"="&amp;C302</f>
+        <v>23,2=0,1</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B303" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C303" s="1" t="str">
         <f>IF(GraphicMatrix!Y5="0","0,1",IF(GraphicMatrix!Y5="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D303" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>3,23=0,1</v>
+        <f>A303&amp;","&amp;B303&amp;"="&amp;C303</f>
+        <v>23,3=0,1</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
+        <v>23</v>
+      </c>
+      <c r="B304" s="1">
         <v>4</v>
-      </c>
-      <c r="B304" s="1">
-        <v>23</v>
       </c>
       <c r="C304" s="1" t="str">
         <f>IF(GraphicMatrix!Y6="0","0,1",IF(GraphicMatrix!Y6="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D304" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>4,23=0,1</v>
+        <f>A304&amp;","&amp;B304&amp;"="&amp;C304</f>
+        <v>23,4=1,0</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
+        <v>23</v>
+      </c>
+      <c r="B305" s="1">
         <v>5</v>
-      </c>
-      <c r="B305" s="1">
-        <v>23</v>
       </c>
       <c r="C305" s="1" t="str">
         <f>IF(GraphicMatrix!Y7="0","0,1",IF(GraphicMatrix!Y7="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D305" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>5,23=0,1</v>
+        <f>A305&amp;","&amp;B305&amp;"="&amp;C305</f>
+        <v>23,5=1,0</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
+        <v>23</v>
+      </c>
+      <c r="B306" s="1">
         <v>6</v>
-      </c>
-      <c r="B306" s="1">
-        <v>23</v>
       </c>
       <c r="C306" s="1" t="str">
         <f>IF(GraphicMatrix!Y8="0","0,1",IF(GraphicMatrix!Y8="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D306" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>6,23=0,1</v>
+        <f>A306&amp;","&amp;B306&amp;"="&amp;C306</f>
+        <v>23,6=1,0</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
+        <v>23</v>
+      </c>
+      <c r="B307" s="1">
         <v>7</v>
-      </c>
-      <c r="B307" s="1">
-        <v>23</v>
       </c>
       <c r="C307" s="1" t="str">
         <f>IF(GraphicMatrix!Y9="0","0,1",IF(GraphicMatrix!Y9="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D307" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>7,23=0,1</v>
+        <f>A307&amp;","&amp;B307&amp;"="&amp;C307</f>
+        <v>23,7=1,0</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
+        <v>23</v>
+      </c>
+      <c r="B308" s="1">
         <v>8</v>
-      </c>
-      <c r="B308" s="1">
-        <v>23</v>
       </c>
       <c r="C308" s="1" t="str">
         <f>IF(GraphicMatrix!Y10="0","0,1",IF(GraphicMatrix!Y10="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D308" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>8,23=0,1</v>
+        <f>A308&amp;","&amp;B308&amp;"="&amp;C308</f>
+        <v>23,8=1,0</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
+        <v>23</v>
+      </c>
+      <c r="B309" s="1">
         <v>9</v>
-      </c>
-      <c r="B309" s="1">
-        <v>23</v>
       </c>
       <c r="C309" s="1" t="str">
         <f>IF(GraphicMatrix!Y11="0","0,1",IF(GraphicMatrix!Y11="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D309" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>9,23=0,1</v>
+        <f>A309&amp;","&amp;B309&amp;"="&amp;C309</f>
+        <v>23,9=1,0</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
+        <v>23</v>
+      </c>
+      <c r="B310" s="1">
         <v>10</v>
-      </c>
-      <c r="B310" s="1">
-        <v>23</v>
       </c>
       <c r="C310" s="1" t="str">
         <f>IF(GraphicMatrix!Y12="0","0,1",IF(GraphicMatrix!Y12="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D310" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>10,23=0,1</v>
+        <f>A310&amp;","&amp;B310&amp;"="&amp;C310</f>
+        <v>23,10=0,1</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
+        <v>23</v>
+      </c>
+      <c r="B311" s="1">
         <v>11</v>
-      </c>
-      <c r="B311" s="1">
-        <v>23</v>
       </c>
       <c r="C311" s="1" t="str">
         <f>IF(GraphicMatrix!Y13="0","0,1",IF(GraphicMatrix!Y13="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D311" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>11,23=0,1</v>
+        <f>A311&amp;","&amp;B311&amp;"="&amp;C311</f>
+        <v>23,11=0,1</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
+        <v>23</v>
+      </c>
+      <c r="B312" s="1">
         <v>12</v>
-      </c>
-      <c r="B312" s="1">
-        <v>23</v>
       </c>
       <c r="C312" s="1" t="str">
         <f>IF(GraphicMatrix!Y14="0","0,1",IF(GraphicMatrix!Y14="1","1,0",""))</f>
         <v>0,1</v>
       </c>
       <c r="D312" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>12,23=0,1</v>
+        <f>A312&amp;","&amp;B312&amp;"="&amp;C312</f>
+        <v>23,12=0,1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lGTcVFD1BkhqWAfXwG5mydEq4pm3K8uKM96tGb9VHKnZAZTgrEnhYLcCTjfuTVUih8bJTbNCi0xnRFZKey9pBw==" saltValue="E7lDclUigaAcirHAMmbhNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xraRNw+Bi7jyVL8QsdE97yDrPv+U55jNLLKbUI9w1WJ/pb89NNZI1YQEXrLsywcOJcVElGEYEbsdXOTdZbjALg==" saltValue="pd+6JmwR/SyFLRGOBNrrNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FarthorlPacMan/DataFiles/levelCreator.xlsx
+++ b/FarthorlPacMan/DataFiles/levelCreator.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyan.ivanov\Desktop\FarthorlPacMan\trunk\FarthorlPacMan\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="GraphicMatrix" sheetId="1" r:id="rId1"/>
     <sheet name="Matrix - result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,23 +371,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -423,23 +406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>0</v>
@@ -800,19 +766,19 @@
         <v>3</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>3</v>
@@ -1730,7 +1696,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="srW5Qi5SjKEK+HcMoN36gYoYp/0E6gOzEyfVGM7O0GaF8WQ+pv/2C+JGQfxbFZvSbJG6yqN4FbBaxnnK+3P2ug==" saltValue="2FhCcDzrr5Sxp3opMbWX0g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nT0g/K6+1uzUfh5uAzAqcG8bZuMt+M+UPZH/vKMFYAtiDiYZWdeRjJN3y+eWF0ZvLNnPBMOazF7yXrnkgFxafw==" saltValue="wtT3OpfVdqQ8zjmElFvwVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:Y14">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"1"</formula>
@@ -1744,6 +1710,11 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Y14">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1754,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A1:C1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1748,7 @@
         <v>0,1</v>
       </c>
       <c r="D1" s="13" t="str">
-        <f>A1&amp;","&amp;B1&amp;"="&amp;C1</f>
+        <f t="shared" ref="D1:D64" si="0">A1&amp;","&amp;B1&amp;"="&amp;C1</f>
         <v>0,0=0,1</v>
       </c>
     </row>
@@ -1793,7 +1764,7 @@
         <v>0,1</v>
       </c>
       <c r="D2" s="13" t="str">
-        <f>A2&amp;","&amp;B2&amp;"="&amp;C2</f>
+        <f t="shared" si="0"/>
         <v>0,1=0,1</v>
       </c>
     </row>
@@ -1809,7 +1780,7 @@
         <v>0,1</v>
       </c>
       <c r="D3" s="13" t="str">
-        <f>A3&amp;","&amp;B3&amp;"="&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>0,2=0,1</v>
       </c>
     </row>
@@ -1825,7 +1796,7 @@
         <v>0,1</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f>A4&amp;","&amp;B4&amp;"="&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>0,3=0,1</v>
       </c>
     </row>
@@ -1841,7 +1812,7 @@
         <v>0,1</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f>A5&amp;","&amp;B5&amp;"="&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>0,4=0,1</v>
       </c>
     </row>
@@ -1857,7 +1828,7 @@
         <v>0,1</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>A6&amp;","&amp;B6&amp;"="&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>0,5=0,1</v>
       </c>
     </row>
@@ -1873,7 +1844,7 @@
         <v>0,1</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f>A7&amp;","&amp;B7&amp;"="&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>0,6=0,1</v>
       </c>
     </row>
@@ -1889,7 +1860,7 @@
         <v>0,1</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f>A8&amp;","&amp;B8&amp;"="&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>0,7=0,1</v>
       </c>
     </row>
@@ -1905,7 +1876,7 @@
         <v>0,1</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f>A9&amp;","&amp;B9&amp;"="&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>0,8=0,1</v>
       </c>
     </row>
@@ -1921,7 +1892,7 @@
         <v>0,1</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f>A10&amp;","&amp;B10&amp;"="&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>0,9=0,1</v>
       </c>
     </row>
@@ -1937,7 +1908,7 @@
         <v>0,1</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f>A11&amp;","&amp;B11&amp;"="&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>0,10=0,1</v>
       </c>
     </row>
@@ -1953,7 +1924,7 @@
         <v>0,1</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f>A12&amp;","&amp;B12&amp;"="&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>0,11=0,1</v>
       </c>
     </row>
@@ -1969,7 +1940,7 @@
         <v>0,1</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f>A13&amp;","&amp;B13&amp;"="&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>0,12=0,1</v>
       </c>
     </row>
@@ -1985,7 +1956,7 @@
         <v>0,1</v>
       </c>
       <c r="D14" s="13" t="str">
-        <f>A14&amp;","&amp;B14&amp;"="&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>1,0=0,1</v>
       </c>
     </row>
@@ -2001,7 +1972,7 @@
         <v>1,0</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f>A15&amp;","&amp;B15&amp;"="&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>1,1=1,0</v>
       </c>
     </row>
@@ -2017,7 +1988,7 @@
         <v>0,1</v>
       </c>
       <c r="D16" s="13" t="str">
-        <f>A16&amp;","&amp;B16&amp;"="&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>1,2=0,1</v>
       </c>
     </row>
@@ -2033,7 +2004,7 @@
         <v>0,1</v>
       </c>
       <c r="D17" s="13" t="str">
-        <f>A17&amp;","&amp;B17&amp;"="&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>1,3=0,1</v>
       </c>
     </row>
@@ -2049,7 +2020,7 @@
         <v>0,1</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f>A18&amp;","&amp;B18&amp;"="&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>1,4=0,1</v>
       </c>
     </row>
@@ -2065,7 +2036,7 @@
         <v>1,0</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f>A19&amp;","&amp;B19&amp;"="&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>1,5=1,0</v>
       </c>
     </row>
@@ -2081,7 +2052,7 @@
         <v>1,0</v>
       </c>
       <c r="D20" s="13" t="str">
-        <f>A20&amp;","&amp;B20&amp;"="&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>1,6=1,0</v>
       </c>
     </row>
@@ -2097,7 +2068,7 @@
         <v>1,0</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f>A21&amp;","&amp;B21&amp;"="&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>1,7=1,0</v>
       </c>
     </row>
@@ -2113,7 +2084,7 @@
         <v>0,1</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f>A22&amp;","&amp;B22&amp;"="&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>1,8=0,1</v>
       </c>
     </row>
@@ -2129,7 +2100,7 @@
         <v>1,0</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f>A23&amp;","&amp;B23&amp;"="&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>1,9=1,0</v>
       </c>
     </row>
@@ -2145,7 +2116,7 @@
         <v>0,1</v>
       </c>
       <c r="D24" s="13" t="str">
-        <f>A24&amp;","&amp;B24&amp;"="&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>1,10=0,1</v>
       </c>
     </row>
@@ -2161,7 +2132,7 @@
         <v>1,0</v>
       </c>
       <c r="D25" s="13" t="str">
-        <f>A25&amp;","&amp;B25&amp;"="&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>1,11=1,0</v>
       </c>
     </row>
@@ -2177,7 +2148,7 @@
         <v>0,1</v>
       </c>
       <c r="D26" s="13" t="str">
-        <f>A26&amp;","&amp;B26&amp;"="&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>1,12=0,1</v>
       </c>
     </row>
@@ -2193,7 +2164,7 @@
         <v>0,1</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f>A27&amp;","&amp;B27&amp;"="&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>2,0=0,1</v>
       </c>
     </row>
@@ -2209,7 +2180,7 @@
         <v>1,0</v>
       </c>
       <c r="D28" s="13" t="str">
-        <f>A28&amp;","&amp;B28&amp;"="&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>2,1=1,0</v>
       </c>
     </row>
@@ -2225,7 +2196,7 @@
         <v>0,1</v>
       </c>
       <c r="D29" s="13" t="str">
-        <f>A29&amp;","&amp;B29&amp;"="&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>2,2=0,1</v>
       </c>
     </row>
@@ -2241,7 +2212,7 @@
         <v>0,1</v>
       </c>
       <c r="D30" s="13" t="str">
-        <f>A30&amp;","&amp;B30&amp;"="&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>2,3=0,1</v>
       </c>
     </row>
@@ -2257,7 +2228,7 @@
         <v>0,1</v>
       </c>
       <c r="D31" s="13" t="str">
-        <f>A31&amp;","&amp;B31&amp;"="&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>2,4=0,1</v>
       </c>
     </row>
@@ -2273,7 +2244,7 @@
         <v>1,0</v>
       </c>
       <c r="D32" s="13" t="str">
-        <f>A32&amp;","&amp;B32&amp;"="&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>2,5=1,0</v>
       </c>
     </row>
@@ -2289,7 +2260,7 @@
         <v>0,1</v>
       </c>
       <c r="D33" s="13" t="str">
-        <f>A33&amp;","&amp;B33&amp;"="&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>2,6=0,1</v>
       </c>
     </row>
@@ -2305,7 +2276,7 @@
         <v>0,1</v>
       </c>
       <c r="D34" s="13" t="str">
-        <f>A34&amp;","&amp;B34&amp;"="&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>2,7=0,1</v>
       </c>
     </row>
@@ -2321,7 +2292,7 @@
         <v>0,1</v>
       </c>
       <c r="D35" s="13" t="str">
-        <f>A35&amp;","&amp;B35&amp;"="&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>2,8=0,1</v>
       </c>
     </row>
@@ -2337,7 +2308,7 @@
         <v>1,0</v>
       </c>
       <c r="D36" s="13" t="str">
-        <f>A36&amp;","&amp;B36&amp;"="&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>2,9=1,0</v>
       </c>
     </row>
@@ -2353,7 +2324,7 @@
         <v>0,1</v>
       </c>
       <c r="D37" s="13" t="str">
-        <f>A37&amp;","&amp;B37&amp;"="&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>2,10=0,1</v>
       </c>
     </row>
@@ -2369,7 +2340,7 @@
         <v>0,1</v>
       </c>
       <c r="D38" s="13" t="str">
-        <f>A38&amp;","&amp;B38&amp;"="&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>2,11=0,1</v>
       </c>
     </row>
@@ -2385,7 +2356,7 @@
         <v>0,1</v>
       </c>
       <c r="D39" s="13" t="str">
-        <f>A39&amp;","&amp;B39&amp;"="&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>2,12=0,1</v>
       </c>
     </row>
@@ -2401,7 +2372,7 @@
         <v>0,1</v>
       </c>
       <c r="D40" s="13" t="str">
-        <f>A40&amp;","&amp;B40&amp;"="&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>3,0=0,1</v>
       </c>
     </row>
@@ -2417,7 +2388,7 @@
         <v>1,0</v>
       </c>
       <c r="D41" s="13" t="str">
-        <f>A41&amp;","&amp;B41&amp;"="&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>3,1=1,0</v>
       </c>
     </row>
@@ -2433,7 +2404,7 @@
         <v>1,0</v>
       </c>
       <c r="D42" s="13" t="str">
-        <f>A42&amp;","&amp;B42&amp;"="&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>3,2=1,0</v>
       </c>
     </row>
@@ -2449,7 +2420,7 @@
         <v>1,0</v>
       </c>
       <c r="D43" s="13" t="str">
-        <f>A43&amp;","&amp;B43&amp;"="&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>3,3=1,0</v>
       </c>
     </row>
@@ -2465,7 +2436,7 @@
         <v>0,1</v>
       </c>
       <c r="D44" s="13" t="str">
-        <f>A44&amp;","&amp;B44&amp;"="&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>3,4=0,1</v>
       </c>
     </row>
@@ -2481,7 +2452,7 @@
         <v>1,0</v>
       </c>
       <c r="D45" s="13" t="str">
-        <f>A45&amp;","&amp;B45&amp;"="&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>3,5=1,0</v>
       </c>
     </row>
@@ -2497,7 +2468,7 @@
         <v>0,1</v>
       </c>
       <c r="D46" s="13" t="str">
-        <f>A46&amp;","&amp;B46&amp;"="&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>3,6=0,1</v>
       </c>
     </row>
@@ -2513,7 +2484,7 @@
         <v>1,0</v>
       </c>
       <c r="D47" s="13" t="str">
-        <f>A47&amp;","&amp;B47&amp;"="&amp;C47</f>
+        <f t="shared" si="0"/>
         <v>3,7=1,0</v>
       </c>
     </row>
@@ -2529,7 +2500,7 @@
         <v>0,1</v>
       </c>
       <c r="D48" s="13" t="str">
-        <f>A48&amp;","&amp;B48&amp;"="&amp;C48</f>
+        <f t="shared" si="0"/>
         <v>3,8=0,1</v>
       </c>
     </row>
@@ -2545,7 +2516,7 @@
         <v>1,0</v>
       </c>
       <c r="D49" s="13" t="str">
-        <f>A49&amp;","&amp;B49&amp;"="&amp;C49</f>
+        <f t="shared" si="0"/>
         <v>3,9=1,0</v>
       </c>
     </row>
@@ -2561,7 +2532,7 @@
         <v>1,0</v>
       </c>
       <c r="D50" s="13" t="str">
-        <f>A50&amp;","&amp;B50&amp;"="&amp;C50</f>
+        <f t="shared" si="0"/>
         <v>3,10=1,0</v>
       </c>
     </row>
@@ -2577,7 +2548,7 @@
         <v>1,0</v>
       </c>
       <c r="D51" s="13" t="str">
-        <f>A51&amp;","&amp;B51&amp;"="&amp;C51</f>
+        <f t="shared" si="0"/>
         <v>3,11=1,0</v>
       </c>
     </row>
@@ -2593,7 +2564,7 @@
         <v>0,1</v>
       </c>
       <c r="D52" s="13" t="str">
-        <f>A52&amp;","&amp;B52&amp;"="&amp;C52</f>
+        <f t="shared" si="0"/>
         <v>3,12=0,1</v>
       </c>
     </row>
@@ -2609,7 +2580,7 @@
         <v>0,1</v>
       </c>
       <c r="D53" s="13" t="str">
-        <f>A53&amp;","&amp;B53&amp;"="&amp;C53</f>
+        <f t="shared" si="0"/>
         <v>4,0=0,1</v>
       </c>
     </row>
@@ -2625,7 +2596,7 @@
         <v>0,1</v>
       </c>
       <c r="D54" s="13" t="str">
-        <f>A54&amp;","&amp;B54&amp;"="&amp;C54</f>
+        <f t="shared" si="0"/>
         <v>4,1=0,1</v>
       </c>
     </row>
@@ -2641,7 +2612,7 @@
         <v>0,1</v>
       </c>
       <c r="D55" s="13" t="str">
-        <f>A55&amp;","&amp;B55&amp;"="&amp;C55</f>
+        <f t="shared" si="0"/>
         <v>4,2=0,1</v>
       </c>
     </row>
@@ -2657,7 +2628,7 @@
         <v>0,1</v>
       </c>
       <c r="D56" s="13" t="str">
-        <f>A56&amp;","&amp;B56&amp;"="&amp;C56</f>
+        <f t="shared" si="0"/>
         <v>4,3=0,1</v>
       </c>
     </row>
@@ -2673,7 +2644,7 @@
         <v>0,1</v>
       </c>
       <c r="D57" s="13" t="str">
-        <f>A57&amp;","&amp;B57&amp;"="&amp;C57</f>
+        <f t="shared" si="0"/>
         <v>4,4=0,1</v>
       </c>
     </row>
@@ -2689,7 +2660,7 @@
         <v>0,1</v>
       </c>
       <c r="D58" s="13" t="str">
-        <f>A58&amp;","&amp;B58&amp;"="&amp;C58</f>
+        <f t="shared" si="0"/>
         <v>4,5=0,1</v>
       </c>
     </row>
@@ -2705,7 +2676,7 @@
         <v>0,1</v>
       </c>
       <c r="D59" s="13" t="str">
-        <f>A59&amp;","&amp;B59&amp;"="&amp;C59</f>
+        <f t="shared" si="0"/>
         <v>4,6=0,1</v>
       </c>
     </row>
@@ -2721,7 +2692,7 @@
         <v>1,0</v>
       </c>
       <c r="D60" s="13" t="str">
-        <f>A60&amp;","&amp;B60&amp;"="&amp;C60</f>
+        <f t="shared" si="0"/>
         <v>4,7=1,0</v>
       </c>
     </row>
@@ -2737,7 +2708,7 @@
         <v>0,1</v>
       </c>
       <c r="D61" s="13" t="str">
-        <f>A61&amp;","&amp;B61&amp;"="&amp;C61</f>
+        <f t="shared" si="0"/>
         <v>4,8=0,1</v>
       </c>
     </row>
@@ -2753,7 +2724,7 @@
         <v>0,1</v>
       </c>
       <c r="D62" s="13" t="str">
-        <f>A62&amp;","&amp;B62&amp;"="&amp;C62</f>
+        <f t="shared" si="0"/>
         <v>4,9=0,1</v>
       </c>
     </row>
@@ -2769,7 +2740,7 @@
         <v>0,1</v>
       </c>
       <c r="D63" s="13" t="str">
-        <f>A63&amp;","&amp;B63&amp;"="&amp;C63</f>
+        <f t="shared" si="0"/>
         <v>4,10=0,1</v>
       </c>
     </row>
@@ -2785,7 +2756,7 @@
         <v>0,1</v>
       </c>
       <c r="D64" s="13" t="str">
-        <f>A64&amp;","&amp;B64&amp;"="&amp;C64</f>
+        <f t="shared" si="0"/>
         <v>4,11=0,1</v>
       </c>
     </row>
@@ -2801,7 +2772,7 @@
         <v>0,1</v>
       </c>
       <c r="D65" s="13" t="str">
-        <f>A65&amp;","&amp;B65&amp;"="&amp;C65</f>
+        <f t="shared" ref="D65:D128" si="1">A65&amp;","&amp;B65&amp;"="&amp;C65</f>
         <v>4,12=0,1</v>
       </c>
     </row>
@@ -2817,7 +2788,7 @@
         <v>0,1</v>
       </c>
       <c r="D66" s="13" t="str">
-        <f>A66&amp;","&amp;B66&amp;"="&amp;C66</f>
+        <f t="shared" si="1"/>
         <v>5,0=0,1</v>
       </c>
     </row>
@@ -2833,7 +2804,7 @@
         <v>1,0</v>
       </c>
       <c r="D67" s="13" t="str">
-        <f>A67&amp;","&amp;B67&amp;"="&amp;C67</f>
+        <f t="shared" si="1"/>
         <v>5,1=1,0</v>
       </c>
     </row>
@@ -2849,7 +2820,7 @@
         <v>1,0</v>
       </c>
       <c r="D68" s="13" t="str">
-        <f>A68&amp;","&amp;B68&amp;"="&amp;C68</f>
+        <f t="shared" si="1"/>
         <v>5,2=1,0</v>
       </c>
     </row>
@@ -2865,7 +2836,7 @@
         <v>1,0</v>
       </c>
       <c r="D69" s="13" t="str">
-        <f>A69&amp;","&amp;B69&amp;"="&amp;C69</f>
+        <f t="shared" si="1"/>
         <v>5,3=1,0</v>
       </c>
     </row>
@@ -2881,7 +2852,7 @@
         <v>1,0</v>
       </c>
       <c r="D70" s="13" t="str">
-        <f>A70&amp;","&amp;B70&amp;"="&amp;C70</f>
+        <f t="shared" si="1"/>
         <v>5,4=1,0</v>
       </c>
     </row>
@@ -2897,7 +2868,7 @@
         <v>1,0</v>
       </c>
       <c r="D71" s="13" t="str">
-        <f>A71&amp;","&amp;B71&amp;"="&amp;C71</f>
+        <f t="shared" si="1"/>
         <v>5,5=1,0</v>
       </c>
     </row>
@@ -2913,7 +2884,7 @@
         <v>0,1</v>
       </c>
       <c r="D72" s="13" t="str">
-        <f>A72&amp;","&amp;B72&amp;"="&amp;C72</f>
+        <f t="shared" si="1"/>
         <v>5,6=0,1</v>
       </c>
     </row>
@@ -2929,7 +2900,7 @@
         <v>1,0</v>
       </c>
       <c r="D73" s="13" t="str">
-        <f>A73&amp;","&amp;B73&amp;"="&amp;C73</f>
+        <f t="shared" si="1"/>
         <v>5,7=1,0</v>
       </c>
     </row>
@@ -2945,7 +2916,7 @@
         <v>1,0</v>
       </c>
       <c r="D74" s="13" t="str">
-        <f>A74&amp;","&amp;B74&amp;"="&amp;C74</f>
+        <f t="shared" si="1"/>
         <v>5,8=1,0</v>
       </c>
     </row>
@@ -2961,7 +2932,7 @@
         <v>1,0</v>
       </c>
       <c r="D75" s="13" t="str">
-        <f>A75&amp;","&amp;B75&amp;"="&amp;C75</f>
+        <f t="shared" si="1"/>
         <v>5,9=1,0</v>
       </c>
     </row>
@@ -2977,7 +2948,7 @@
         <v>1,0</v>
       </c>
       <c r="D76" s="13" t="str">
-        <f>A76&amp;","&amp;B76&amp;"="&amp;C76</f>
+        <f t="shared" si="1"/>
         <v>5,10=1,0</v>
       </c>
     </row>
@@ -2993,7 +2964,7 @@
         <v>1,0</v>
       </c>
       <c r="D77" s="13" t="str">
-        <f>A77&amp;","&amp;B77&amp;"="&amp;C77</f>
+        <f t="shared" si="1"/>
         <v>5,11=1,0</v>
       </c>
     </row>
@@ -3009,7 +2980,7 @@
         <v>1,0</v>
       </c>
       <c r="D78" s="13" t="str">
-        <f>A78&amp;","&amp;B78&amp;"="&amp;C78</f>
+        <f t="shared" si="1"/>
         <v>5,12=1,0</v>
       </c>
     </row>
@@ -3025,7 +2996,7 @@
         <v>0,1</v>
       </c>
       <c r="D79" s="13" t="str">
-        <f>A79&amp;","&amp;B79&amp;"="&amp;C79</f>
+        <f t="shared" si="1"/>
         <v>6,0=0,1</v>
       </c>
     </row>
@@ -3041,7 +3012,7 @@
         <v>0,1</v>
       </c>
       <c r="D80" s="13" t="str">
-        <f>A80&amp;","&amp;B80&amp;"="&amp;C80</f>
+        <f t="shared" si="1"/>
         <v>6,1=0,1</v>
       </c>
     </row>
@@ -3057,7 +3028,7 @@
         <v>0,1</v>
       </c>
       <c r="D81" s="13" t="str">
-        <f>A81&amp;","&amp;B81&amp;"="&amp;C81</f>
+        <f t="shared" si="1"/>
         <v>6,2=0,1</v>
       </c>
     </row>
@@ -3073,7 +3044,7 @@
         <v>0,1</v>
       </c>
       <c r="D82" s="13" t="str">
-        <f>A82&amp;","&amp;B82&amp;"="&amp;C82</f>
+        <f t="shared" si="1"/>
         <v>6,3=0,1</v>
       </c>
     </row>
@@ -3089,7 +3060,7 @@
         <v>0,1</v>
       </c>
       <c r="D83" s="13" t="str">
-        <f>A83&amp;","&amp;B83&amp;"="&amp;C83</f>
+        <f t="shared" si="1"/>
         <v>6,4=0,1</v>
       </c>
     </row>
@@ -3105,7 +3076,7 @@
         <v>0,1</v>
       </c>
       <c r="D84" s="13" t="str">
-        <f>A84&amp;","&amp;B84&amp;"="&amp;C84</f>
+        <f t="shared" si="1"/>
         <v>6,5=0,1</v>
       </c>
     </row>
@@ -3121,7 +3092,7 @@
         <v>0,1</v>
       </c>
       <c r="D85" s="13" t="str">
-        <f>A85&amp;","&amp;B85&amp;"="&amp;C85</f>
+        <f t="shared" si="1"/>
         <v>6,6=0,1</v>
       </c>
     </row>
@@ -3137,7 +3108,7 @@
         <v>0,1</v>
       </c>
       <c r="D86" s="13" t="str">
-        <f>A86&amp;","&amp;B86&amp;"="&amp;C86</f>
+        <f t="shared" si="1"/>
         <v>6,7=0,1</v>
       </c>
     </row>
@@ -3153,7 +3124,7 @@
         <v>0,1</v>
       </c>
       <c r="D87" s="13" t="str">
-        <f>A87&amp;","&amp;B87&amp;"="&amp;C87</f>
+        <f t="shared" si="1"/>
         <v>6,8=0,1</v>
       </c>
     </row>
@@ -3169,7 +3140,7 @@
         <v>0,1</v>
       </c>
       <c r="D88" s="13" t="str">
-        <f>A88&amp;","&amp;B88&amp;"="&amp;C88</f>
+        <f t="shared" si="1"/>
         <v>6,9=0,1</v>
       </c>
     </row>
@@ -3185,7 +3156,7 @@
         <v>0,1</v>
       </c>
       <c r="D89" s="13" t="str">
-        <f>A89&amp;","&amp;B89&amp;"="&amp;C89</f>
+        <f t="shared" si="1"/>
         <v>6,10=0,1</v>
       </c>
     </row>
@@ -3201,7 +3172,7 @@
         <v>0,1</v>
       </c>
       <c r="D90" s="13" t="str">
-        <f>A90&amp;","&amp;B90&amp;"="&amp;C90</f>
+        <f t="shared" si="1"/>
         <v>6,11=0,1</v>
       </c>
     </row>
@@ -3217,7 +3188,7 @@
         <v>0,1</v>
       </c>
       <c r="D91" s="13" t="str">
-        <f>A91&amp;","&amp;B91&amp;"="&amp;C91</f>
+        <f t="shared" si="1"/>
         <v>6,12=0,1</v>
       </c>
     </row>
@@ -3233,7 +3204,7 @@
         <v>1,0</v>
       </c>
       <c r="D92" s="13" t="str">
-        <f>A92&amp;","&amp;B92&amp;"="&amp;C92</f>
+        <f t="shared" si="1"/>
         <v>7,0=1,0</v>
       </c>
     </row>
@@ -3249,7 +3220,7 @@
         <v>1,0</v>
       </c>
       <c r="D93" s="13" t="str">
-        <f>A93&amp;","&amp;B93&amp;"="&amp;C93</f>
+        <f t="shared" si="1"/>
         <v>7,1=1,0</v>
       </c>
     </row>
@@ -3265,7 +3236,7 @@
         <v>1,0</v>
       </c>
       <c r="D94" s="13" t="str">
-        <f>A94&amp;","&amp;B94&amp;"="&amp;C94</f>
+        <f t="shared" si="1"/>
         <v>7,2=1,0</v>
       </c>
     </row>
@@ -3281,7 +3252,7 @@
         <v>1,0</v>
       </c>
       <c r="D95" s="13" t="str">
-        <f>A95&amp;","&amp;B95&amp;"="&amp;C95</f>
+        <f t="shared" si="1"/>
         <v>7,3=1,0</v>
       </c>
     </row>
@@ -3297,7 +3268,7 @@
         <v>0,1</v>
       </c>
       <c r="D96" s="13" t="str">
-        <f>A96&amp;","&amp;B96&amp;"="&amp;C96</f>
+        <f t="shared" si="1"/>
         <v>7,4=0,1</v>
       </c>
     </row>
@@ -3313,7 +3284,7 @@
         <v>1,0</v>
       </c>
       <c r="D97" s="13" t="str">
-        <f>A97&amp;","&amp;B97&amp;"="&amp;C97</f>
+        <f t="shared" si="1"/>
         <v>7,5=1,0</v>
       </c>
     </row>
@@ -3329,7 +3300,7 @@
         <v>0,1</v>
       </c>
       <c r="D98" s="13" t="str">
-        <f>A98&amp;","&amp;B98&amp;"="&amp;C98</f>
+        <f t="shared" si="1"/>
         <v>7,6=0,1</v>
       </c>
     </row>
@@ -3345,7 +3316,7 @@
         <v>1,0</v>
       </c>
       <c r="D99" s="13" t="str">
-        <f>A99&amp;","&amp;B99&amp;"="&amp;C99</f>
+        <f t="shared" si="1"/>
         <v>7,7=1,0</v>
       </c>
     </row>
@@ -3361,7 +3332,7 @@
         <v>1,0</v>
       </c>
       <c r="D100" s="13" t="str">
-        <f>A100&amp;","&amp;B100&amp;"="&amp;C100</f>
+        <f t="shared" si="1"/>
         <v>7,8=1,0</v>
       </c>
     </row>
@@ -3377,7 +3348,7 @@
         <v>1,0</v>
       </c>
       <c r="D101" s="13" t="str">
-        <f>A101&amp;","&amp;B101&amp;"="&amp;C101</f>
+        <f t="shared" si="1"/>
         <v>7,9=1,0</v>
       </c>
     </row>
@@ -3393,7 +3364,7 @@
         <v>1,0</v>
       </c>
       <c r="D102" s="13" t="str">
-        <f>A102&amp;","&amp;B102&amp;"="&amp;C102</f>
+        <f t="shared" si="1"/>
         <v>7,10=1,0</v>
       </c>
     </row>
@@ -3409,7 +3380,7 @@
         <v>1,0</v>
       </c>
       <c r="D103" s="13" t="str">
-        <f>A103&amp;","&amp;B103&amp;"="&amp;C103</f>
+        <f t="shared" si="1"/>
         <v>7,11=1,0</v>
       </c>
     </row>
@@ -3425,7 +3396,7 @@
         <v>0,1</v>
       </c>
       <c r="D104" s="13" t="str">
-        <f>A104&amp;","&amp;B104&amp;"="&amp;C104</f>
+        <f t="shared" si="1"/>
         <v>7,12=0,1</v>
       </c>
     </row>
@@ -3441,7 +3412,7 @@
         <v>0,1</v>
       </c>
       <c r="D105" s="13" t="str">
-        <f>A105&amp;","&amp;B105&amp;"="&amp;C105</f>
+        <f t="shared" si="1"/>
         <v>8,0=0,1</v>
       </c>
     </row>
@@ -3457,7 +3428,7 @@
         <v>0,1</v>
       </c>
       <c r="D106" s="13" t="str">
-        <f>A106&amp;","&amp;B106&amp;"="&amp;C106</f>
+        <f t="shared" si="1"/>
         <v>8,1=0,1</v>
       </c>
     </row>
@@ -3473,7 +3444,7 @@
         <v>0,1</v>
       </c>
       <c r="D107" s="13" t="str">
-        <f>A107&amp;","&amp;B107&amp;"="&amp;C107</f>
+        <f t="shared" si="1"/>
         <v>8,2=0,1</v>
       </c>
     </row>
@@ -3489,7 +3460,7 @@
         <v>1,0</v>
       </c>
       <c r="D108" s="13" t="str">
-        <f>A108&amp;","&amp;B108&amp;"="&amp;C108</f>
+        <f t="shared" si="1"/>
         <v>8,3=1,0</v>
       </c>
     </row>
@@ -3505,7 +3476,7 @@
         <v>0,1</v>
       </c>
       <c r="D109" s="13" t="str">
-        <f>A109&amp;","&amp;B109&amp;"="&amp;C109</f>
+        <f t="shared" si="1"/>
         <v>8,4=0,1</v>
       </c>
     </row>
@@ -3521,7 +3492,7 @@
         <v>1,0</v>
       </c>
       <c r="D110" s="13" t="str">
-        <f>A110&amp;","&amp;B110&amp;"="&amp;C110</f>
+        <f t="shared" si="1"/>
         <v>8,5=1,0</v>
       </c>
     </row>
@@ -3537,7 +3508,7 @@
         <v>0,1</v>
       </c>
       <c r="D111" s="13" t="str">
-        <f>A111&amp;","&amp;B111&amp;"="&amp;C111</f>
+        <f t="shared" si="1"/>
         <v>8,6=0,1</v>
       </c>
     </row>
@@ -3553,7 +3524,7 @@
         <v>0,1</v>
       </c>
       <c r="D112" s="13" t="str">
-        <f>A112&amp;","&amp;B112&amp;"="&amp;C112</f>
+        <f t="shared" si="1"/>
         <v>8,7=0,1</v>
       </c>
     </row>
@@ -3569,7 +3540,7 @@
         <v>0,1</v>
       </c>
       <c r="D113" s="13" t="str">
-        <f>A113&amp;","&amp;B113&amp;"="&amp;C113</f>
+        <f t="shared" si="1"/>
         <v>8,8=0,1</v>
       </c>
     </row>
@@ -3585,7 +3556,7 @@
         <v>0,1</v>
       </c>
       <c r="D114" s="13" t="str">
-        <f>A114&amp;","&amp;B114&amp;"="&amp;C114</f>
+        <f t="shared" si="1"/>
         <v>8,9=0,1</v>
       </c>
     </row>
@@ -3601,7 +3572,7 @@
         <v>0,1</v>
       </c>
       <c r="D115" s="13" t="str">
-        <f>A115&amp;","&amp;B115&amp;"="&amp;C115</f>
+        <f t="shared" si="1"/>
         <v>8,10=0,1</v>
       </c>
     </row>
@@ -3617,7 +3588,7 @@
         <v>0,1</v>
       </c>
       <c r="D116" s="13" t="str">
-        <f>A116&amp;","&amp;B116&amp;"="&amp;C116</f>
+        <f t="shared" si="1"/>
         <v>8,11=0,1</v>
       </c>
     </row>
@@ -3633,7 +3604,7 @@
         <v>0,1</v>
       </c>
       <c r="D117" s="13" t="str">
-        <f>A117&amp;","&amp;B117&amp;"="&amp;C117</f>
+        <f t="shared" si="1"/>
         <v>8,12=0,1</v>
       </c>
     </row>
@@ -3649,7 +3620,7 @@
         <v>1,0</v>
       </c>
       <c r="D118" s="13" t="str">
-        <f>A118&amp;","&amp;B118&amp;"="&amp;C118</f>
+        <f t="shared" si="1"/>
         <v>9,0=1,0</v>
       </c>
     </row>
@@ -3665,7 +3636,7 @@
         <v>1,0</v>
       </c>
       <c r="D119" s="13" t="str">
-        <f>A119&amp;","&amp;B119&amp;"="&amp;C119</f>
+        <f t="shared" si="1"/>
         <v>9,1=1,0</v>
       </c>
     </row>
@@ -3681,7 +3652,7 @@
         <v>0,1</v>
       </c>
       <c r="D120" s="13" t="str">
-        <f>A120&amp;","&amp;B120&amp;"="&amp;C120</f>
+        <f t="shared" si="1"/>
         <v>9,2=0,1</v>
       </c>
     </row>
@@ -3697,7 +3668,7 @@
         <v>0,1</v>
       </c>
       <c r="D121" s="13" t="str">
-        <f>A121&amp;","&amp;B121&amp;"="&amp;C121</f>
+        <f t="shared" si="1"/>
         <v>9,3=0,1</v>
       </c>
     </row>
@@ -3713,7 +3684,7 @@
         <v>0,1</v>
       </c>
       <c r="D122" s="13" t="str">
-        <f>A122&amp;","&amp;B122&amp;"="&amp;C122</f>
+        <f t="shared" si="1"/>
         <v>9,4=0,1</v>
       </c>
     </row>
@@ -3729,7 +3700,7 @@
         <v>1,0</v>
       </c>
       <c r="D123" s="13" t="str">
-        <f>A123&amp;","&amp;B123&amp;"="&amp;C123</f>
+        <f t="shared" si="1"/>
         <v>9,5=1,0</v>
       </c>
     </row>
@@ -3745,7 +3716,7 @@
         <v>0,1</v>
       </c>
       <c r="D124" s="13" t="str">
-        <f>A124&amp;","&amp;B124&amp;"="&amp;C124</f>
+        <f t="shared" si="1"/>
         <v>9,6=0,1</v>
       </c>
     </row>
@@ -3761,7 +3732,7 @@
         <v>1,0</v>
       </c>
       <c r="D125" s="13" t="str">
-        <f>A125&amp;","&amp;B125&amp;"="&amp;C125</f>
+        <f t="shared" si="1"/>
         <v>9,7=1,0</v>
       </c>
     </row>
@@ -3777,7 +3748,7 @@
         <v>1,0</v>
       </c>
       <c r="D126" s="13" t="str">
-        <f>A126&amp;","&amp;B126&amp;"="&amp;C126</f>
+        <f t="shared" si="1"/>
         <v>9,8=1,0</v>
       </c>
     </row>
@@ -3793,7 +3764,7 @@
         <v>1,0</v>
       </c>
       <c r="D127" s="13" t="str">
-        <f>A127&amp;","&amp;B127&amp;"="&amp;C127</f>
+        <f t="shared" si="1"/>
         <v>9,9=1,0</v>
       </c>
     </row>
@@ -3809,7 +3780,7 @@
         <v>1,0</v>
       </c>
       <c r="D128" s="13" t="str">
-        <f>A128&amp;","&amp;B128&amp;"="&amp;C128</f>
+        <f t="shared" si="1"/>
         <v>9,10=1,0</v>
       </c>
     </row>
@@ -3825,7 +3796,7 @@
         <v>1,0</v>
       </c>
       <c r="D129" s="13" t="str">
-        <f>A129&amp;","&amp;B129&amp;"="&amp;C129</f>
+        <f t="shared" ref="D129:D192" si="2">A129&amp;","&amp;B129&amp;"="&amp;C129</f>
         <v>9,11=1,0</v>
       </c>
     </row>
@@ -3841,7 +3812,7 @@
         <v>0,1</v>
       </c>
       <c r="D130" s="13" t="str">
-        <f>A130&amp;","&amp;B130&amp;"="&amp;C130</f>
+        <f t="shared" si="2"/>
         <v>9,12=0,1</v>
       </c>
     </row>
@@ -3857,7 +3828,7 @@
         <v>0,1</v>
       </c>
       <c r="D131" s="13" t="str">
-        <f>A131&amp;","&amp;B131&amp;"="&amp;C131</f>
+        <f t="shared" si="2"/>
         <v>10,0=0,1</v>
       </c>
     </row>
@@ -3873,7 +3844,7 @@
         <v>1,0</v>
       </c>
       <c r="D132" s="13" t="str">
-        <f>A132&amp;","&amp;B132&amp;"="&amp;C132</f>
+        <f t="shared" si="2"/>
         <v>10,1=1,0</v>
       </c>
     </row>
@@ -3889,7 +3860,7 @@
         <v>0,1</v>
       </c>
       <c r="D133" s="13" t="str">
-        <f>A133&amp;","&amp;B133&amp;"="&amp;C133</f>
+        <f t="shared" si="2"/>
         <v>10,2=0,1</v>
       </c>
     </row>
@@ -3905,7 +3876,7 @@
         <v>1,0</v>
       </c>
       <c r="D134" s="13" t="str">
-        <f>A134&amp;","&amp;B134&amp;"="&amp;C134</f>
+        <f t="shared" si="2"/>
         <v>10,3=1,0</v>
       </c>
     </row>
@@ -3921,7 +3892,7 @@
         <v>1,0</v>
       </c>
       <c r="D135" s="13" t="str">
-        <f>A135&amp;","&amp;B135&amp;"="&amp;C135</f>
+        <f t="shared" si="2"/>
         <v>10,4=1,0</v>
       </c>
     </row>
@@ -3937,7 +3908,7 @@
         <v>1,0</v>
       </c>
       <c r="D136" s="13" t="str">
-        <f>A136&amp;","&amp;B136&amp;"="&amp;C136</f>
+        <f t="shared" si="2"/>
         <v>10,5=1,0</v>
       </c>
     </row>
@@ -3953,7 +3924,7 @@
         <v>0,1</v>
       </c>
       <c r="D137" s="13" t="str">
-        <f>A137&amp;","&amp;B137&amp;"="&amp;C137</f>
+        <f t="shared" si="2"/>
         <v>10,6=0,1</v>
       </c>
     </row>
@@ -3969,7 +3940,7 @@
         <v>0,1</v>
       </c>
       <c r="D138" s="13" t="str">
-        <f>A138&amp;","&amp;B138&amp;"="&amp;C138</f>
+        <f t="shared" si="2"/>
         <v>10,7=0,1</v>
       </c>
     </row>
@@ -3985,7 +3956,7 @@
         <v>0,1</v>
       </c>
       <c r="D139" s="13" t="str">
-        <f>A139&amp;","&amp;B139&amp;"="&amp;C139</f>
+        <f t="shared" si="2"/>
         <v>10,8=0,1</v>
       </c>
     </row>
@@ -4001,7 +3972,7 @@
         <v>0,1</v>
       </c>
       <c r="D140" s="13" t="str">
-        <f>A140&amp;","&amp;B140&amp;"="&amp;C140</f>
+        <f t="shared" si="2"/>
         <v>10,9=0,1</v>
       </c>
     </row>
@@ -4017,7 +3988,7 @@
         <v>0,1</v>
       </c>
       <c r="D141" s="13" t="str">
-        <f>A141&amp;","&amp;B141&amp;"="&amp;C141</f>
+        <f t="shared" si="2"/>
         <v>10,10=0,1</v>
       </c>
     </row>
@@ -4033,7 +4004,7 @@
         <v>0,1</v>
       </c>
       <c r="D142" s="13" t="str">
-        <f>A142&amp;","&amp;B142&amp;"="&amp;C142</f>
+        <f t="shared" si="2"/>
         <v>10,11=0,1</v>
       </c>
     </row>
@@ -4049,7 +4020,7 @@
         <v>0,1</v>
       </c>
       <c r="D143" s="13" t="str">
-        <f>A143&amp;","&amp;B143&amp;"="&amp;C143</f>
+        <f t="shared" si="2"/>
         <v>10,12=0,1</v>
       </c>
     </row>
@@ -4065,7 +4036,7 @@
         <v>0,1</v>
       </c>
       <c r="D144" s="13" t="str">
-        <f>A144&amp;","&amp;B144&amp;"="&amp;C144</f>
+        <f t="shared" si="2"/>
         <v>11,0=0,1</v>
       </c>
     </row>
@@ -4081,7 +4052,7 @@
         <v>1,0</v>
       </c>
       <c r="D145" s="13" t="str">
-        <f>A145&amp;","&amp;B145&amp;"="&amp;C145</f>
+        <f t="shared" si="2"/>
         <v>11,1=1,0</v>
       </c>
     </row>
@@ -4097,7 +4068,7 @@
         <v>0,1</v>
       </c>
       <c r="D146" s="13" t="str">
-        <f>A146&amp;","&amp;B146&amp;"="&amp;C146</f>
+        <f t="shared" si="2"/>
         <v>11,2=0,1</v>
       </c>
     </row>
@@ -4113,7 +4084,7 @@
         <v>0,1</v>
       </c>
       <c r="D147" s="13" t="str">
-        <f>A147&amp;","&amp;B147&amp;"="&amp;C147</f>
+        <f t="shared" si="2"/>
         <v>11,3=0,1</v>
       </c>
     </row>
@@ -4129,7 +4100,7 @@
         <v>0,1</v>
       </c>
       <c r="D148" s="13" t="str">
-        <f>A148&amp;","&amp;B148&amp;"="&amp;C148</f>
+        <f t="shared" si="2"/>
         <v>11,4=0,1</v>
       </c>
     </row>
@@ -4145,7 +4116,7 @@
         <v>0,1</v>
       </c>
       <c r="D149" s="13" t="str">
-        <f>A149&amp;","&amp;B149&amp;"="&amp;C149</f>
+        <f t="shared" si="2"/>
         <v>11,5=0,1</v>
       </c>
     </row>
@@ -4161,7 +4132,7 @@
         <v>0,1</v>
       </c>
       <c r="D150" s="13" t="str">
-        <f>A150&amp;","&amp;B150&amp;"="&amp;C150</f>
+        <f t="shared" si="2"/>
         <v>11,6=0,1</v>
       </c>
     </row>
@@ -4177,7 +4148,7 @@
         <v>1,0</v>
       </c>
       <c r="D151" s="13" t="str">
-        <f>A151&amp;","&amp;B151&amp;"="&amp;C151</f>
+        <f t="shared" si="2"/>
         <v>11,7=1,0</v>
       </c>
     </row>
@@ -4193,7 +4164,7 @@
         <v>1,0</v>
       </c>
       <c r="D152" s="13" t="str">
-        <f>A152&amp;","&amp;B152&amp;"="&amp;C152</f>
+        <f t="shared" si="2"/>
         <v>11,8=1,0</v>
       </c>
     </row>
@@ -4209,7 +4180,7 @@
         <v>1,0</v>
       </c>
       <c r="D153" s="13" t="str">
-        <f>A153&amp;","&amp;B153&amp;"="&amp;C153</f>
+        <f t="shared" si="2"/>
         <v>11,9=1,0</v>
       </c>
     </row>
@@ -4225,7 +4196,7 @@
         <v>1,0</v>
       </c>
       <c r="D154" s="13" t="str">
-        <f>A154&amp;","&amp;B154&amp;"="&amp;C154</f>
+        <f t="shared" si="2"/>
         <v>11,10=1,0</v>
       </c>
     </row>
@@ -4241,7 +4212,7 @@
         <v>1,0</v>
       </c>
       <c r="D155" s="13" t="str">
-        <f>A155&amp;","&amp;B155&amp;"="&amp;C155</f>
+        <f t="shared" si="2"/>
         <v>11,11=1,0</v>
       </c>
     </row>
@@ -4257,7 +4228,7 @@
         <v>0,1</v>
       </c>
       <c r="D156" s="13" t="str">
-        <f>A156&amp;","&amp;B156&amp;"="&amp;C156</f>
+        <f t="shared" si="2"/>
         <v>11,12=0,1</v>
       </c>
     </row>
@@ -4273,7 +4244,7 @@
         <v>0,1</v>
       </c>
       <c r="D157" s="13" t="str">
-        <f>A157&amp;","&amp;B157&amp;"="&amp;C157</f>
+        <f t="shared" si="2"/>
         <v>12,0=0,1</v>
       </c>
     </row>
@@ -4289,7 +4260,7 @@
         <v>1,0</v>
       </c>
       <c r="D158" s="13" t="str">
-        <f>A158&amp;","&amp;B158&amp;"="&amp;C158</f>
+        <f t="shared" si="2"/>
         <v>12,1=1,0</v>
       </c>
     </row>
@@ -4305,7 +4276,7 @@
         <v>1,0</v>
       </c>
       <c r="D159" s="13" t="str">
-        <f>A159&amp;","&amp;B159&amp;"="&amp;C159</f>
+        <f t="shared" si="2"/>
         <v>12,2=1,0</v>
       </c>
     </row>
@@ -4321,7 +4292,7 @@
         <v>1,0</v>
       </c>
       <c r="D160" s="13" t="str">
-        <f>A160&amp;","&amp;B160&amp;"="&amp;C160</f>
+        <f t="shared" si="2"/>
         <v>12,3=1,0</v>
       </c>
     </row>
@@ -4337,7 +4308,7 @@
         <v>0,1</v>
       </c>
       <c r="D161" s="13" t="str">
-        <f>A161&amp;","&amp;B161&amp;"="&amp;C161</f>
+        <f t="shared" si="2"/>
         <v>12,4=0,1</v>
       </c>
     </row>
@@ -4353,7 +4324,7 @@
         <v>1,0</v>
       </c>
       <c r="D162" s="13" t="str">
-        <f>A162&amp;","&amp;B162&amp;"="&amp;C162</f>
+        <f t="shared" si="2"/>
         <v>12,5=1,0</v>
       </c>
     </row>
@@ -4369,7 +4340,7 @@
         <v>0,1</v>
       </c>
       <c r="D163" s="13" t="str">
-        <f>A163&amp;","&amp;B163&amp;"="&amp;C163</f>
+        <f t="shared" si="2"/>
         <v>12,6=0,1</v>
       </c>
     </row>
@@ -4385,7 +4356,7 @@
         <v>0,1</v>
       </c>
       <c r="D164" s="13" t="str">
-        <f>A164&amp;","&amp;B164&amp;"="&amp;C164</f>
+        <f t="shared" si="2"/>
         <v>12,7=0,1</v>
       </c>
     </row>
@@ -4401,7 +4372,7 @@
         <v>0,1</v>
       </c>
       <c r="D165" s="13" t="str">
-        <f>A165&amp;","&amp;B165&amp;"="&amp;C165</f>
+        <f t="shared" si="2"/>
         <v>12,8=0,1</v>
       </c>
     </row>
@@ -4417,7 +4388,7 @@
         <v>0,1</v>
       </c>
       <c r="D166" s="13" t="str">
-        <f>A166&amp;","&amp;B166&amp;"="&amp;C166</f>
+        <f t="shared" si="2"/>
         <v>12,9=0,1</v>
       </c>
     </row>
@@ -4433,7 +4404,7 @@
         <v>0,1</v>
       </c>
       <c r="D167" s="13" t="str">
-        <f>A167&amp;","&amp;B167&amp;"="&amp;C167</f>
+        <f t="shared" si="2"/>
         <v>12,10=0,1</v>
       </c>
     </row>
@@ -4449,7 +4420,7 @@
         <v>0,1</v>
       </c>
       <c r="D168" s="13" t="str">
-        <f>A168&amp;","&amp;B168&amp;"="&amp;C168</f>
+        <f t="shared" si="2"/>
         <v>12,11=0,1</v>
       </c>
     </row>
@@ -4465,7 +4436,7 @@
         <v>0,1</v>
       </c>
       <c r="D169" s="13" t="str">
-        <f>A169&amp;","&amp;B169&amp;"="&amp;C169</f>
+        <f t="shared" si="2"/>
         <v>12,12=0,1</v>
       </c>
     </row>
@@ -4478,11 +4449,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f>IF(GraphicMatrix!O2="0","0,1",IF(GraphicMatrix!O2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D170" s="13" t="str">
-        <f>A170&amp;","&amp;B170&amp;"="&amp;C170</f>
-        <v>13,0=0,1</v>
+        <f t="shared" si="2"/>
+        <v>13,0=1,0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,11 +4465,11 @@
       </c>
       <c r="C171" s="1" t="str">
         <f>IF(GraphicMatrix!O3="0","0,1",IF(GraphicMatrix!O3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D171" s="13" t="str">
-        <f>A171&amp;","&amp;B171&amp;"="&amp;C171</f>
-        <v>13,1=0,1</v>
+        <f t="shared" si="2"/>
+        <v>13,1=1,0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4513,7 +4484,7 @@
         <v>0,1</v>
       </c>
       <c r="D172" s="13" t="str">
-        <f>A172&amp;","&amp;B172&amp;"="&amp;C172</f>
+        <f t="shared" si="2"/>
         <v>13,2=0,1</v>
       </c>
     </row>
@@ -4529,7 +4500,7 @@
         <v>0,1</v>
       </c>
       <c r="D173" s="13" t="str">
-        <f>A173&amp;","&amp;B173&amp;"="&amp;C173</f>
+        <f t="shared" si="2"/>
         <v>13,3=0,1</v>
       </c>
     </row>
@@ -4545,7 +4516,7 @@
         <v>0,1</v>
       </c>
       <c r="D174" s="13" t="str">
-        <f>A174&amp;","&amp;B174&amp;"="&amp;C174</f>
+        <f t="shared" si="2"/>
         <v>13,4=0,1</v>
       </c>
     </row>
@@ -4561,7 +4532,7 @@
         <v>0,1</v>
       </c>
       <c r="D175" s="13" t="str">
-        <f>A175&amp;","&amp;B175&amp;"="&amp;C175</f>
+        <f t="shared" si="2"/>
         <v>13,5=0,1</v>
       </c>
     </row>
@@ -4577,7 +4548,7 @@
         <v>0,1</v>
       </c>
       <c r="D176" s="13" t="str">
-        <f>A176&amp;","&amp;B176&amp;"="&amp;C176</f>
+        <f t="shared" si="2"/>
         <v>13,6=0,1</v>
       </c>
     </row>
@@ -4593,7 +4564,7 @@
         <v>1,0</v>
       </c>
       <c r="D177" s="13" t="str">
-        <f>A177&amp;","&amp;B177&amp;"="&amp;C177</f>
+        <f t="shared" si="2"/>
         <v>13,7=1,0</v>
       </c>
     </row>
@@ -4609,7 +4580,7 @@
         <v>1,0</v>
       </c>
       <c r="D178" s="13" t="str">
-        <f>A178&amp;","&amp;B178&amp;"="&amp;C178</f>
+        <f t="shared" si="2"/>
         <v>13,8=1,0</v>
       </c>
     </row>
@@ -4625,7 +4596,7 @@
         <v>1,0</v>
       </c>
       <c r="D179" s="13" t="str">
-        <f>A179&amp;","&amp;B179&amp;"="&amp;C179</f>
+        <f t="shared" si="2"/>
         <v>13,9=1,0</v>
       </c>
     </row>
@@ -4641,7 +4612,7 @@
         <v>1,0</v>
       </c>
       <c r="D180" s="13" t="str">
-        <f>A180&amp;","&amp;B180&amp;"="&amp;C180</f>
+        <f t="shared" si="2"/>
         <v>13,10=1,0</v>
       </c>
     </row>
@@ -4657,7 +4628,7 @@
         <v>1,0</v>
       </c>
       <c r="D181" s="13" t="str">
-        <f>A181&amp;","&amp;B181&amp;"="&amp;C181</f>
+        <f t="shared" si="2"/>
         <v>13,11=1,0</v>
       </c>
     </row>
@@ -4673,7 +4644,7 @@
         <v>1,0</v>
       </c>
       <c r="D182" s="13" t="str">
-        <f>A182&amp;","&amp;B182&amp;"="&amp;C182</f>
+        <f t="shared" si="2"/>
         <v>13,12=1,0</v>
       </c>
     </row>
@@ -4689,7 +4660,7 @@
         <v>1,0</v>
       </c>
       <c r="D183" s="13" t="str">
-        <f>A183&amp;","&amp;B183&amp;"="&amp;C183</f>
+        <f t="shared" si="2"/>
         <v>14,0=1,0</v>
       </c>
     </row>
@@ -4705,7 +4676,7 @@
         <v>1,0</v>
       </c>
       <c r="D184" s="13" t="str">
-        <f>A184&amp;","&amp;B184&amp;"="&amp;C184</f>
+        <f t="shared" si="2"/>
         <v>14,1=1,0</v>
       </c>
     </row>
@@ -4721,7 +4692,7 @@
         <v>0,1</v>
       </c>
       <c r="D185" s="13" t="str">
-        <f>A185&amp;","&amp;B185&amp;"="&amp;C185</f>
+        <f t="shared" si="2"/>
         <v>14,2=0,1</v>
       </c>
     </row>
@@ -4737,7 +4708,7 @@
         <v>1,0</v>
       </c>
       <c r="D186" s="13" t="str">
-        <f>A186&amp;","&amp;B186&amp;"="&amp;C186</f>
+        <f t="shared" si="2"/>
         <v>14,3=1,0</v>
       </c>
     </row>
@@ -4753,7 +4724,7 @@
         <v>1,0</v>
       </c>
       <c r="D187" s="13" t="str">
-        <f>A187&amp;","&amp;B187&amp;"="&amp;C187</f>
+        <f t="shared" si="2"/>
         <v>14,4=1,0</v>
       </c>
     </row>
@@ -4769,7 +4740,7 @@
         <v>0,1</v>
       </c>
       <c r="D188" s="13" t="str">
-        <f>A188&amp;","&amp;B188&amp;"="&amp;C188</f>
+        <f t="shared" si="2"/>
         <v>14,5=0,1</v>
       </c>
     </row>
@@ -4785,7 +4756,7 @@
         <v>1,0</v>
       </c>
       <c r="D189" s="13" t="str">
-        <f>A189&amp;","&amp;B189&amp;"="&amp;C189</f>
+        <f t="shared" si="2"/>
         <v>14,6=1,0</v>
       </c>
     </row>
@@ -4801,7 +4772,7 @@
         <v>0,1</v>
       </c>
       <c r="D190" s="13" t="str">
-        <f>A190&amp;","&amp;B190&amp;"="&amp;C190</f>
+        <f t="shared" si="2"/>
         <v>14,7=0,1</v>
       </c>
     </row>
@@ -4817,7 +4788,7 @@
         <v>0,1</v>
       </c>
       <c r="D191" s="13" t="str">
-        <f>A191&amp;","&amp;B191&amp;"="&amp;C191</f>
+        <f t="shared" si="2"/>
         <v>14,8=0,1</v>
       </c>
     </row>
@@ -4833,7 +4804,7 @@
         <v>0,1</v>
       </c>
       <c r="D192" s="13" t="str">
-        <f>A192&amp;","&amp;B192&amp;"="&amp;C192</f>
+        <f t="shared" si="2"/>
         <v>14,9=0,1</v>
       </c>
     </row>
@@ -4849,7 +4820,7 @@
         <v>0,1</v>
       </c>
       <c r="D193" s="13" t="str">
-        <f>A193&amp;","&amp;B193&amp;"="&amp;C193</f>
+        <f t="shared" ref="D193:D256" si="3">A193&amp;","&amp;B193&amp;"="&amp;C193</f>
         <v>14,10=0,1</v>
       </c>
     </row>
@@ -4865,7 +4836,7 @@
         <v>0,1</v>
       </c>
       <c r="D194" s="13" t="str">
-        <f>A194&amp;","&amp;B194&amp;"="&amp;C194</f>
+        <f t="shared" si="3"/>
         <v>14,11=0,1</v>
       </c>
     </row>
@@ -4881,7 +4852,7 @@
         <v>0,1</v>
       </c>
       <c r="D195" s="13" t="str">
-        <f>A195&amp;","&amp;B195&amp;"="&amp;C195</f>
+        <f t="shared" si="3"/>
         <v>14,12=0,1</v>
       </c>
     </row>
@@ -4894,11 +4865,11 @@
       </c>
       <c r="C196" s="1" t="str">
         <f>IF(GraphicMatrix!Q2="0","0,1",IF(GraphicMatrix!Q2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D196" s="13" t="str">
-        <f>A196&amp;","&amp;B196&amp;"="&amp;C196</f>
-        <v>15,0=0,1</v>
+        <f t="shared" si="3"/>
+        <v>15,0=1,0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4910,11 +4881,11 @@
       </c>
       <c r="C197" s="1" t="str">
         <f>IF(GraphicMatrix!Q3="0","0,1",IF(GraphicMatrix!Q3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D197" s="13" t="str">
-        <f>A197&amp;","&amp;B197&amp;"="&amp;C197</f>
-        <v>15,1=0,1</v>
+        <f t="shared" si="3"/>
+        <v>15,1=1,0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,7 +4900,7 @@
         <v>0,1</v>
       </c>
       <c r="D198" s="13" t="str">
-        <f>A198&amp;","&amp;B198&amp;"="&amp;C198</f>
+        <f t="shared" si="3"/>
         <v>15,2=0,1</v>
       </c>
     </row>
@@ -4945,7 +4916,7 @@
         <v>0,1</v>
       </c>
       <c r="D199" s="13" t="str">
-        <f>A199&amp;","&amp;B199&amp;"="&amp;C199</f>
+        <f t="shared" si="3"/>
         <v>15,3=0,1</v>
       </c>
     </row>
@@ -4961,7 +4932,7 @@
         <v>1,0</v>
       </c>
       <c r="D200" s="13" t="str">
-        <f>A200&amp;","&amp;B200&amp;"="&amp;C200</f>
+        <f t="shared" si="3"/>
         <v>15,4=1,0</v>
       </c>
     </row>
@@ -4977,7 +4948,7 @@
         <v>0,1</v>
       </c>
       <c r="D201" s="13" t="str">
-        <f>A201&amp;","&amp;B201&amp;"="&amp;C201</f>
+        <f t="shared" si="3"/>
         <v>15,5=0,1</v>
       </c>
     </row>
@@ -4993,7 +4964,7 @@
         <v>0,1</v>
       </c>
       <c r="D202" s="13" t="str">
-        <f>A202&amp;","&amp;B202&amp;"="&amp;C202</f>
+        <f t="shared" si="3"/>
         <v>15,6=0,1</v>
       </c>
     </row>
@@ -5009,7 +4980,7 @@
         <v>0,1</v>
       </c>
       <c r="D203" s="13" t="str">
-        <f>A203&amp;","&amp;B203&amp;"="&amp;C203</f>
+        <f t="shared" si="3"/>
         <v>15,7=0,1</v>
       </c>
     </row>
@@ -5025,7 +4996,7 @@
         <v>1,0</v>
       </c>
       <c r="D204" s="13" t="str">
-        <f>A204&amp;","&amp;B204&amp;"="&amp;C204</f>
+        <f t="shared" si="3"/>
         <v>15,8=1,0</v>
       </c>
     </row>
@@ -5041,7 +5012,7 @@
         <v>1,0</v>
       </c>
       <c r="D205" s="13" t="str">
-        <f>A205&amp;","&amp;B205&amp;"="&amp;C205</f>
+        <f t="shared" si="3"/>
         <v>15,9=1,0</v>
       </c>
     </row>
@@ -5057,7 +5028,7 @@
         <v>1,0</v>
       </c>
       <c r="D206" s="13" t="str">
-        <f>A206&amp;","&amp;B206&amp;"="&amp;C206</f>
+        <f t="shared" si="3"/>
         <v>15,10=1,0</v>
       </c>
     </row>
@@ -5073,7 +5044,7 @@
         <v>1,0</v>
       </c>
       <c r="D207" s="13" t="str">
-        <f>A207&amp;","&amp;B207&amp;"="&amp;C207</f>
+        <f t="shared" si="3"/>
         <v>15,11=1,0</v>
       </c>
     </row>
@@ -5089,7 +5060,7 @@
         <v>1,0</v>
       </c>
       <c r="D208" s="13" t="str">
-        <f>A208&amp;","&amp;B208&amp;"="&amp;C208</f>
+        <f t="shared" si="3"/>
         <v>15,12=1,0</v>
       </c>
     </row>
@@ -5105,7 +5076,7 @@
         <v>1,0</v>
       </c>
       <c r="D209" s="13" t="str">
-        <f>A209&amp;","&amp;B209&amp;"="&amp;C209</f>
+        <f t="shared" si="3"/>
         <v>16,0=1,0</v>
       </c>
     </row>
@@ -5121,7 +5092,7 @@
         <v>1,0</v>
       </c>
       <c r="D210" s="13" t="str">
-        <f>A210&amp;","&amp;B210&amp;"="&amp;C210</f>
+        <f t="shared" si="3"/>
         <v>16,1=1,0</v>
       </c>
     </row>
@@ -5137,7 +5108,7 @@
         <v>1,0</v>
       </c>
       <c r="D211" s="13" t="str">
-        <f>A211&amp;","&amp;B211&amp;"="&amp;C211</f>
+        <f t="shared" si="3"/>
         <v>16,2=1,0</v>
       </c>
     </row>
@@ -5153,7 +5124,7 @@
         <v>0,1</v>
       </c>
       <c r="D212" s="13" t="str">
-        <f>A212&amp;","&amp;B212&amp;"="&amp;C212</f>
+        <f t="shared" si="3"/>
         <v>16,3=0,1</v>
       </c>
     </row>
@@ -5169,7 +5140,7 @@
         <v>1,0</v>
       </c>
       <c r="D213" s="13" t="str">
-        <f>A213&amp;","&amp;B213&amp;"="&amp;C213</f>
+        <f t="shared" si="3"/>
         <v>16,4=1,0</v>
       </c>
     </row>
@@ -5185,7 +5156,7 @@
         <v>0,1</v>
       </c>
       <c r="D214" s="13" t="str">
-        <f>A214&amp;","&amp;B214&amp;"="&amp;C214</f>
+        <f t="shared" si="3"/>
         <v>16,5=0,1</v>
       </c>
     </row>
@@ -5201,7 +5172,7 @@
         <v>1,0</v>
       </c>
       <c r="D215" s="13" t="str">
-        <f>A215&amp;","&amp;B215&amp;"="&amp;C215</f>
+        <f t="shared" si="3"/>
         <v>16,6=1,0</v>
       </c>
     </row>
@@ -5217,7 +5188,7 @@
         <v>1,0</v>
       </c>
       <c r="D216" s="13" t="str">
-        <f>A216&amp;","&amp;B216&amp;"="&amp;C216</f>
+        <f t="shared" si="3"/>
         <v>16,7=1,0</v>
       </c>
     </row>
@@ -5233,7 +5204,7 @@
         <v>0,1</v>
       </c>
       <c r="D217" s="13" t="str">
-        <f>A217&amp;","&amp;B217&amp;"="&amp;C217</f>
+        <f t="shared" si="3"/>
         <v>16,8=0,1</v>
       </c>
     </row>
@@ -5249,7 +5220,7 @@
         <v>0,1</v>
       </c>
       <c r="D218" s="13" t="str">
-        <f>A218&amp;","&amp;B218&amp;"="&amp;C218</f>
+        <f t="shared" si="3"/>
         <v>16,9=0,1</v>
       </c>
     </row>
@@ -5265,7 +5236,7 @@
         <v>0,1</v>
       </c>
       <c r="D219" s="13" t="str">
-        <f>A219&amp;","&amp;B219&amp;"="&amp;C219</f>
+        <f t="shared" si="3"/>
         <v>16,10=0,1</v>
       </c>
     </row>
@@ -5281,7 +5252,7 @@
         <v>0,1</v>
       </c>
       <c r="D220" s="13" t="str">
-        <f>A220&amp;","&amp;B220&amp;"="&amp;C220</f>
+        <f t="shared" si="3"/>
         <v>16,11=0,1</v>
       </c>
     </row>
@@ -5297,7 +5268,7 @@
         <v>0,1</v>
       </c>
       <c r="D221" s="13" t="str">
-        <f>A221&amp;","&amp;B221&amp;"="&amp;C221</f>
+        <f t="shared" si="3"/>
         <v>16,12=0,1</v>
       </c>
     </row>
@@ -5310,11 +5281,11 @@
       </c>
       <c r="C222" s="1" t="str">
         <f>IF(GraphicMatrix!S2="0","0,1",IF(GraphicMatrix!S2="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D222" s="13" t="str">
-        <f>A222&amp;","&amp;B222&amp;"="&amp;C222</f>
-        <v>17,0=0,1</v>
+        <f t="shared" si="3"/>
+        <v>17,0=1,0</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,11 +5297,11 @@
       </c>
       <c r="C223" s="1" t="str">
         <f>IF(GraphicMatrix!S3="0","0,1",IF(GraphicMatrix!S3="1","1,0",""))</f>
-        <v>0,1</v>
+        <v>1,0</v>
       </c>
       <c r="D223" s="13" t="str">
-        <f>A223&amp;","&amp;B223&amp;"="&amp;C223</f>
-        <v>17,1=0,1</v>
+        <f t="shared" si="3"/>
+        <v>17,1=1,0</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,7 +5316,7 @@
         <v>0,1</v>
       </c>
       <c r="D224" s="13" t="str">
-        <f>A224&amp;","&amp;B224&amp;"="&amp;C224</f>
+        <f t="shared" si="3"/>
         <v>17,2=0,1</v>
       </c>
     </row>
@@ -5361,7 +5332,7 @@
         <v>0,1</v>
       </c>
       <c r="D225" s="13" t="str">
-        <f>A225&amp;","&amp;B225&amp;"="&amp;C225</f>
+        <f t="shared" si="3"/>
         <v>17,3=0,1</v>
       </c>
     </row>
@@ -5377,7 +5348,7 @@
         <v>0,1</v>
       </c>
       <c r="D226" s="13" t="str">
-        <f>A226&amp;","&amp;B226&amp;"="&amp;C226</f>
+        <f t="shared" si="3"/>
         <v>17,4=0,1</v>
       </c>
     </row>
@@ -5393,7 +5364,7 @@
         <v>0,1</v>
       </c>
       <c r="D227" s="13" t="str">
-        <f>A227&amp;","&amp;B227&amp;"="&amp;C227</f>
+        <f t="shared" si="3"/>
         <v>17,5=0,1</v>
       </c>
     </row>
@@ -5409,7 +5380,7 @@
         <v>0,1</v>
       </c>
       <c r="D228" s="13" t="str">
-        <f>A228&amp;","&amp;B228&amp;"="&amp;C228</f>
+        <f t="shared" si="3"/>
         <v>17,6=0,1</v>
       </c>
     </row>
@@ -5425,7 +5396,7 @@
         <v>0,1</v>
       </c>
       <c r="D229" s="13" t="str">
-        <f>A229&amp;","&amp;B229&amp;"="&amp;C229</f>
+        <f t="shared" si="3"/>
         <v>17,7=0,1</v>
       </c>
     </row>
@@ -5441,7 +5412,7 @@
         <v>0,1</v>
       </c>
       <c r="D230" s="13" t="str">
-        <f>A230&amp;","&amp;B230&amp;"="&amp;C230</f>
+        <f t="shared" si="3"/>
         <v>17,8=0,1</v>
       </c>
     </row>
@@ -5457,7 +5428,7 @@
         <v>1,0</v>
       </c>
       <c r="D231" s="13" t="str">
-        <f>A231&amp;","&amp;B231&amp;"="&amp;C231</f>
+        <f t="shared" si="3"/>
         <v>17,9=1,0</v>
       </c>
     </row>
@@ -5473,7 +5444,7 @@
         <v>1,0</v>
       </c>
       <c r="D232" s="13" t="str">
-        <f>A232&amp;","&amp;B232&amp;"="&amp;C232</f>
+        <f t="shared" si="3"/>
         <v>17,10=1,0</v>
       </c>
     </row>
@@ -5489,7 +5460,7 @@
         <v>1,0</v>
       </c>
       <c r="D233" s="13" t="str">
-        <f>A233&amp;","&amp;B233&amp;"="&amp;C233</f>
+        <f t="shared" si="3"/>
         <v>17,11=1,0</v>
       </c>
     </row>
@@ -5505,7 +5476,7 @@
         <v>1,0</v>
       </c>
       <c r="D234" s="13" t="str">
-        <f>A234&amp;","&amp;B234&amp;"="&amp;C234</f>
+        <f t="shared" si="3"/>
         <v>17,12=1,0</v>
       </c>
     </row>
@@ -5521,7 +5492,7 @@
         <v>0,1</v>
       </c>
       <c r="D235" s="13" t="str">
-        <f>A235&amp;","&amp;B235&amp;"="&amp;C235</f>
+        <f t="shared" si="3"/>
         <v>18,0=0,1</v>
       </c>
     </row>
@@ -5537,7 +5508,7 @@
         <v>1,0</v>
       </c>
       <c r="D236" s="13" t="str">
-        <f>A236&amp;","&amp;B236&amp;"="&amp;C236</f>
+        <f t="shared" si="3"/>
         <v>18,1=1,0</v>
       </c>
     </row>
@@ -5553,7 +5524,7 @@
         <v>1,0</v>
       </c>
       <c r="D237" s="13" t="str">
-        <f>A237&amp;","&amp;B237&amp;"="&amp;C237</f>
+        <f t="shared" si="3"/>
         <v>18,2=1,0</v>
       </c>
     </row>
@@ -5569,7 +5540,7 @@
         <v>0,1</v>
       </c>
       <c r="D238" s="13" t="str">
-        <f>A238&amp;","&amp;B238&amp;"="&amp;C238</f>
+        <f t="shared" si="3"/>
         <v>18,3=0,1</v>
       </c>
     </row>
@@ -5585,7 +5556,7 @@
         <v>1,0</v>
       </c>
       <c r="D239" s="13" t="str">
-        <f>A239&amp;","&amp;B239&amp;"="&amp;C239</f>
+        <f t="shared" si="3"/>
         <v>18,4=1,0</v>
       </c>
     </row>
@@ -5601,7 +5572,7 @@
         <v>0,1</v>
       </c>
       <c r="D240" s="13" t="str">
-        <f>A240&amp;","&amp;B240&amp;"="&amp;C240</f>
+        <f t="shared" si="3"/>
         <v>18,5=0,1</v>
       </c>
     </row>
@@ -5617,7 +5588,7 @@
         <v>1,0</v>
       </c>
       <c r="D241" s="13" t="str">
-        <f>A241&amp;","&amp;B241&amp;"="&amp;C241</f>
+        <f t="shared" si="3"/>
         <v>18,6=1,0</v>
       </c>
     </row>
@@ -5633,7 +5604,7 @@
         <v>0,1</v>
       </c>
       <c r="D242" s="13" t="str">
-        <f>A242&amp;","&amp;B242&amp;"="&amp;C242</f>
+        <f t="shared" si="3"/>
         <v>18,7=0,1</v>
       </c>
     </row>
@@ -5649,7 +5620,7 @@
         <v>0,1</v>
       </c>
       <c r="D243" s="13" t="str">
-        <f>A243&amp;","&amp;B243&amp;"="&amp;C243</f>
+        <f t="shared" si="3"/>
         <v>18,8=0,1</v>
       </c>
     </row>
@@ -5665,7 +5636,7 @@
         <v>0,1</v>
       </c>
       <c r="D244" s="13" t="str">
-        <f>A244&amp;","&amp;B244&amp;"="&amp;C244</f>
+        <f t="shared" si="3"/>
         <v>18,9=0,1</v>
       </c>
     </row>
@@ -5681,7 +5652,7 @@
         <v>0,1</v>
       </c>
       <c r="D245" s="13" t="str">
-        <f>A245&amp;","&amp;B245&amp;"="&amp;C245</f>
+        <f t="shared" si="3"/>
         <v>18,10=0,1</v>
       </c>
     </row>
@@ -5697,7 +5668,7 @@
         <v>0,1</v>
       </c>
       <c r="D246" s="13" t="str">
-        <f>A246&amp;","&amp;B246&amp;"="&amp;C246</f>
+        <f t="shared" si="3"/>
         <v>18,11=0,1</v>
       </c>
     </row>
@@ -5713,7 +5684,7 @@
         <v>0,1</v>
       </c>
       <c r="D247" s="13" t="str">
-        <f>A247&amp;","&amp;B247&amp;"="&amp;C247</f>
+        <f t="shared" si="3"/>
         <v>18,12=0,1</v>
       </c>
     </row>
@@ -5729,7 +5700,7 @@
         <v>0,1</v>
       </c>
       <c r="D248" s="13" t="str">
-        <f>A248&amp;","&amp;B248&amp;"="&amp;C248</f>
+        <f t="shared" si="3"/>
         <v>19,0=0,1</v>
       </c>
     </row>
@@ -5745,7 +5716,7 @@
         <v>0,1</v>
       </c>
       <c r="D249" s="13" t="str">
-        <f>A249&amp;","&amp;B249&amp;"="&amp;C249</f>
+        <f t="shared" si="3"/>
         <v>19,1=0,1</v>
       </c>
     </row>
@@ -5761,7 +5732,7 @@
         <v>0,1</v>
       </c>
       <c r="D250" s="13" t="str">
-        <f>A250&amp;","&amp;B250&amp;"="&amp;C250</f>
+        <f t="shared" si="3"/>
         <v>19,2=0,1</v>
       </c>
     </row>
@@ -5777,7 +5748,7 @@
         <v>0,1</v>
       </c>
       <c r="D251" s="13" t="str">
-        <f>A251&amp;","&amp;B251&amp;"="&amp;C251</f>
+        <f t="shared" si="3"/>
         <v>19,3=0,1</v>
       </c>
     </row>
@@ -5793,7 +5764,7 @@
         <v>1,0</v>
       </c>
       <c r="D252" s="13" t="str">
-        <f>A252&amp;","&amp;B252&amp;"="&amp;C252</f>
+        <f t="shared" si="3"/>
         <v>19,4=1,0</v>
       </c>
     </row>
@@ -5809,7 +5780,7 @@
         <v>0,1</v>
       </c>
       <c r="D253" s="13" t="str">
-        <f>A253&amp;","&amp;B253&amp;"="&amp;C253</f>
+        <f t="shared" si="3"/>
         <v>19,5=0,1</v>
       </c>
     </row>
@@ -5825,7 +5796,7 @@
         <v>1,0</v>
       </c>
       <c r="D254" s="13" t="str">
-        <f>A254&amp;","&amp;B254&amp;"="&amp;C254</f>
+        <f t="shared" si="3"/>
         <v>19,6=1,0</v>
       </c>
     </row>
@@ -5841,7 +5812,7 @@
         <v>1,0</v>
       </c>
       <c r="D255" s="13" t="str">
-        <f>A255&amp;","&amp;B255&amp;"="&amp;C255</f>
+        <f t="shared" si="3"/>
         <v>19,7=1,0</v>
       </c>
     </row>
@@ -5857,7 +5828,7 @@
         <v>1,0</v>
       </c>
       <c r="D256" s="13" t="str">
-        <f>A256&amp;","&amp;B256&amp;"="&amp;C256</f>
+        <f t="shared" si="3"/>
         <v>19,8=1,0</v>
       </c>
     </row>
@@ -5873,7 +5844,7 @@
         <v>1,0</v>
       </c>
       <c r="D257" s="13" t="str">
-        <f>A257&amp;","&amp;B257&amp;"="&amp;C257</f>
+        <f t="shared" ref="D257:D312" si="4">A257&amp;","&amp;B257&amp;"="&amp;C257</f>
         <v>19,9=1,0</v>
       </c>
     </row>
@@ -5889,7 +5860,7 @@
         <v>1,0</v>
       </c>
       <c r="D258" s="13" t="str">
-        <f>A258&amp;","&amp;B258&amp;"="&amp;C258</f>
+        <f t="shared" si="4"/>
         <v>19,10=1,0</v>
       </c>
     </row>
@@ -5905,7 +5876,7 @@
         <v>1,0</v>
       </c>
       <c r="D259" s="13" t="str">
-        <f>A259&amp;","&amp;B259&amp;"="&amp;C259</f>
+        <f t="shared" si="4"/>
         <v>19,11=1,0</v>
       </c>
     </row>
@@ -5921,7 +5892,7 @@
         <v>0,1</v>
       </c>
       <c r="D260" s="13" t="str">
-        <f>A260&amp;","&amp;B260&amp;"="&amp;C260</f>
+        <f t="shared" si="4"/>
         <v>19,12=0,1</v>
       </c>
     </row>
@@ -5937,7 +5908,7 @@
         <v>1,0</v>
       </c>
       <c r="D261" s="13" t="str">
-        <f>A261&amp;","&amp;B261&amp;"="&amp;C261</f>
+        <f t="shared" si="4"/>
         <v>20,0=1,0</v>
       </c>
     </row>
@@ -5953,7 +5924,7 @@
         <v>1,0</v>
       </c>
       <c r="D262" s="13" t="str">
-        <f>A262&amp;","&amp;B262&amp;"="&amp;C262</f>
+        <f t="shared" si="4"/>
         <v>20,1=1,0</v>
       </c>
     </row>
@@ -5969,7 +5940,7 @@
         <v>1,0</v>
       </c>
       <c r="D263" s="13" t="str">
-        <f>A263&amp;","&amp;B263&amp;"="&amp;C263</f>
+        <f t="shared" si="4"/>
         <v>20,2=1,0</v>
       </c>
     </row>
@@ -5985,7 +5956,7 @@
         <v>1,0</v>
       </c>
       <c r="D264" s="13" t="str">
-        <f>A264&amp;","&amp;B264&amp;"="&amp;C264</f>
+        <f t="shared" si="4"/>
         <v>20,3=1,0</v>
       </c>
     </row>
@@ -6001,7 +5972,7 @@
         <v>1,0</v>
       </c>
       <c r="D265" s="13" t="str">
-        <f>A265&amp;","&amp;B265&amp;"="&amp;C265</f>
+        <f t="shared" si="4"/>
         <v>20,4=1,0</v>
       </c>
     </row>
@@ -6017,7 +5988,7 @@
         <v>0,1</v>
       </c>
       <c r="D266" s="13" t="str">
-        <f>A266&amp;","&amp;B266&amp;"="&amp;C266</f>
+        <f t="shared" si="4"/>
         <v>20,5=0,1</v>
       </c>
     </row>
@@ -6033,7 +6004,7 @@
         <v>0,1</v>
       </c>
       <c r="D267" s="13" t="str">
-        <f>A267&amp;","&amp;B267&amp;"="&amp;C267</f>
+        <f t="shared" si="4"/>
         <v>20,6=0,1</v>
       </c>
     </row>
@@ -6049,7 +6020,7 @@
         <v>0,1</v>
       </c>
       <c r="D268" s="13" t="str">
-        <f>A268&amp;","&amp;B268&amp;"="&amp;C268</f>
+        <f t="shared" si="4"/>
         <v>20,7=0,1</v>
       </c>
     </row>
@@ -6065,7 +6036,7 @@
         <v>0,1</v>
       </c>
       <c r="D269" s="13" t="str">
-        <f>A269&amp;","&amp;B269&amp;"="&amp;C269</f>
+        <f t="shared" si="4"/>
         <v>20,8=0,1</v>
       </c>
     </row>
@@ -6081,7 +6052,7 @@
         <v>0,1</v>
       </c>
       <c r="D270" s="13" t="str">
-        <f>A270&amp;","&amp;B270&amp;"="&amp;C270</f>
+        <f t="shared" si="4"/>
         <v>20,9=0,1</v>
       </c>
     </row>
@@ -6097,7 +6068,7 @@
         <v>0,1</v>
       </c>
       <c r="D271" s="13" t="str">
-        <f>A271&amp;","&amp;B271&amp;"="&amp;C271</f>
+        <f t="shared" si="4"/>
         <v>20,10=0,1</v>
       </c>
     </row>
@@ -6113,7 +6084,7 @@
         <v>0,1</v>
       </c>
       <c r="D272" s="13" t="str">
-        <f>A272&amp;","&amp;B272&amp;"="&amp;C272</f>
+        <f t="shared" si="4"/>
         <v>20,11=0,1</v>
       </c>
     </row>
@@ -6129,7 +6100,7 @@
         <v>0,1</v>
       </c>
       <c r="D273" s="13" t="str">
-        <f>A273&amp;","&amp;B273&amp;"="&amp;C273</f>
+        <f t="shared" si="4"/>
         <v>20,12=0,1</v>
       </c>
     </row>
@@ -6145,7 +6116,7 @@
         <v>0,1</v>
       </c>
       <c r="D274" s="13" t="str">
-        <f>A274&amp;","&amp;B274&amp;"="&amp;C274</f>
+        <f t="shared" si="4"/>
         <v>21,0=0,1</v>
       </c>
     </row>
@@ -6161,7 +6132,7 @@
         <v>0,1</v>
       </c>
       <c r="D275" s="13" t="str">
-        <f>A275&amp;","&amp;B275&amp;"="&amp;C275</f>
+        <f t="shared" si="4"/>
         <v>21,1=0,1</v>
       </c>
     </row>
@@ -6177,7 +6148,7 @@
         <v>0,1</v>
       </c>
       <c r="D276" s="13" t="str">
-        <f>A276&amp;","&amp;B276&amp;"="&amp;C276</f>
+        <f t="shared" si="4"/>
         <v>21,2=0,1</v>
       </c>
     </row>
@@ -6193,7 +6164,7 @@
         <v>0,1</v>
       </c>
       <c r="D277" s="13" t="str">
-        <f>A277&amp;","&amp;B277&amp;"="&amp;C277</f>
+        <f t="shared" si="4"/>
         <v>21,3=0,1</v>
       </c>
     </row>
@@ -6209,7 +6180,7 @@
         <v>0,1</v>
       </c>
       <c r="D278" s="13" t="str">
-        <f>A278&amp;","&amp;B278&amp;"="&amp;C278</f>
+        <f t="shared" si="4"/>
         <v>21,4=0,1</v>
       </c>
     </row>
@@ -6225,7 +6196,7 @@
         <v>0,1</v>
       </c>
       <c r="D279" s="13" t="str">
-        <f>A279&amp;","&amp;B279&amp;"="&amp;C279</f>
+        <f t="shared" si="4"/>
         <v>21,5=0,1</v>
       </c>
     </row>
@@ -6241,7 +6212,7 @@
         <v>1,0</v>
       </c>
       <c r="D280" s="13" t="str">
-        <f>A280&amp;","&amp;B280&amp;"="&amp;C280</f>
+        <f t="shared" si="4"/>
         <v>21,6=1,0</v>
       </c>
     </row>
@@ -6257,7 +6228,7 @@
         <v>1,0</v>
       </c>
       <c r="D281" s="13" t="str">
-        <f>A281&amp;","&amp;B281&amp;"="&amp;C281</f>
+        <f t="shared" si="4"/>
         <v>21,7=1,0</v>
       </c>
     </row>
@@ -6273,7 +6244,7 @@
         <v>1,0</v>
       </c>
       <c r="D282" s="13" t="str">
-        <f>A282&amp;","&amp;B282&amp;"="&amp;C282</f>
+        <f t="shared" si="4"/>
         <v>21,8=1,0</v>
       </c>
     </row>
@@ -6289,7 +6260,7 @@
         <v>1,0</v>
       </c>
       <c r="D283" s="13" t="str">
-        <f>A283&amp;","&amp;B283&amp;"="&amp;C283</f>
+        <f t="shared" si="4"/>
         <v>21,9=1,0</v>
       </c>
     </row>
@@ -6305,7 +6276,7 @@
         <v>1,0</v>
       </c>
       <c r="D284" s="13" t="str">
-        <f>A284&amp;","&amp;B284&amp;"="&amp;C284</f>
+        <f t="shared" si="4"/>
         <v>21,10=1,0</v>
       </c>
     </row>
@@ -6321,7 +6292,7 @@
         <v>1,0</v>
       </c>
       <c r="D285" s="13" t="str">
-        <f>A285&amp;","&amp;B285&amp;"="&amp;C285</f>
+        <f t="shared" si="4"/>
         <v>21,11=1,0</v>
       </c>
     </row>
@@ -6337,7 +6308,7 @@
         <v>0,1</v>
       </c>
       <c r="D286" s="13" t="str">
-        <f>A286&amp;","&amp;B286&amp;"="&amp;C286</f>
+        <f t="shared" si="4"/>
         <v>21,12=0,1</v>
       </c>
     </row>
@@ -6353,7 +6324,7 @@
         <v>1,0</v>
       </c>
       <c r="D287" s="13" t="str">
-        <f>A287&amp;","&amp;B287&amp;"="&amp;C287</f>
+        <f t="shared" si="4"/>
         <v>22,0=1,0</v>
       </c>
     </row>
@@ -6369,7 +6340,7 @@
         <v>1,0</v>
       </c>
       <c r="D288" s="13" t="str">
-        <f>A288&amp;","&amp;B288&amp;"="&amp;C288</f>
+        <f t="shared" si="4"/>
         <v>22,1=1,0</v>
       </c>
     </row>
@@ -6385,7 +6356,7 @@
         <v>1,0</v>
       </c>
       <c r="D289" s="13" t="str">
-        <f>A289&amp;","&amp;B289&amp;"="&amp;C289</f>
+        <f t="shared" si="4"/>
         <v>22,2=1,0</v>
       </c>
     </row>
@@ -6401,7 +6372,7 @@
         <v>0,1</v>
       </c>
       <c r="D290" s="13" t="str">
-        <f>A290&amp;","&amp;B290&amp;"="&amp;C290</f>
+        <f t="shared" si="4"/>
         <v>22,3=0,1</v>
       </c>
     </row>
@@ -6417,7 +6388,7 @@
         <v>1,0</v>
       </c>
       <c r="D291" s="13" t="str">
-        <f>A291&amp;","&amp;B291&amp;"="&amp;C291</f>
+        <f t="shared" si="4"/>
         <v>22,4=1,0</v>
       </c>
     </row>
@@ -6433,7 +6404,7 @@
         <v>0,1</v>
       </c>
       <c r="D292" s="13" t="str">
-        <f>A292&amp;","&amp;B292&amp;"="&amp;C292</f>
+        <f t="shared" si="4"/>
         <v>22,5=0,1</v>
       </c>
     </row>
@@ -6449,7 +6420,7 @@
         <v>0,1</v>
       </c>
       <c r="D293" s="13" t="str">
-        <f>A293&amp;","&amp;B293&amp;"="&amp;C293</f>
+        <f t="shared" si="4"/>
         <v>22,6=0,1</v>
       </c>
     </row>
@@ -6465,7 +6436,7 @@
         <v>0,1</v>
       </c>
       <c r="D294" s="13" t="str">
-        <f>A294&amp;","&amp;B294&amp;"="&amp;C294</f>
+        <f t="shared" si="4"/>
         <v>22,7=0,1</v>
       </c>
     </row>
@@ -6481,7 +6452,7 @@
         <v>0,1</v>
       </c>
       <c r="D295" s="13" t="str">
-        <f>A295&amp;","&amp;B295&amp;"="&amp;C295</f>
+        <f t="shared" si="4"/>
         <v>22,8=0,1</v>
       </c>
     </row>
@@ -6497,7 +6468,7 @@
         <v>0,1</v>
       </c>
       <c r="D296" s="13" t="str">
-        <f>A296&amp;","&amp;B296&amp;"="&amp;C296</f>
+        <f t="shared" si="4"/>
         <v>22,9=0,1</v>
       </c>
     </row>
@@ -6513,7 +6484,7 @@
         <v>0,1</v>
       </c>
       <c r="D297" s="13" t="str">
-        <f>A297&amp;","&amp;B297&amp;"="&amp;C297</f>
+        <f t="shared" si="4"/>
         <v>22,10=0,1</v>
       </c>
     </row>
@@ -6529,7 +6500,7 @@
         <v>1,0</v>
       </c>
       <c r="D298" s="13" t="str">
-        <f>A298&amp;","&amp;B298&amp;"="&amp;C298</f>
+        <f t="shared" si="4"/>
         <v>22,11=1,0</v>
       </c>
     </row>
@@ -6545,7 +6516,7 @@
         <v>0,1</v>
       </c>
       <c r="D299" s="13" t="str">
-        <f>A299&amp;","&amp;B299&amp;"="&amp;C299</f>
+        <f t="shared" si="4"/>
         <v>22,12=0,1</v>
       </c>
     </row>
@@ -6561,7 +6532,7 @@
         <v>0,1</v>
       </c>
       <c r="D300" s="13" t="str">
-        <f>A300&amp;","&amp;B300&amp;"="&amp;C300</f>
+        <f t="shared" si="4"/>
         <v>23,0=0,1</v>
       </c>
     </row>
@@ -6577,7 +6548,7 @@
         <v>0,1</v>
       </c>
       <c r="D301" s="13" t="str">
-        <f>A301&amp;","&amp;B301&amp;"="&amp;C301</f>
+        <f t="shared" si="4"/>
         <v>23,1=0,1</v>
       </c>
     </row>
@@ -6593,7 +6564,7 @@
         <v>0,1</v>
       </c>
       <c r="D302" s="13" t="str">
-        <f>A302&amp;","&amp;B302&amp;"="&amp;C302</f>
+        <f t="shared" si="4"/>
         <v>23,2=0,1</v>
       </c>
     </row>
@@ -6609,7 +6580,7 @@
         <v>0,1</v>
       </c>
       <c r="D303" s="13" t="str">
-        <f>A303&amp;","&amp;B303&amp;"="&amp;C303</f>
+        <f t="shared" si="4"/>
         <v>23,3=0,1</v>
       </c>
     </row>
@@ -6625,7 +6596,7 @@
         <v>1,0</v>
       </c>
       <c r="D304" s="13" t="str">
-        <f>A304&amp;","&amp;B304&amp;"="&amp;C304</f>
+        <f t="shared" si="4"/>
         <v>23,4=1,0</v>
       </c>
     </row>
@@ -6641,7 +6612,7 @@
         <v>1,0</v>
       </c>
       <c r="D305" s="13" t="str">
-        <f>A305&amp;","&amp;B305&amp;"="&amp;C305</f>
+        <f t="shared" si="4"/>
         <v>23,5=1,0</v>
       </c>
     </row>
@@ -6657,7 +6628,7 @@
         <v>1,0</v>
       </c>
       <c r="D306" s="13" t="str">
-        <f>A306&amp;","&amp;B306&amp;"="&amp;C306</f>
+        <f t="shared" si="4"/>
         <v>23,6=1,0</v>
       </c>
     </row>
@@ -6673,7 +6644,7 @@
         <v>1,0</v>
       </c>
       <c r="D307" s="13" t="str">
-        <f>A307&amp;","&amp;B307&amp;"="&amp;C307</f>
+        <f t="shared" si="4"/>
         <v>23,7=1,0</v>
       </c>
     </row>
@@ -6689,7 +6660,7 @@
         <v>1,0</v>
       </c>
       <c r="D308" s="13" t="str">
-        <f>A308&amp;","&amp;B308&amp;"="&amp;C308</f>
+        <f t="shared" si="4"/>
         <v>23,8=1,0</v>
       </c>
     </row>
@@ -6705,7 +6676,7 @@
         <v>1,0</v>
       </c>
       <c r="D309" s="13" t="str">
-        <f>A309&amp;","&amp;B309&amp;"="&amp;C309</f>
+        <f t="shared" si="4"/>
         <v>23,9=1,0</v>
       </c>
     </row>
@@ -6721,7 +6692,7 @@
         <v>0,1</v>
       </c>
       <c r="D310" s="13" t="str">
-        <f>A310&amp;","&amp;B310&amp;"="&amp;C310</f>
+        <f t="shared" si="4"/>
         <v>23,10=0,1</v>
       </c>
     </row>
@@ -6737,7 +6708,7 @@
         <v>0,1</v>
       </c>
       <c r="D311" s="13" t="str">
-        <f>A311&amp;","&amp;B311&amp;"="&amp;C311</f>
+        <f t="shared" si="4"/>
         <v>23,11=0,1</v>
       </c>
     </row>
@@ -6753,7 +6724,7 @@
         <v>0,1</v>
       </c>
       <c r="D312" s="13" t="str">
-        <f>A312&amp;","&amp;B312&amp;"="&amp;C312</f>
+        <f t="shared" si="4"/>
         <v>23,12=0,1</v>
       </c>
     </row>

--- a/FarthorlPacMan/DataFiles/levelCreator.xlsx
+++ b/FarthorlPacMan/DataFiles/levelCreator.xlsx
@@ -25,18 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="3">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Поставете value "1" в клетката, ако искате да се отбележи клетка пре която не може да се минава</t>
+    <t>Поставете value "1" в клетката, ако искате да се отбележи клетка през която не може да се минава</t>
   </si>
   <si>
-    <t>След, като сте приключили с създаването на нивото, в sheet "Matrix - result" ще ви се генерира стринговата поредица, която трябва да се изнесе в текстов файл.</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>След, като сте приключили със създаването на нивото, в sheet "Matrix - result" ще ви се генерира стринговата поредица, която трябва да се изнесе в текстов файл.</t>
   </si>
 </sst>
 </file>
@@ -561,7 +558,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
@@ -688,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>0</v>
@@ -709,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>0</v>
@@ -730,70 +727,70 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>0</v>
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>0</v>
@@ -853,25 +850,25 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -892,40 +889,40 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>0</v>
@@ -943,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>0</v>
@@ -976,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>0</v>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
@@ -1003,34 +1000,34 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="11"/>
     </row>
@@ -1042,40 +1039,40 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>0</v>
@@ -1108,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="11"/>
     </row>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
@@ -1159,34 +1156,34 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="11"/>
     </row>
@@ -1198,43 +1195,43 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>0</v>
@@ -1243,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>0</v>
@@ -1252,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="11"/>
     </row>
@@ -1288,37 +1285,37 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>0</v>
@@ -1330,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="11"/>
     </row>
@@ -1354,73 +1351,73 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11"/>
     </row>
@@ -1438,61 +1435,61 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>0</v>
@@ -1510,70 +1507,70 @@
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>0</v>
@@ -1600,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>0</v>
@@ -1624,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>0</v>
@@ -1696,7 +1693,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nT0g/K6+1uzUfh5uAzAqcG8bZuMt+M+UPZH/vKMFYAtiDiYZWdeRjJN3y+eWF0ZvLNnPBMOazF7yXrnkgFxafw==" saltValue="wtT3OpfVdqQ8zjmElFvwVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eKmvfazkogI3ckgeLVVBaDcZ/KCmlrNfwLUqJU/rz0p1zChTnDzdbrT+8MlrlLFVV9IJ4GmNobidPV7CFlHOJw==" saltValue="Oln/bG54svafMqbrIYEUSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:Y14">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"1"</formula>
@@ -1725,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D312"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D16" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1969,11 +1966,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(GraphicMatrix!C3="0","0,1",IF(GraphicMatrix!C3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,1=1,0</v>
+        <v>1,1=0,1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,11 +2030,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(GraphicMatrix!C7="0","0,1",IF(GraphicMatrix!C7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,5=1,0</v>
+        <v>1,5=0,1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,11 +2046,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f>IF(GraphicMatrix!C8="0","0,1",IF(GraphicMatrix!C8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,6=1,0</v>
+        <v>1,6=0,1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,11 +2062,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(GraphicMatrix!C9="0","0,1",IF(GraphicMatrix!C9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,7=1,0</v>
+        <v>1,7=0,1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,11 +2094,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f>IF(GraphicMatrix!C11="0","0,1",IF(GraphicMatrix!C11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,9=1,0</v>
+        <v>1,9=0,1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,11 +2126,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(GraphicMatrix!C13="0","0,1",IF(GraphicMatrix!C13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,11=1,0</v>
+        <v>1,11=0,1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,11 +2174,11 @@
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(GraphicMatrix!D3="0","0,1",IF(GraphicMatrix!D3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2,1=1,0</v>
+        <v>2,1=0,1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,11 +2238,11 @@
       </c>
       <c r="C32" s="1" t="str">
         <f>IF(GraphicMatrix!D7="0","0,1",IF(GraphicMatrix!D7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2,5=1,0</v>
+        <v>2,5=0,1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,11 +2302,11 @@
       </c>
       <c r="C36" s="1" t="str">
         <f>IF(GraphicMatrix!D11="0","0,1",IF(GraphicMatrix!D11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2,9=1,0</v>
+        <v>2,9=0,1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,11 +2382,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f>IF(GraphicMatrix!E3="0","0,1",IF(GraphicMatrix!E3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,1=1,0</v>
+        <v>3,1=0,1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,11 +2398,11 @@
       </c>
       <c r="C42" s="1" t="str">
         <f>IF(GraphicMatrix!E4="0","0,1",IF(GraphicMatrix!E4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,2=1,0</v>
+        <v>3,2=0,1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,11 +2414,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f>IF(GraphicMatrix!E5="0","0,1",IF(GraphicMatrix!E5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D43" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,3=1,0</v>
+        <v>3,3=0,1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,11 +2446,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f>IF(GraphicMatrix!E7="0","0,1",IF(GraphicMatrix!E7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D45" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,5=1,0</v>
+        <v>3,5=0,1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,11 +2478,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f>IF(GraphicMatrix!E9="0","0,1",IF(GraphicMatrix!E9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D47" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,7=1,0</v>
+        <v>3,7=0,1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,11 +2510,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f>IF(GraphicMatrix!E11="0","0,1",IF(GraphicMatrix!E11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D49" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,9=1,0</v>
+        <v>3,9=0,1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,11 +2526,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f>IF(GraphicMatrix!E12="0","0,1",IF(GraphicMatrix!E12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D50" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,10=1,0</v>
+        <v>3,10=0,1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,11 +2542,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f>IF(GraphicMatrix!E13="0","0,1",IF(GraphicMatrix!E13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D51" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,11=1,0</v>
+        <v>3,11=0,1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,11 +2686,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f>IF(GraphicMatrix!F9="0","0,1",IF(GraphicMatrix!F9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D60" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4,7=1,0</v>
+        <v>4,7=0,1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,11 +2798,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f>IF(GraphicMatrix!G3="0","0,1",IF(GraphicMatrix!G3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D67" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,1=1,0</v>
+        <v>5,1=0,1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,11 +2814,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f>IF(GraphicMatrix!G4="0","0,1",IF(GraphicMatrix!G4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D68" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,2=1,0</v>
+        <v>5,2=0,1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,11 +2830,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f>IF(GraphicMatrix!G5="0","0,1",IF(GraphicMatrix!G5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D69" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,3=1,0</v>
+        <v>5,3=0,1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,11 +2846,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f>IF(GraphicMatrix!G6="0","0,1",IF(GraphicMatrix!G6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D70" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,4=1,0</v>
+        <v>5,4=0,1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,11 +2862,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f>IF(GraphicMatrix!G7="0","0,1",IF(GraphicMatrix!G7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D71" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,5=1,0</v>
+        <v>5,5=0,1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,11 +2894,11 @@
       </c>
       <c r="C73" s="1" t="str">
         <f>IF(GraphicMatrix!G9="0","0,1",IF(GraphicMatrix!G9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D73" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,7=1,0</v>
+        <v>5,7=0,1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,11 +2910,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f>IF(GraphicMatrix!G10="0","0,1",IF(GraphicMatrix!G10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D74" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,8=1,0</v>
+        <v>5,8=0,1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,11 +2926,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f>IF(GraphicMatrix!G11="0","0,1",IF(GraphicMatrix!G11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D75" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,9=1,0</v>
+        <v>5,9=0,1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,11 +2942,11 @@
       </c>
       <c r="C76" s="1" t="str">
         <f>IF(GraphicMatrix!G12="0","0,1",IF(GraphicMatrix!G12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D76" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,10=1,0</v>
+        <v>5,10=0,1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,11 +2958,11 @@
       </c>
       <c r="C77" s="1" t="str">
         <f>IF(GraphicMatrix!G13="0","0,1",IF(GraphicMatrix!G13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D77" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,11=1,0</v>
+        <v>5,11=0,1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,11 +2974,11 @@
       </c>
       <c r="C78" s="1" t="str">
         <f>IF(GraphicMatrix!G14="0","0,1",IF(GraphicMatrix!G14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D78" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,12=1,0</v>
+        <v>5,12=0,1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,11 +3198,11 @@
       </c>
       <c r="C92" s="1" t="str">
         <f>IF(GraphicMatrix!I2="0","0,1",IF(GraphicMatrix!I2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D92" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,0=1,0</v>
+        <v>7,0=0,1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,11 +3214,11 @@
       </c>
       <c r="C93" s="1" t="str">
         <f>IF(GraphicMatrix!I3="0","0,1",IF(GraphicMatrix!I3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D93" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,1=1,0</v>
+        <v>7,1=0,1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,11 +3230,11 @@
       </c>
       <c r="C94" s="1" t="str">
         <f>IF(GraphicMatrix!I4="0","0,1",IF(GraphicMatrix!I4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D94" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,2=1,0</v>
+        <v>7,2=0,1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,11 +3246,11 @@
       </c>
       <c r="C95" s="1" t="str">
         <f>IF(GraphicMatrix!I5="0","0,1",IF(GraphicMatrix!I5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D95" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,3=1,0</v>
+        <v>7,3=0,1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,11 +3278,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f>IF(GraphicMatrix!I7="0","0,1",IF(GraphicMatrix!I7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D97" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,5=1,0</v>
+        <v>7,5=0,1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,11 +3310,11 @@
       </c>
       <c r="C99" s="1" t="str">
         <f>IF(GraphicMatrix!I9="0","0,1",IF(GraphicMatrix!I9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D99" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,7=1,0</v>
+        <v>7,7=0,1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,11 +3326,11 @@
       </c>
       <c r="C100" s="1" t="str">
         <f>IF(GraphicMatrix!I10="0","0,1",IF(GraphicMatrix!I10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D100" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,8=1,0</v>
+        <v>7,8=0,1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,11 +3342,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f>IF(GraphicMatrix!I11="0","0,1",IF(GraphicMatrix!I11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D101" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,9=1,0</v>
+        <v>7,9=0,1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,11 +3358,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f>IF(GraphicMatrix!I12="0","0,1",IF(GraphicMatrix!I12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D102" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,10=1,0</v>
+        <v>7,10=0,1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,11 +3374,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f>IF(GraphicMatrix!I13="0","0,1",IF(GraphicMatrix!I13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D103" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,11=1,0</v>
+        <v>7,11=0,1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,11 +3454,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f>IF(GraphicMatrix!J5="0","0,1",IF(GraphicMatrix!J5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D108" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>8,3=1,0</v>
+        <v>8,3=0,1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,11 +3486,11 @@
       </c>
       <c r="C110" s="1" t="str">
         <f>IF(GraphicMatrix!J7="0","0,1",IF(GraphicMatrix!J7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D110" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>8,5=1,0</v>
+        <v>8,5=0,1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,11 +3614,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f>IF(GraphicMatrix!K2="0","0,1",IF(GraphicMatrix!K2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D118" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,0=1,0</v>
+        <v>9,0=0,1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,11 +3630,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f>IF(GraphicMatrix!K3="0","0,1",IF(GraphicMatrix!K3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D119" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,1=1,0</v>
+        <v>9,1=0,1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,11 +3694,11 @@
       </c>
       <c r="C123" s="1" t="str">
         <f>IF(GraphicMatrix!K7="0","0,1",IF(GraphicMatrix!K7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D123" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,5=1,0</v>
+        <v>9,5=0,1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3729,11 +3726,11 @@
       </c>
       <c r="C125" s="1" t="str">
         <f>IF(GraphicMatrix!K9="0","0,1",IF(GraphicMatrix!K9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D125" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,7=1,0</v>
+        <v>9,7=0,1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,11 +3742,11 @@
       </c>
       <c r="C126" s="1" t="str">
         <f>IF(GraphicMatrix!K10="0","0,1",IF(GraphicMatrix!K10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D126" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,8=1,0</v>
+        <v>9,8=0,1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,11 +3758,11 @@
       </c>
       <c r="C127" s="1" t="str">
         <f>IF(GraphicMatrix!K11="0","0,1",IF(GraphicMatrix!K11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D127" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,9=1,0</v>
+        <v>9,9=0,1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,11 +3774,11 @@
       </c>
       <c r="C128" s="1" t="str">
         <f>IF(GraphicMatrix!K12="0","0,1",IF(GraphicMatrix!K12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D128" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,10=1,0</v>
+        <v>9,10=0,1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3793,11 +3790,11 @@
       </c>
       <c r="C129" s="1" t="str">
         <f>IF(GraphicMatrix!K13="0","0,1",IF(GraphicMatrix!K13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D129" s="13" t="str">
         <f t="shared" ref="D129:D192" si="2">A129&amp;","&amp;B129&amp;"="&amp;C129</f>
-        <v>9,11=1,0</v>
+        <v>9,11=0,1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,11 +3838,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f>IF(GraphicMatrix!L3="0","0,1",IF(GraphicMatrix!L3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D132" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,1=1,0</v>
+        <v>10,1=0,1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,11 +3870,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f>IF(GraphicMatrix!L5="0","0,1",IF(GraphicMatrix!L5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D134" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,3=1,0</v>
+        <v>10,3=0,1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3889,11 +3886,11 @@
       </c>
       <c r="C135" s="1" t="str">
         <f>IF(GraphicMatrix!L6="0","0,1",IF(GraphicMatrix!L6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D135" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,4=1,0</v>
+        <v>10,4=0,1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,11 +3902,11 @@
       </c>
       <c r="C136" s="1" t="str">
         <f>IF(GraphicMatrix!L7="0","0,1",IF(GraphicMatrix!L7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D136" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,5=1,0</v>
+        <v>10,5=0,1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,11 +4046,11 @@
       </c>
       <c r="C145" s="1" t="str">
         <f>IF(GraphicMatrix!M3="0","0,1",IF(GraphicMatrix!M3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D145" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,1=1,0</v>
+        <v>11,1=0,1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,11 +4142,11 @@
       </c>
       <c r="C151" s="1" t="str">
         <f>IF(GraphicMatrix!M9="0","0,1",IF(GraphicMatrix!M9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D151" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,7=1,0</v>
+        <v>11,7=0,1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,11 +4158,11 @@
       </c>
       <c r="C152" s="1" t="str">
         <f>IF(GraphicMatrix!M10="0","0,1",IF(GraphicMatrix!M10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D152" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,8=1,0</v>
+        <v>11,8=0,1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4177,11 +4174,11 @@
       </c>
       <c r="C153" s="1" t="str">
         <f>IF(GraphicMatrix!M11="0","0,1",IF(GraphicMatrix!M11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D153" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,9=1,0</v>
+        <v>11,9=0,1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,11 +4190,11 @@
       </c>
       <c r="C154" s="1" t="str">
         <f>IF(GraphicMatrix!M12="0","0,1",IF(GraphicMatrix!M12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D154" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,10=1,0</v>
+        <v>11,10=0,1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4209,11 +4206,11 @@
       </c>
       <c r="C155" s="1" t="str">
         <f>IF(GraphicMatrix!M13="0","0,1",IF(GraphicMatrix!M13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D155" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,11=1,0</v>
+        <v>11,11=0,1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,11 +4254,11 @@
       </c>
       <c r="C158" s="1" t="str">
         <f>IF(GraphicMatrix!N3="0","0,1",IF(GraphicMatrix!N3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D158" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,1=1,0</v>
+        <v>12,1=0,1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,11 +4270,11 @@
       </c>
       <c r="C159" s="1" t="str">
         <f>IF(GraphicMatrix!N4="0","0,1",IF(GraphicMatrix!N4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D159" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,2=1,0</v>
+        <v>12,2=0,1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4289,11 +4286,11 @@
       </c>
       <c r="C160" s="1" t="str">
         <f>IF(GraphicMatrix!N5="0","0,1",IF(GraphicMatrix!N5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D160" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,3=1,0</v>
+        <v>12,3=0,1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,11 +4318,11 @@
       </c>
       <c r="C162" s="1" t="str">
         <f>IF(GraphicMatrix!N7="0","0,1",IF(GraphicMatrix!N7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D162" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,5=1,0</v>
+        <v>12,5=0,1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,11 +4446,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f>IF(GraphicMatrix!O2="0","0,1",IF(GraphicMatrix!O2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D170" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,0=1,0</v>
+        <v>13,0=0,1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,11 +4462,11 @@
       </c>
       <c r="C171" s="1" t="str">
         <f>IF(GraphicMatrix!O3="0","0,1",IF(GraphicMatrix!O3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D171" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,1=1,0</v>
+        <v>13,1=0,1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,11 +4558,11 @@
       </c>
       <c r="C177" s="1" t="str">
         <f>IF(GraphicMatrix!O9="0","0,1",IF(GraphicMatrix!O9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D177" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,7=1,0</v>
+        <v>13,7=0,1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,11 +4574,11 @@
       </c>
       <c r="C178" s="1" t="str">
         <f>IF(GraphicMatrix!O10="0","0,1",IF(GraphicMatrix!O10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D178" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,8=1,0</v>
+        <v>13,8=0,1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,11 +4590,11 @@
       </c>
       <c r="C179" s="1" t="str">
         <f>IF(GraphicMatrix!O11="0","0,1",IF(GraphicMatrix!O11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D179" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,9=1,0</v>
+        <v>13,9=0,1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,11 +4606,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f>IF(GraphicMatrix!O12="0","0,1",IF(GraphicMatrix!O12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D180" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,10=1,0</v>
+        <v>13,10=0,1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4625,11 +4622,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f>IF(GraphicMatrix!O13="0","0,1",IF(GraphicMatrix!O13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D181" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,11=1,0</v>
+        <v>13,11=0,1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,11 +4638,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f>IF(GraphicMatrix!O14="0","0,1",IF(GraphicMatrix!O14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D182" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,12=1,0</v>
+        <v>13,12=0,1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,11 +4654,11 @@
       </c>
       <c r="C183" s="1" t="str">
         <f>IF(GraphicMatrix!P2="0","0,1",IF(GraphicMatrix!P2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D183" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,0=1,0</v>
+        <v>14,0=0,1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,11 +4670,11 @@
       </c>
       <c r="C184" s="1" t="str">
         <f>IF(GraphicMatrix!P3="0","0,1",IF(GraphicMatrix!P3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D184" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,1=1,0</v>
+        <v>14,1=0,1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,11 +4702,11 @@
       </c>
       <c r="C186" s="1" t="str">
         <f>IF(GraphicMatrix!P5="0","0,1",IF(GraphicMatrix!P5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D186" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,3=1,0</v>
+        <v>14,3=0,1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,11 +4718,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f>IF(GraphicMatrix!P6="0","0,1",IF(GraphicMatrix!P6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D187" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,4=1,0</v>
+        <v>14,4=0,1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,11 +4750,11 @@
       </c>
       <c r="C189" s="1" t="str">
         <f>IF(GraphicMatrix!P8="0","0,1",IF(GraphicMatrix!P8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D189" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,6=1,0</v>
+        <v>14,6=0,1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,11 +4862,11 @@
       </c>
       <c r="C196" s="1" t="str">
         <f>IF(GraphicMatrix!Q2="0","0,1",IF(GraphicMatrix!Q2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D196" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,0=1,0</v>
+        <v>15,0=0,1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4881,11 +4878,11 @@
       </c>
       <c r="C197" s="1" t="str">
         <f>IF(GraphicMatrix!Q3="0","0,1",IF(GraphicMatrix!Q3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D197" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,1=1,0</v>
+        <v>15,1=0,1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,11 +4926,11 @@
       </c>
       <c r="C200" s="1" t="str">
         <f>IF(GraphicMatrix!Q6="0","0,1",IF(GraphicMatrix!Q6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D200" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,4=1,0</v>
+        <v>15,4=0,1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,11 +4990,11 @@
       </c>
       <c r="C204" s="1" t="str">
         <f>IF(GraphicMatrix!Q10="0","0,1",IF(GraphicMatrix!Q10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D204" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,8=1,0</v>
+        <v>15,8=0,1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,11 +5006,11 @@
       </c>
       <c r="C205" s="1" t="str">
         <f>IF(GraphicMatrix!Q11="0","0,1",IF(GraphicMatrix!Q11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D205" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,9=1,0</v>
+        <v>15,9=0,1</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,11 +5022,11 @@
       </c>
       <c r="C206" s="1" t="str">
         <f>IF(GraphicMatrix!Q12="0","0,1",IF(GraphicMatrix!Q12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D206" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,10=1,0</v>
+        <v>15,10=0,1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,11 +5038,11 @@
       </c>
       <c r="C207" s="1" t="str">
         <f>IF(GraphicMatrix!Q13="0","0,1",IF(GraphicMatrix!Q13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D207" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,11=1,0</v>
+        <v>15,11=0,1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,11 +5054,11 @@
       </c>
       <c r="C208" s="1" t="str">
         <f>IF(GraphicMatrix!Q14="0","0,1",IF(GraphicMatrix!Q14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D208" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,12=1,0</v>
+        <v>15,12=0,1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,11 +5070,11 @@
       </c>
       <c r="C209" s="1" t="str">
         <f>IF(GraphicMatrix!R2="0","0,1",IF(GraphicMatrix!R2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D209" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,0=1,0</v>
+        <v>16,0=0,1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,11 +5086,11 @@
       </c>
       <c r="C210" s="1" t="str">
         <f>IF(GraphicMatrix!R3="0","0,1",IF(GraphicMatrix!R3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D210" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,1=1,0</v>
+        <v>16,1=0,1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,11 +5102,11 @@
       </c>
       <c r="C211" s="1" t="str">
         <f>IF(GraphicMatrix!R4="0","0,1",IF(GraphicMatrix!R4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D211" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,2=1,0</v>
+        <v>16,2=0,1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,11 +5134,11 @@
       </c>
       <c r="C213" s="1" t="str">
         <f>IF(GraphicMatrix!R6="0","0,1",IF(GraphicMatrix!R6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D213" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,4=1,0</v>
+        <v>16,4=0,1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,11 +5166,11 @@
       </c>
       <c r="C215" s="1" t="str">
         <f>IF(GraphicMatrix!R8="0","0,1",IF(GraphicMatrix!R8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D215" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,6=1,0</v>
+        <v>16,6=0,1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5185,11 +5182,11 @@
       </c>
       <c r="C216" s="1" t="str">
         <f>IF(GraphicMatrix!R9="0","0,1",IF(GraphicMatrix!R9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D216" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,7=1,0</v>
+        <v>16,7=0,1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,11 +5278,11 @@
       </c>
       <c r="C222" s="1" t="str">
         <f>IF(GraphicMatrix!S2="0","0,1",IF(GraphicMatrix!S2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D222" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,0=1,0</v>
+        <v>17,0=0,1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,11 +5294,11 @@
       </c>
       <c r="C223" s="1" t="str">
         <f>IF(GraphicMatrix!S3="0","0,1",IF(GraphicMatrix!S3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D223" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,1=1,0</v>
+        <v>17,1=0,1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,11 +5422,11 @@
       </c>
       <c r="C231" s="1" t="str">
         <f>IF(GraphicMatrix!S11="0","0,1",IF(GraphicMatrix!S11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D231" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,9=1,0</v>
+        <v>17,9=0,1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,11 +5438,11 @@
       </c>
       <c r="C232" s="1" t="str">
         <f>IF(GraphicMatrix!S12="0","0,1",IF(GraphicMatrix!S12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D232" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,10=1,0</v>
+        <v>17,10=0,1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,11 +5454,11 @@
       </c>
       <c r="C233" s="1" t="str">
         <f>IF(GraphicMatrix!S13="0","0,1",IF(GraphicMatrix!S13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D233" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,11=1,0</v>
+        <v>17,11=0,1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,11 +5470,11 @@
       </c>
       <c r="C234" s="1" t="str">
         <f>IF(GraphicMatrix!S14="0","0,1",IF(GraphicMatrix!S14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D234" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,12=1,0</v>
+        <v>17,12=0,1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,11 +5502,11 @@
       </c>
       <c r="C236" s="1" t="str">
         <f>IF(GraphicMatrix!T3="0","0,1",IF(GraphicMatrix!T3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D236" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,1=1,0</v>
+        <v>18,1=0,1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,11 +5518,11 @@
       </c>
       <c r="C237" s="1" t="str">
         <f>IF(GraphicMatrix!T4="0","0,1",IF(GraphicMatrix!T4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D237" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,2=1,0</v>
+        <v>18,2=0,1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5553,11 +5550,11 @@
       </c>
       <c r="C239" s="1" t="str">
         <f>IF(GraphicMatrix!T6="0","0,1",IF(GraphicMatrix!T6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D239" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,4=1,0</v>
+        <v>18,4=0,1</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,11 +5582,11 @@
       </c>
       <c r="C241" s="1" t="str">
         <f>IF(GraphicMatrix!T8="0","0,1",IF(GraphicMatrix!T8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D241" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,6=1,0</v>
+        <v>18,6=0,1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,11 +5758,11 @@
       </c>
       <c r="C252" s="1" t="str">
         <f>IF(GraphicMatrix!U6="0","0,1",IF(GraphicMatrix!U6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D252" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,4=1,0</v>
+        <v>19,4=0,1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,11 +5790,11 @@
       </c>
       <c r="C254" s="1" t="str">
         <f>IF(GraphicMatrix!U8="0","0,1",IF(GraphicMatrix!U8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D254" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,6=1,0</v>
+        <v>19,6=0,1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,11 +5806,11 @@
       </c>
       <c r="C255" s="1" t="str">
         <f>IF(GraphicMatrix!U9="0","0,1",IF(GraphicMatrix!U9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D255" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,7=1,0</v>
+        <v>19,7=0,1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,11 +5822,11 @@
       </c>
       <c r="C256" s="1" t="str">
         <f>IF(GraphicMatrix!U10="0","0,1",IF(GraphicMatrix!U10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D256" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,8=1,0</v>
+        <v>19,8=0,1</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,11 +5838,11 @@
       </c>
       <c r="C257" s="1" t="str">
         <f>IF(GraphicMatrix!U11="0","0,1",IF(GraphicMatrix!U11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D257" s="13" t="str">
         <f t="shared" ref="D257:D312" si="4">A257&amp;","&amp;B257&amp;"="&amp;C257</f>
-        <v>19,9=1,0</v>
+        <v>19,9=0,1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5857,11 +5854,11 @@
       </c>
       <c r="C258" s="1" t="str">
         <f>IF(GraphicMatrix!U12="0","0,1",IF(GraphicMatrix!U12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D258" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>19,10=1,0</v>
+        <v>19,10=0,1</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,11 +5870,11 @@
       </c>
       <c r="C259" s="1" t="str">
         <f>IF(GraphicMatrix!U13="0","0,1",IF(GraphicMatrix!U13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D259" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>19,11=1,0</v>
+        <v>19,11=0,1</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,11 +5902,11 @@
       </c>
       <c r="C261" s="1" t="str">
         <f>IF(GraphicMatrix!V2="0","0,1",IF(GraphicMatrix!V2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D261" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,0=1,0</v>
+        <v>20,0=0,1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,11 +5918,11 @@
       </c>
       <c r="C262" s="1" t="str">
         <f>IF(GraphicMatrix!V3="0","0,1",IF(GraphicMatrix!V3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D262" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,1=1,0</v>
+        <v>20,1=0,1</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,11 +5934,11 @@
       </c>
       <c r="C263" s="1" t="str">
         <f>IF(GraphicMatrix!V4="0","0,1",IF(GraphicMatrix!V4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D263" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,2=1,0</v>
+        <v>20,2=0,1</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,11 +5950,11 @@
       </c>
       <c r="C264" s="1" t="str">
         <f>IF(GraphicMatrix!V5="0","0,1",IF(GraphicMatrix!V5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D264" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,3=1,0</v>
+        <v>20,3=0,1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,11 +5966,11 @@
       </c>
       <c r="C265" s="1" t="str">
         <f>IF(GraphicMatrix!V6="0","0,1",IF(GraphicMatrix!V6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D265" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,4=1,0</v>
+        <v>20,4=0,1</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,11 +6206,11 @@
       </c>
       <c r="C280" s="1" t="str">
         <f>IF(GraphicMatrix!W8="0","0,1",IF(GraphicMatrix!W8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D280" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,6=1,0</v>
+        <v>21,6=0,1</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6225,11 +6222,11 @@
       </c>
       <c r="C281" s="1" t="str">
         <f>IF(GraphicMatrix!W9="0","0,1",IF(GraphicMatrix!W9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D281" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,7=1,0</v>
+        <v>21,7=0,1</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6241,11 +6238,11 @@
       </c>
       <c r="C282" s="1" t="str">
         <f>IF(GraphicMatrix!W10="0","0,1",IF(GraphicMatrix!W10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D282" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,8=1,0</v>
+        <v>21,8=0,1</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,11 +6254,11 @@
       </c>
       <c r="C283" s="1" t="str">
         <f>IF(GraphicMatrix!W11="0","0,1",IF(GraphicMatrix!W11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D283" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,9=1,0</v>
+        <v>21,9=0,1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6273,11 +6270,11 @@
       </c>
       <c r="C284" s="1" t="str">
         <f>IF(GraphicMatrix!W12="0","0,1",IF(GraphicMatrix!W12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D284" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,10=1,0</v>
+        <v>21,10=0,1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,11 +6286,11 @@
       </c>
       <c r="C285" s="1" t="str">
         <f>IF(GraphicMatrix!W13="0","0,1",IF(GraphicMatrix!W13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D285" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,11=1,0</v>
+        <v>21,11=0,1</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,11 +6318,11 @@
       </c>
       <c r="C287" s="1" t="str">
         <f>IF(GraphicMatrix!X2="0","0,1",IF(GraphicMatrix!X2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D287" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,0=1,0</v>
+        <v>22,0=0,1</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,11 +6334,11 @@
       </c>
       <c r="C288" s="1" t="str">
         <f>IF(GraphicMatrix!X3="0","0,1",IF(GraphicMatrix!X3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D288" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,1=1,0</v>
+        <v>22,1=0,1</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,11 +6350,11 @@
       </c>
       <c r="C289" s="1" t="str">
         <f>IF(GraphicMatrix!X4="0","0,1",IF(GraphicMatrix!X4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D289" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,2=1,0</v>
+        <v>22,2=0,1</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6385,11 +6382,11 @@
       </c>
       <c r="C291" s="1" t="str">
         <f>IF(GraphicMatrix!X6="0","0,1",IF(GraphicMatrix!X6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D291" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,4=1,0</v>
+        <v>22,4=0,1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6497,11 +6494,11 @@
       </c>
       <c r="C298" s="1" t="str">
         <f>IF(GraphicMatrix!X13="0","0,1",IF(GraphicMatrix!X13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D298" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,11=1,0</v>
+        <v>22,11=0,1</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6593,11 +6590,11 @@
       </c>
       <c r="C304" s="1" t="str">
         <f>IF(GraphicMatrix!Y6="0","0,1",IF(GraphicMatrix!Y6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D304" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,4=1,0</v>
+        <v>23,4=0,1</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,11 +6606,11 @@
       </c>
       <c r="C305" s="1" t="str">
         <f>IF(GraphicMatrix!Y7="0","0,1",IF(GraphicMatrix!Y7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D305" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,5=1,0</v>
+        <v>23,5=0,1</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,11 +6622,11 @@
       </c>
       <c r="C306" s="1" t="str">
         <f>IF(GraphicMatrix!Y8="0","0,1",IF(GraphicMatrix!Y8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D306" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,6=1,0</v>
+        <v>23,6=0,1</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6641,11 +6638,11 @@
       </c>
       <c r="C307" s="1" t="str">
         <f>IF(GraphicMatrix!Y9="0","0,1",IF(GraphicMatrix!Y9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D307" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,7=1,0</v>
+        <v>23,7=0,1</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,11 +6654,11 @@
       </c>
       <c r="C308" s="1" t="str">
         <f>IF(GraphicMatrix!Y10="0","0,1",IF(GraphicMatrix!Y10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D308" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,8=1,0</v>
+        <v>23,8=0,1</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,11 +6670,11 @@
       </c>
       <c r="C309" s="1" t="str">
         <f>IF(GraphicMatrix!Y11="0","0,1",IF(GraphicMatrix!Y11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D309" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,9=1,0</v>
+        <v>23,9=0,1</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">

--- a/FarthorlPacMan/DataFiles/levelCreator.xlsx
+++ b/FarthorlPacMan/DataFiles/levelCreator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyan.ivanov\Desktop\FarthorlPacMan\trunk\FarthorlPacMan\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiva\Desktop\FarthorlPacMan\trunk\FarthorlPacMan\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="GraphicMatrix" sheetId="1" r:id="rId1"/>
     <sheet name="Matrix - result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,24 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="3">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Поставете value "1" в клетката, ако искате да се отбележи клетка пре която не може да се минава</t>
+    <t>Поставете value "1" в клетката, ако искате да се отбележи клетка при която не може да се минава</t>
   </si>
   <si>
-    <t>След, като сте приключили с създаването на нивото, в sheet "Matrix - result" ще ви се генерира стринговата поредица, която трябва да се изнесе в текстов файл.</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>След, като сте приключили със създаването на нивото, в sheet "Matrix - result" ще ви се генерира стринговата поредица, която трябва да се изнесе в текстов файл.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,6 +368,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,7 +592,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
@@ -688,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>0</v>
@@ -709,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>0</v>
@@ -730,70 +761,70 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>0</v>
@@ -814,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>0</v>
@@ -841,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>0</v>
@@ -853,25 +884,25 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>0</v>
@@ -892,40 +923,40 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>0</v>
@@ -943,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>0</v>
@@ -976,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>0</v>
@@ -991,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
@@ -1003,34 +1034,34 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="11"/>
     </row>
@@ -1042,40 +1073,40 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>0</v>
@@ -1108,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="11"/>
     </row>
@@ -1120,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
@@ -1159,34 +1190,34 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="11"/>
     </row>
@@ -1198,43 +1229,43 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>0</v>
@@ -1243,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>0</v>
@@ -1252,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="11"/>
     </row>
@@ -1288,37 +1319,37 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>0</v>
@@ -1330,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="11"/>
     </row>
@@ -1354,73 +1385,73 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11"/>
     </row>
@@ -1438,61 +1469,61 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>0</v>
@@ -1510,70 +1541,70 @@
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>0</v>
@@ -1600,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>0</v>
@@ -1623,22 +1654,22 @@
       <c r="N14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="7" t="s">
+      <c r="O14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U14" s="7" t="s">
@@ -1696,7 +1727,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nT0g/K6+1uzUfh5uAzAqcG8bZuMt+M+UPZH/vKMFYAtiDiYZWdeRjJN3y+eWF0ZvLNnPBMOazF7yXrnkgFxafw==" saltValue="wtT3OpfVdqQ8zjmElFvwVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T/JpLpLjbD1Ik1z74AW8SUB45HLrgC9iVt2w+HDtMF2CHOC8CW6mr7vjVMdpAhh6XUkNqMyicrDALDx9CG4H3g==" saltValue="DOncUAbYWoRexp9zd+hiVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:Y14">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"1"</formula>
@@ -1705,7 +1736,7 @@
       <formula>"0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Y13">
+  <conditionalFormatting sqref="B2:Y13 O12:T14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -1969,11 +2000,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f>IF(GraphicMatrix!C3="0","0,1",IF(GraphicMatrix!C3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,1=1,0</v>
+        <v>1,1=0,1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,11 +2064,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f>IF(GraphicMatrix!C7="0","0,1",IF(GraphicMatrix!C7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,5=1,0</v>
+        <v>1,5=0,1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2049,11 +2080,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f>IF(GraphicMatrix!C8="0","0,1",IF(GraphicMatrix!C8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,6=1,0</v>
+        <v>1,6=0,1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,11 +2096,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f>IF(GraphicMatrix!C9="0","0,1",IF(GraphicMatrix!C9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,7=1,0</v>
+        <v>1,7=0,1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,11 +2128,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f>IF(GraphicMatrix!C11="0","0,1",IF(GraphicMatrix!C11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,9=1,0</v>
+        <v>1,9=0,1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,11 +2160,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f>IF(GraphicMatrix!C13="0","0,1",IF(GraphicMatrix!C13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,11=1,0</v>
+        <v>1,11=0,1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,11 +2208,11 @@
       </c>
       <c r="C28" s="1" t="str">
         <f>IF(GraphicMatrix!D3="0","0,1",IF(GraphicMatrix!D3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2,1=1,0</v>
+        <v>2,1=0,1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,11 +2272,11 @@
       </c>
       <c r="C32" s="1" t="str">
         <f>IF(GraphicMatrix!D7="0","0,1",IF(GraphicMatrix!D7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2,5=1,0</v>
+        <v>2,5=0,1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,11 +2336,11 @@
       </c>
       <c r="C36" s="1" t="str">
         <f>IF(GraphicMatrix!D11="0","0,1",IF(GraphicMatrix!D11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2,9=1,0</v>
+        <v>2,9=0,1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,11 +2416,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f>IF(GraphicMatrix!E3="0","0,1",IF(GraphicMatrix!E3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,1=1,0</v>
+        <v>3,1=0,1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,11 +2432,11 @@
       </c>
       <c r="C42" s="1" t="str">
         <f>IF(GraphicMatrix!E4="0","0,1",IF(GraphicMatrix!E4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D42" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,2=1,0</v>
+        <v>3,2=0,1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,11 +2448,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f>IF(GraphicMatrix!E5="0","0,1",IF(GraphicMatrix!E5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D43" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,3=1,0</v>
+        <v>3,3=0,1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,11 +2480,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f>IF(GraphicMatrix!E7="0","0,1",IF(GraphicMatrix!E7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D45" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,5=1,0</v>
+        <v>3,5=0,1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,11 +2512,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f>IF(GraphicMatrix!E9="0","0,1",IF(GraphicMatrix!E9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D47" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,7=1,0</v>
+        <v>3,7=0,1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,11 +2544,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f>IF(GraphicMatrix!E11="0","0,1",IF(GraphicMatrix!E11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D49" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,9=1,0</v>
+        <v>3,9=0,1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,11 +2560,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f>IF(GraphicMatrix!E12="0","0,1",IF(GraphicMatrix!E12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D50" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,10=1,0</v>
+        <v>3,10=0,1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,11 +2576,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f>IF(GraphicMatrix!E13="0","0,1",IF(GraphicMatrix!E13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D51" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3,11=1,0</v>
+        <v>3,11=0,1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,11 +2720,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f>IF(GraphicMatrix!F9="0","0,1",IF(GraphicMatrix!F9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D60" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4,7=1,0</v>
+        <v>4,7=0,1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,11 +2832,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f>IF(GraphicMatrix!G3="0","0,1",IF(GraphicMatrix!G3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D67" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,1=1,0</v>
+        <v>5,1=0,1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,11 +2848,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f>IF(GraphicMatrix!G4="0","0,1",IF(GraphicMatrix!G4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D68" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,2=1,0</v>
+        <v>5,2=0,1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,11 +2864,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f>IF(GraphicMatrix!G5="0","0,1",IF(GraphicMatrix!G5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D69" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,3=1,0</v>
+        <v>5,3=0,1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,11 +2880,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f>IF(GraphicMatrix!G6="0","0,1",IF(GraphicMatrix!G6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D70" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,4=1,0</v>
+        <v>5,4=0,1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,11 +2896,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f>IF(GraphicMatrix!G7="0","0,1",IF(GraphicMatrix!G7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D71" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,5=1,0</v>
+        <v>5,5=0,1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,11 +2928,11 @@
       </c>
       <c r="C73" s="1" t="str">
         <f>IF(GraphicMatrix!G9="0","0,1",IF(GraphicMatrix!G9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D73" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,7=1,0</v>
+        <v>5,7=0,1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,11 +2944,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f>IF(GraphicMatrix!G10="0","0,1",IF(GraphicMatrix!G10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D74" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,8=1,0</v>
+        <v>5,8=0,1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,11 +2960,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f>IF(GraphicMatrix!G11="0","0,1",IF(GraphicMatrix!G11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D75" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,9=1,0</v>
+        <v>5,9=0,1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,11 +2976,11 @@
       </c>
       <c r="C76" s="1" t="str">
         <f>IF(GraphicMatrix!G12="0","0,1",IF(GraphicMatrix!G12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D76" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,10=1,0</v>
+        <v>5,10=0,1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,11 +2992,11 @@
       </c>
       <c r="C77" s="1" t="str">
         <f>IF(GraphicMatrix!G13="0","0,1",IF(GraphicMatrix!G13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D77" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,11=1,0</v>
+        <v>5,11=0,1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,11 +3008,11 @@
       </c>
       <c r="C78" s="1" t="str">
         <f>IF(GraphicMatrix!G14="0","0,1",IF(GraphicMatrix!G14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D78" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>5,12=1,0</v>
+        <v>5,12=0,1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,11 +3232,11 @@
       </c>
       <c r="C92" s="1" t="str">
         <f>IF(GraphicMatrix!I2="0","0,1",IF(GraphicMatrix!I2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D92" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,0=1,0</v>
+        <v>7,0=0,1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,11 +3248,11 @@
       </c>
       <c r="C93" s="1" t="str">
         <f>IF(GraphicMatrix!I3="0","0,1",IF(GraphicMatrix!I3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D93" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,1=1,0</v>
+        <v>7,1=0,1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,11 +3264,11 @@
       </c>
       <c r="C94" s="1" t="str">
         <f>IF(GraphicMatrix!I4="0","0,1",IF(GraphicMatrix!I4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D94" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,2=1,0</v>
+        <v>7,2=0,1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,11 +3280,11 @@
       </c>
       <c r="C95" s="1" t="str">
         <f>IF(GraphicMatrix!I5="0","0,1",IF(GraphicMatrix!I5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D95" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,3=1,0</v>
+        <v>7,3=0,1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,11 +3312,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f>IF(GraphicMatrix!I7="0","0,1",IF(GraphicMatrix!I7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D97" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,5=1,0</v>
+        <v>7,5=0,1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,11 +3344,11 @@
       </c>
       <c r="C99" s="1" t="str">
         <f>IF(GraphicMatrix!I9="0","0,1",IF(GraphicMatrix!I9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D99" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,7=1,0</v>
+        <v>7,7=0,1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,11 +3360,11 @@
       </c>
       <c r="C100" s="1" t="str">
         <f>IF(GraphicMatrix!I10="0","0,1",IF(GraphicMatrix!I10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D100" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,8=1,0</v>
+        <v>7,8=0,1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,11 +3376,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f>IF(GraphicMatrix!I11="0","0,1",IF(GraphicMatrix!I11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D101" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,9=1,0</v>
+        <v>7,9=0,1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,11 +3392,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f>IF(GraphicMatrix!I12="0","0,1",IF(GraphicMatrix!I12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D102" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,10=1,0</v>
+        <v>7,10=0,1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,11 +3408,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f>IF(GraphicMatrix!I13="0","0,1",IF(GraphicMatrix!I13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D103" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>7,11=1,0</v>
+        <v>7,11=0,1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,11 +3488,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f>IF(GraphicMatrix!J5="0","0,1",IF(GraphicMatrix!J5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D108" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>8,3=1,0</v>
+        <v>8,3=0,1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,11 +3520,11 @@
       </c>
       <c r="C110" s="1" t="str">
         <f>IF(GraphicMatrix!J7="0","0,1",IF(GraphicMatrix!J7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D110" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>8,5=1,0</v>
+        <v>8,5=0,1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,11 +3648,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f>IF(GraphicMatrix!K2="0","0,1",IF(GraphicMatrix!K2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D118" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,0=1,0</v>
+        <v>9,0=0,1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,11 +3664,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f>IF(GraphicMatrix!K3="0","0,1",IF(GraphicMatrix!K3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D119" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,1=1,0</v>
+        <v>9,1=0,1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,11 +3728,11 @@
       </c>
       <c r="C123" s="1" t="str">
         <f>IF(GraphicMatrix!K7="0","0,1",IF(GraphicMatrix!K7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D123" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,5=1,0</v>
+        <v>9,5=0,1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3729,11 +3760,11 @@
       </c>
       <c r="C125" s="1" t="str">
         <f>IF(GraphicMatrix!K9="0","0,1",IF(GraphicMatrix!K9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D125" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,7=1,0</v>
+        <v>9,7=0,1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,11 +3776,11 @@
       </c>
       <c r="C126" s="1" t="str">
         <f>IF(GraphicMatrix!K10="0","0,1",IF(GraphicMatrix!K10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D126" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,8=1,0</v>
+        <v>9,8=0,1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,11 +3792,11 @@
       </c>
       <c r="C127" s="1" t="str">
         <f>IF(GraphicMatrix!K11="0","0,1",IF(GraphicMatrix!K11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D127" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,9=1,0</v>
+        <v>9,9=0,1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,11 +3808,11 @@
       </c>
       <c r="C128" s="1" t="str">
         <f>IF(GraphicMatrix!K12="0","0,1",IF(GraphicMatrix!K12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D128" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>9,10=1,0</v>
+        <v>9,10=0,1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3793,11 +3824,11 @@
       </c>
       <c r="C129" s="1" t="str">
         <f>IF(GraphicMatrix!K13="0","0,1",IF(GraphicMatrix!K13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D129" s="13" t="str">
         <f t="shared" ref="D129:D192" si="2">A129&amp;","&amp;B129&amp;"="&amp;C129</f>
-        <v>9,11=1,0</v>
+        <v>9,11=0,1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,11 +3872,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f>IF(GraphicMatrix!L3="0","0,1",IF(GraphicMatrix!L3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D132" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,1=1,0</v>
+        <v>10,1=0,1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,11 +3904,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f>IF(GraphicMatrix!L5="0","0,1",IF(GraphicMatrix!L5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D134" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,3=1,0</v>
+        <v>10,3=0,1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3889,11 +3920,11 @@
       </c>
       <c r="C135" s="1" t="str">
         <f>IF(GraphicMatrix!L6="0","0,1",IF(GraphicMatrix!L6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D135" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,4=1,0</v>
+        <v>10,4=0,1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,11 +3936,11 @@
       </c>
       <c r="C136" s="1" t="str">
         <f>IF(GraphicMatrix!L7="0","0,1",IF(GraphicMatrix!L7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D136" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>10,5=1,0</v>
+        <v>10,5=0,1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,11 +4080,11 @@
       </c>
       <c r="C145" s="1" t="str">
         <f>IF(GraphicMatrix!M3="0","0,1",IF(GraphicMatrix!M3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D145" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,1=1,0</v>
+        <v>11,1=0,1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,11 +4176,11 @@
       </c>
       <c r="C151" s="1" t="str">
         <f>IF(GraphicMatrix!M9="0","0,1",IF(GraphicMatrix!M9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D151" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,7=1,0</v>
+        <v>11,7=0,1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,11 +4192,11 @@
       </c>
       <c r="C152" s="1" t="str">
         <f>IF(GraphicMatrix!M10="0","0,1",IF(GraphicMatrix!M10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D152" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,8=1,0</v>
+        <v>11,8=0,1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4177,11 +4208,11 @@
       </c>
       <c r="C153" s="1" t="str">
         <f>IF(GraphicMatrix!M11="0","0,1",IF(GraphicMatrix!M11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D153" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,9=1,0</v>
+        <v>11,9=0,1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,11 +4224,11 @@
       </c>
       <c r="C154" s="1" t="str">
         <f>IF(GraphicMatrix!M12="0","0,1",IF(GraphicMatrix!M12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D154" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,10=1,0</v>
+        <v>11,10=0,1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4209,11 +4240,11 @@
       </c>
       <c r="C155" s="1" t="str">
         <f>IF(GraphicMatrix!M13="0","0,1",IF(GraphicMatrix!M13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D155" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>11,11=1,0</v>
+        <v>11,11=0,1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,11 +4288,11 @@
       </c>
       <c r="C158" s="1" t="str">
         <f>IF(GraphicMatrix!N3="0","0,1",IF(GraphicMatrix!N3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D158" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,1=1,0</v>
+        <v>12,1=0,1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,11 +4304,11 @@
       </c>
       <c r="C159" s="1" t="str">
         <f>IF(GraphicMatrix!N4="0","0,1",IF(GraphicMatrix!N4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D159" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,2=1,0</v>
+        <v>12,2=0,1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4289,11 +4320,11 @@
       </c>
       <c r="C160" s="1" t="str">
         <f>IF(GraphicMatrix!N5="0","0,1",IF(GraphicMatrix!N5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D160" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,3=1,0</v>
+        <v>12,3=0,1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,11 +4352,11 @@
       </c>
       <c r="C162" s="1" t="str">
         <f>IF(GraphicMatrix!N7="0","0,1",IF(GraphicMatrix!N7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D162" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>12,5=1,0</v>
+        <v>12,5=0,1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,11 +4480,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f>IF(GraphicMatrix!O2="0","0,1",IF(GraphicMatrix!O2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D170" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,0=1,0</v>
+        <v>13,0=0,1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,11 +4496,11 @@
       </c>
       <c r="C171" s="1" t="str">
         <f>IF(GraphicMatrix!O3="0","0,1",IF(GraphicMatrix!O3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D171" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,1=1,0</v>
+        <v>13,1=0,1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,11 +4592,11 @@
       </c>
       <c r="C177" s="1" t="str">
         <f>IF(GraphicMatrix!O9="0","0,1",IF(GraphicMatrix!O9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D177" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,7=1,0</v>
+        <v>13,7=0,1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,11 +4608,11 @@
       </c>
       <c r="C178" s="1" t="str">
         <f>IF(GraphicMatrix!O10="0","0,1",IF(GraphicMatrix!O10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D178" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,8=1,0</v>
+        <v>13,8=0,1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,11 +4624,11 @@
       </c>
       <c r="C179" s="1" t="str">
         <f>IF(GraphicMatrix!O11="0","0,1",IF(GraphicMatrix!O11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D179" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,9=1,0</v>
+        <v>13,9=0,1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,11 +4640,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f>IF(GraphicMatrix!O12="0","0,1",IF(GraphicMatrix!O12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D180" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,10=1,0</v>
+        <v>13,10=0,1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4625,11 +4656,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f>IF(GraphicMatrix!O13="0","0,1",IF(GraphicMatrix!O13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D181" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,11=1,0</v>
+        <v>13,11=0,1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,11 +4672,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f>IF(GraphicMatrix!O14="0","0,1",IF(GraphicMatrix!O14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D182" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>13,12=1,0</v>
+        <v>13,12=0,1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,11 +4688,11 @@
       </c>
       <c r="C183" s="1" t="str">
         <f>IF(GraphicMatrix!P2="0","0,1",IF(GraphicMatrix!P2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D183" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,0=1,0</v>
+        <v>14,0=0,1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,11 +4704,11 @@
       </c>
       <c r="C184" s="1" t="str">
         <f>IF(GraphicMatrix!P3="0","0,1",IF(GraphicMatrix!P3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D184" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,1=1,0</v>
+        <v>14,1=0,1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,11 +4736,11 @@
       </c>
       <c r="C186" s="1" t="str">
         <f>IF(GraphicMatrix!P5="0","0,1",IF(GraphicMatrix!P5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D186" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,3=1,0</v>
+        <v>14,3=0,1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,11 +4752,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f>IF(GraphicMatrix!P6="0","0,1",IF(GraphicMatrix!P6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D187" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,4=1,0</v>
+        <v>14,4=0,1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,11 +4784,11 @@
       </c>
       <c r="C189" s="1" t="str">
         <f>IF(GraphicMatrix!P8="0","0,1",IF(GraphicMatrix!P8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D189" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>14,6=1,0</v>
+        <v>14,6=0,1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,11 +4896,11 @@
       </c>
       <c r="C196" s="1" t="str">
         <f>IF(GraphicMatrix!Q2="0","0,1",IF(GraphicMatrix!Q2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D196" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,0=1,0</v>
+        <v>15,0=0,1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4881,11 +4912,11 @@
       </c>
       <c r="C197" s="1" t="str">
         <f>IF(GraphicMatrix!Q3="0","0,1",IF(GraphicMatrix!Q3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D197" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,1=1,0</v>
+        <v>15,1=0,1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,11 +4960,11 @@
       </c>
       <c r="C200" s="1" t="str">
         <f>IF(GraphicMatrix!Q6="0","0,1",IF(GraphicMatrix!Q6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D200" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,4=1,0</v>
+        <v>15,4=0,1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,11 +5024,11 @@
       </c>
       <c r="C204" s="1" t="str">
         <f>IF(GraphicMatrix!Q10="0","0,1",IF(GraphicMatrix!Q10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D204" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,8=1,0</v>
+        <v>15,8=0,1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,11 +5040,11 @@
       </c>
       <c r="C205" s="1" t="str">
         <f>IF(GraphicMatrix!Q11="0","0,1",IF(GraphicMatrix!Q11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D205" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,9=1,0</v>
+        <v>15,9=0,1</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,11 +5056,11 @@
       </c>
       <c r="C206" s="1" t="str">
         <f>IF(GraphicMatrix!Q12="0","0,1",IF(GraphicMatrix!Q12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D206" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,10=1,0</v>
+        <v>15,10=0,1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,11 +5072,11 @@
       </c>
       <c r="C207" s="1" t="str">
         <f>IF(GraphicMatrix!Q13="0","0,1",IF(GraphicMatrix!Q13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D207" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,11=1,0</v>
+        <v>15,11=0,1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,11 +5088,11 @@
       </c>
       <c r="C208" s="1" t="str">
         <f>IF(GraphicMatrix!Q14="0","0,1",IF(GraphicMatrix!Q14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D208" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>15,12=1,0</v>
+        <v>15,12=0,1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,11 +5104,11 @@
       </c>
       <c r="C209" s="1" t="str">
         <f>IF(GraphicMatrix!R2="0","0,1",IF(GraphicMatrix!R2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D209" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,0=1,0</v>
+        <v>16,0=0,1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,11 +5120,11 @@
       </c>
       <c r="C210" s="1" t="str">
         <f>IF(GraphicMatrix!R3="0","0,1",IF(GraphicMatrix!R3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D210" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,1=1,0</v>
+        <v>16,1=0,1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,11 +5136,11 @@
       </c>
       <c r="C211" s="1" t="str">
         <f>IF(GraphicMatrix!R4="0","0,1",IF(GraphicMatrix!R4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D211" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,2=1,0</v>
+        <v>16,2=0,1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,11 +5168,11 @@
       </c>
       <c r="C213" s="1" t="str">
         <f>IF(GraphicMatrix!R6="0","0,1",IF(GraphicMatrix!R6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D213" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,4=1,0</v>
+        <v>16,4=0,1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,11 +5200,11 @@
       </c>
       <c r="C215" s="1" t="str">
         <f>IF(GraphicMatrix!R8="0","0,1",IF(GraphicMatrix!R8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D215" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,6=1,0</v>
+        <v>16,6=0,1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5185,11 +5216,11 @@
       </c>
       <c r="C216" s="1" t="str">
         <f>IF(GraphicMatrix!R9="0","0,1",IF(GraphicMatrix!R9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D216" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>16,7=1,0</v>
+        <v>16,7=0,1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,11 +5312,11 @@
       </c>
       <c r="C222" s="1" t="str">
         <f>IF(GraphicMatrix!S2="0","0,1",IF(GraphicMatrix!S2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D222" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,0=1,0</v>
+        <v>17,0=0,1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,11 +5328,11 @@
       </c>
       <c r="C223" s="1" t="str">
         <f>IF(GraphicMatrix!S3="0","0,1",IF(GraphicMatrix!S3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D223" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,1=1,0</v>
+        <v>17,1=0,1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,11 +5456,11 @@
       </c>
       <c r="C231" s="1" t="str">
         <f>IF(GraphicMatrix!S11="0","0,1",IF(GraphicMatrix!S11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D231" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,9=1,0</v>
+        <v>17,9=0,1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,11 +5472,11 @@
       </c>
       <c r="C232" s="1" t="str">
         <f>IF(GraphicMatrix!S12="0","0,1",IF(GraphicMatrix!S12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D232" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,10=1,0</v>
+        <v>17,10=0,1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5457,11 +5488,11 @@
       </c>
       <c r="C233" s="1" t="str">
         <f>IF(GraphicMatrix!S13="0","0,1",IF(GraphicMatrix!S13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D233" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,11=1,0</v>
+        <v>17,11=0,1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,11 +5504,11 @@
       </c>
       <c r="C234" s="1" t="str">
         <f>IF(GraphicMatrix!S14="0","0,1",IF(GraphicMatrix!S14="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D234" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>17,12=1,0</v>
+        <v>17,12=0,1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,11 +5536,11 @@
       </c>
       <c r="C236" s="1" t="str">
         <f>IF(GraphicMatrix!T3="0","0,1",IF(GraphicMatrix!T3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D236" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,1=1,0</v>
+        <v>18,1=0,1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,11 +5552,11 @@
       </c>
       <c r="C237" s="1" t="str">
         <f>IF(GraphicMatrix!T4="0","0,1",IF(GraphicMatrix!T4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D237" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,2=1,0</v>
+        <v>18,2=0,1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5553,11 +5584,11 @@
       </c>
       <c r="C239" s="1" t="str">
         <f>IF(GraphicMatrix!T6="0","0,1",IF(GraphicMatrix!T6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D239" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,4=1,0</v>
+        <v>18,4=0,1</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,11 +5616,11 @@
       </c>
       <c r="C241" s="1" t="str">
         <f>IF(GraphicMatrix!T8="0","0,1",IF(GraphicMatrix!T8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D241" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>18,6=1,0</v>
+        <v>18,6=0,1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,11 +5792,11 @@
       </c>
       <c r="C252" s="1" t="str">
         <f>IF(GraphicMatrix!U6="0","0,1",IF(GraphicMatrix!U6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D252" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,4=1,0</v>
+        <v>19,4=0,1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,11 +5824,11 @@
       </c>
       <c r="C254" s="1" t="str">
         <f>IF(GraphicMatrix!U8="0","0,1",IF(GraphicMatrix!U8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D254" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,6=1,0</v>
+        <v>19,6=0,1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,11 +5840,11 @@
       </c>
       <c r="C255" s="1" t="str">
         <f>IF(GraphicMatrix!U9="0","0,1",IF(GraphicMatrix!U9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D255" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,7=1,0</v>
+        <v>19,7=0,1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,11 +5856,11 @@
       </c>
       <c r="C256" s="1" t="str">
         <f>IF(GraphicMatrix!U10="0","0,1",IF(GraphicMatrix!U10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D256" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>19,8=1,0</v>
+        <v>19,8=0,1</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,11 +5872,11 @@
       </c>
       <c r="C257" s="1" t="str">
         <f>IF(GraphicMatrix!U11="0","0,1",IF(GraphicMatrix!U11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D257" s="13" t="str">
         <f t="shared" ref="D257:D312" si="4">A257&amp;","&amp;B257&amp;"="&amp;C257</f>
-        <v>19,9=1,0</v>
+        <v>19,9=0,1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5857,11 +5888,11 @@
       </c>
       <c r="C258" s="1" t="str">
         <f>IF(GraphicMatrix!U12="0","0,1",IF(GraphicMatrix!U12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D258" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>19,10=1,0</v>
+        <v>19,10=0,1</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,11 +5904,11 @@
       </c>
       <c r="C259" s="1" t="str">
         <f>IF(GraphicMatrix!U13="0","0,1",IF(GraphicMatrix!U13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D259" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>19,11=1,0</v>
+        <v>19,11=0,1</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,11 +5936,11 @@
       </c>
       <c r="C261" s="1" t="str">
         <f>IF(GraphicMatrix!V2="0","0,1",IF(GraphicMatrix!V2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D261" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,0=1,0</v>
+        <v>20,0=0,1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,11 +5952,11 @@
       </c>
       <c r="C262" s="1" t="str">
         <f>IF(GraphicMatrix!V3="0","0,1",IF(GraphicMatrix!V3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D262" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,1=1,0</v>
+        <v>20,1=0,1</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,11 +5968,11 @@
       </c>
       <c r="C263" s="1" t="str">
         <f>IF(GraphicMatrix!V4="0","0,1",IF(GraphicMatrix!V4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D263" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,2=1,0</v>
+        <v>20,2=0,1</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,11 +5984,11 @@
       </c>
       <c r="C264" s="1" t="str">
         <f>IF(GraphicMatrix!V5="0","0,1",IF(GraphicMatrix!V5="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D264" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,3=1,0</v>
+        <v>20,3=0,1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,11 +6000,11 @@
       </c>
       <c r="C265" s="1" t="str">
         <f>IF(GraphicMatrix!V6="0","0,1",IF(GraphicMatrix!V6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D265" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>20,4=1,0</v>
+        <v>20,4=0,1</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,11 +6240,11 @@
       </c>
       <c r="C280" s="1" t="str">
         <f>IF(GraphicMatrix!W8="0","0,1",IF(GraphicMatrix!W8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D280" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,6=1,0</v>
+        <v>21,6=0,1</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6225,11 +6256,11 @@
       </c>
       <c r="C281" s="1" t="str">
         <f>IF(GraphicMatrix!W9="0","0,1",IF(GraphicMatrix!W9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D281" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,7=1,0</v>
+        <v>21,7=0,1</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6241,11 +6272,11 @@
       </c>
       <c r="C282" s="1" t="str">
         <f>IF(GraphicMatrix!W10="0","0,1",IF(GraphicMatrix!W10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D282" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,8=1,0</v>
+        <v>21,8=0,1</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,11 +6288,11 @@
       </c>
       <c r="C283" s="1" t="str">
         <f>IF(GraphicMatrix!W11="0","0,1",IF(GraphicMatrix!W11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D283" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,9=1,0</v>
+        <v>21,9=0,1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6273,11 +6304,11 @@
       </c>
       <c r="C284" s="1" t="str">
         <f>IF(GraphicMatrix!W12="0","0,1",IF(GraphicMatrix!W12="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D284" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,10=1,0</v>
+        <v>21,10=0,1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,11 +6320,11 @@
       </c>
       <c r="C285" s="1" t="str">
         <f>IF(GraphicMatrix!W13="0","0,1",IF(GraphicMatrix!W13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D285" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>21,11=1,0</v>
+        <v>21,11=0,1</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,11 +6352,11 @@
       </c>
       <c r="C287" s="1" t="str">
         <f>IF(GraphicMatrix!X2="0","0,1",IF(GraphicMatrix!X2="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D287" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,0=1,0</v>
+        <v>22,0=0,1</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,11 +6368,11 @@
       </c>
       <c r="C288" s="1" t="str">
         <f>IF(GraphicMatrix!X3="0","0,1",IF(GraphicMatrix!X3="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D288" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,1=1,0</v>
+        <v>22,1=0,1</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,11 +6384,11 @@
       </c>
       <c r="C289" s="1" t="str">
         <f>IF(GraphicMatrix!X4="0","0,1",IF(GraphicMatrix!X4="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D289" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,2=1,0</v>
+        <v>22,2=0,1</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6385,11 +6416,11 @@
       </c>
       <c r="C291" s="1" t="str">
         <f>IF(GraphicMatrix!X6="0","0,1",IF(GraphicMatrix!X6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D291" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,4=1,0</v>
+        <v>22,4=0,1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6497,11 +6528,11 @@
       </c>
       <c r="C298" s="1" t="str">
         <f>IF(GraphicMatrix!X13="0","0,1",IF(GraphicMatrix!X13="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D298" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>22,11=1,0</v>
+        <v>22,11=0,1</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6593,11 +6624,11 @@
       </c>
       <c r="C304" s="1" t="str">
         <f>IF(GraphicMatrix!Y6="0","0,1",IF(GraphicMatrix!Y6="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D304" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,4=1,0</v>
+        <v>23,4=0,1</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,11 +6640,11 @@
       </c>
       <c r="C305" s="1" t="str">
         <f>IF(GraphicMatrix!Y7="0","0,1",IF(GraphicMatrix!Y7="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D305" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,5=1,0</v>
+        <v>23,5=0,1</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,11 +6656,11 @@
       </c>
       <c r="C306" s="1" t="str">
         <f>IF(GraphicMatrix!Y8="0","0,1",IF(GraphicMatrix!Y8="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D306" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,6=1,0</v>
+        <v>23,6=0,1</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6641,11 +6672,11 @@
       </c>
       <c r="C307" s="1" t="str">
         <f>IF(GraphicMatrix!Y9="0","0,1",IF(GraphicMatrix!Y9="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D307" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,7=1,0</v>
+        <v>23,7=0,1</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,11 +6688,11 @@
       </c>
       <c r="C308" s="1" t="str">
         <f>IF(GraphicMatrix!Y10="0","0,1",IF(GraphicMatrix!Y10="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D308" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,8=1,0</v>
+        <v>23,8=0,1</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,11 +6704,11 @@
       </c>
       <c r="C309" s="1" t="str">
         <f>IF(GraphicMatrix!Y11="0","0,1",IF(GraphicMatrix!Y11="1","1,0",""))</f>
-        <v>1,0</v>
+        <v>0,1</v>
       </c>
       <c r="D309" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>23,9=1,0</v>
+        <v>23,9=0,1</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
